--- a/Transplants_Raw_Master.xlsx
+++ b/Transplants_Raw_Master.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D8A5605-04D9-184A-B5EB-40014B248885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED5AB2A-B1B4-D747-B557-9BB1B7787B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="980" windowWidth="13500" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
+    <workbookView xWindow="10140" yWindow="500" windowWidth="15300" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,16 +35,448 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="145">
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovered </t>
+  </si>
+  <si>
+    <t>Airbrush Date</t>
+  </si>
+  <si>
+    <t>Arbrush volume</t>
+  </si>
+  <si>
+    <t>Airbrush Initials</t>
+  </si>
+  <si>
+    <t>Aliquot Date</t>
+  </si>
+  <si>
+    <t>Aliquot Initials</t>
+  </si>
+  <si>
+    <t>Chl_box</t>
+  </si>
+  <si>
+    <t>Host_PTAC_box</t>
+  </si>
+  <si>
+    <t>Sym_PTAC_box</t>
+  </si>
+  <si>
+    <t>Sym_density_box</t>
+  </si>
+  <si>
+    <t>Ash_bag</t>
+  </si>
+  <si>
+    <t>Calice_bag</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>0HS3</t>
+  </si>
+  <si>
+    <t>0HS4</t>
+  </si>
+  <si>
+    <t>2HS12</t>
+  </si>
+  <si>
+    <t>2HS2</t>
+  </si>
+  <si>
+    <t>2HS48</t>
+  </si>
+  <si>
+    <t>2HS6</t>
+  </si>
+  <si>
+    <t>9AZ5</t>
+  </si>
+  <si>
+    <t>9AZ9</t>
+  </si>
+  <si>
+    <t>9EV35</t>
+  </si>
+  <si>
+    <t>9EV4</t>
+  </si>
+  <si>
+    <t>9EV40</t>
+  </si>
+  <si>
+    <t>9EV5</t>
+  </si>
+  <si>
+    <t>9GT35</t>
+  </si>
+  <si>
+    <t>9GT4</t>
+  </si>
+  <si>
+    <t>9GT46</t>
+  </si>
+  <si>
+    <t>9IR44</t>
+  </si>
+  <si>
+    <t>9JQ4</t>
+  </si>
+  <si>
+    <t>9JQ42</t>
+  </si>
+  <si>
+    <t>9JQ53</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>0GT1</t>
+  </si>
+  <si>
+    <t>9JQ43</t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
+  <si>
+    <t>9JQ431</t>
+  </si>
+  <si>
+    <t>9AZ2</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Full_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p </t>
+  </si>
+  <si>
+    <t>p #1</t>
+  </si>
+  <si>
+    <t>p #2</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>OHS2</t>
+  </si>
+  <si>
+    <t>OFAV</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>0AZ4</t>
+  </si>
+  <si>
+    <t>0DW46</t>
+  </si>
+  <si>
+    <t>0EV3</t>
+  </si>
+  <si>
+    <t>1AZ5</t>
+  </si>
+  <si>
+    <t>2AZ2</t>
+  </si>
+  <si>
+    <t>2AZ21</t>
+  </si>
+  <si>
+    <t>2AZ7</t>
+  </si>
+  <si>
+    <t>2DW40</t>
+  </si>
+  <si>
+    <t>2DW44</t>
+  </si>
+  <si>
+    <t>2EV10</t>
+  </si>
+  <si>
+    <t>2EV3</t>
+  </si>
+  <si>
+    <t>2EV30</t>
+  </si>
+  <si>
+    <t>2EV34</t>
+  </si>
+  <si>
+    <t>2EV36</t>
+  </si>
+  <si>
+    <t>2EV44</t>
+  </si>
+  <si>
+    <t>2EV6</t>
+  </si>
+  <si>
+    <t>2JQ31</t>
+  </si>
+  <si>
+    <t>2JQ6</t>
+  </si>
+  <si>
+    <t>2JQ8</t>
+  </si>
+  <si>
+    <t>3EV30</t>
+  </si>
+  <si>
+    <t>3JQ1</t>
+  </si>
+  <si>
+    <t>p x2</t>
+  </si>
+  <si>
+    <t>4DW11</t>
+  </si>
+  <si>
+    <t>4DW14</t>
+  </si>
+  <si>
+    <t>4EV14</t>
+  </si>
+  <si>
+    <t>4EV15</t>
+  </si>
+  <si>
+    <t>4JQ12</t>
+  </si>
+  <si>
+    <t>6JQ16</t>
+  </si>
+  <si>
+    <t>8EV24</t>
+  </si>
+  <si>
+    <t>9AZ10</t>
+  </si>
+  <si>
+    <t>9AZ7</t>
+  </si>
+  <si>
+    <t>9AZ81</t>
+  </si>
+  <si>
+    <t>9DW37</t>
+  </si>
+  <si>
+    <t>9EV2</t>
+  </si>
+  <si>
+    <t>9EV41</t>
+  </si>
+  <si>
+    <t>9JQ5</t>
+  </si>
+  <si>
+    <t>JQ1</t>
+  </si>
+  <si>
+    <t>0EV1</t>
+  </si>
+  <si>
+    <t>2AZ3</t>
+  </si>
+  <si>
+    <t>3AZ4</t>
+  </si>
+  <si>
+    <t>9DW32</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>0CX4</t>
+  </si>
+  <si>
+    <t>0CX5</t>
+  </si>
+  <si>
+    <t>0GT3</t>
+  </si>
+  <si>
+    <t>0GT5</t>
+  </si>
+  <si>
+    <t>1GT37</t>
+  </si>
+  <si>
+    <t>1GT42</t>
+  </si>
+  <si>
+    <t>1GT43</t>
+  </si>
+  <si>
+    <t>2CX10</t>
+  </si>
+  <si>
+    <t>2CX12</t>
+  </si>
+  <si>
+    <t>2CX13</t>
+  </si>
+  <si>
+    <t>2CX8</t>
+  </si>
+  <si>
+    <t>2GT10</t>
+  </si>
+  <si>
+    <t>2GT3</t>
+  </si>
+  <si>
+    <t>2GT31</t>
+  </si>
+  <si>
+    <t>2GT41</t>
+  </si>
+  <si>
+    <t>2GT7</t>
+  </si>
+  <si>
+    <t>2HS11</t>
+  </si>
+  <si>
+    <t>2HS17</t>
+  </si>
+  <si>
+    <t>2HS27</t>
+  </si>
+  <si>
+    <t>2HS9</t>
+  </si>
+  <si>
+    <t>4CX12</t>
+  </si>
+  <si>
+    <t>4HS13</t>
+  </si>
+  <si>
+    <t>4HS15</t>
+  </si>
+  <si>
+    <t>6CX18</t>
+  </si>
+  <si>
+    <t>6EV18</t>
+  </si>
+  <si>
+    <t>Maybe?</t>
+  </si>
+  <si>
+    <t>6GT17</t>
+  </si>
+  <si>
+    <t>8CX24</t>
+  </si>
+  <si>
+    <t>8HS23</t>
+  </si>
+  <si>
+    <t>8HS24</t>
+  </si>
+  <si>
+    <t>9CX5</t>
+  </si>
+  <si>
+    <t>9CX6</t>
+  </si>
+  <si>
+    <t>9GT30</t>
+  </si>
+  <si>
+    <t>9GT47</t>
+  </si>
+  <si>
+    <t>2GT30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p might be 2GT38 </t>
+  </si>
+  <si>
+    <t>1GT36</t>
+  </si>
+  <si>
+    <t>8HS21</t>
+  </si>
+  <si>
+    <t>2CX11</t>
+  </si>
+  <si>
+    <t>2GT38</t>
+  </si>
+  <si>
+    <t>OFRA</t>
+  </si>
+  <si>
+    <t>p #3</t>
+  </si>
+  <si>
+    <t>p #4</t>
+  </si>
+  <si>
+    <t>DEV35</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>3JQ10</t>
+  </si>
+  <si>
+    <t>0AZ24</t>
+  </si>
+  <si>
+    <t>4EV1</t>
+  </si>
+  <si>
+    <t>SP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,16 +484,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -69,12 +548,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,20 +970,6221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED04EC-AF48-A04F-A9D1-211D7C4EE961}">
-  <dimension ref="E50"/>
+  <dimension ref="A1:Q271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I221" sqref="I221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="5"/>
+    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="str">
+        <f>B2&amp;"_"&amp;C2&amp;"_"&amp;E2</f>
+        <v>OFAV_PP_310</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>310</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="str">
+        <f t="shared" ref="A3:A66" si="0">B3&amp;"_"&amp;C3&amp;"_"&amp;E3</f>
+        <v>OFAV_PP_313</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>313</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_352</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>352</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_356</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>356</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_357</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>357</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_358</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>358</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_359</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9">
+        <v>359</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_360</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>360</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_362</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9">
+        <v>362</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_365</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <v>365</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_366</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9">
+        <v>366</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_367</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="9">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9">
+        <v>367</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_368</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9">
+        <v>368</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_369</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="9">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9">
+        <v>369</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_371</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="9">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9">
+        <v>371</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_0HS3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="9">
+        <v>17</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_0HS4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9">
+        <v>18</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_2HS12</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="9">
+        <v>19</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_2HS2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="9">
+        <v>20</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_2HS48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="9">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_2HS6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="9">
+        <v>22</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9AZ5</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="9">
+        <v>24</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9AZ9</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="9">
+        <v>25</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9EV35</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="9">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9EV4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="9">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9EV40</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="9">
+        <v>28</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9EV5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="9">
+        <v>29</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9GT35</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="9">
+        <v>30</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9GT4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="9">
+        <v>31</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9GT46</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="9">
+        <v>32</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9IR44</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="9">
+        <v>33</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9JQ4</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="9">
+        <v>34</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9JQ42</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="9">
+        <v>35</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9JQ53</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="9">
+        <v>37</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_AZ</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="9">
+        <v>38</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_CX</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="9">
+        <v>39</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_DW</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="9">
+        <v>40</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_0GT1</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9JQ43</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_370</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="9">
+        <v>15</v>
+      </c>
+      <c r="E41" s="9">
+        <v>370</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9JQ431</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="9">
+        <v>36</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PP_9AZ2</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="9">
+        <v>23</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_310</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11">
+        <v>310</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_313</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="11">
+        <v>313</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_352</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="11">
+        <v>352</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_356</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4</v>
+      </c>
+      <c r="E47" s="11">
+        <v>356</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_357</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+      <c r="E48" s="11">
+        <v>357</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_359</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7</v>
+      </c>
+      <c r="E49" s="11">
+        <v>359</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_360</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8</v>
+      </c>
+      <c r="E50" s="11">
+        <v>360</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_362</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="1">
+        <v>9</v>
+      </c>
+      <c r="E51" s="11">
+        <v>362</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_365</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="1">
+        <v>10</v>
+      </c>
+      <c r="E52" s="11">
+        <v>365</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_365</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="1">
+        <v>10</v>
+      </c>
+      <c r="E53" s="11">
+        <v>365</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_367</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="1">
+        <v>12</v>
+      </c>
+      <c r="E54" s="11">
+        <v>367</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_368</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="1">
+        <v>13</v>
+      </c>
+      <c r="E55" s="11">
+        <v>368</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_369</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1">
+        <v>14</v>
+      </c>
+      <c r="E56" s="11">
+        <v>369</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_370</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="1">
+        <v>15</v>
+      </c>
+      <c r="E57" s="11">
+        <v>370</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_371</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="1">
+        <v>16</v>
+      </c>
+      <c r="E58" s="11">
+        <v>371</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_0HS3</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="1">
+        <v>17</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_0HS4</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="1">
+        <v>18</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_2HS12</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="1">
+        <v>19</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_2HS48</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="1">
+        <v>21</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_2HS6</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="1">
+        <v>22</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_9AZ5</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="1">
+        <v>24</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_9AZ9</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="1">
+        <v>25</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFAV_PS_9EV35</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="1">
+        <v>26</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="str">
+        <f t="shared" ref="A67:A126" si="1">B67&amp;"_"&amp;C67&amp;"_"&amp;E67</f>
+        <v>OFAV_PS_9EV4</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="1">
+        <v>27</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9EV40</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="1">
+        <v>28</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9EV5</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="1">
+        <v>29</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9GT35</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="1">
+        <v>30</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9GT4</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="1">
+        <v>31</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9GT46</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="1">
+        <v>32</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9IR44</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="1">
+        <v>33</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9JQ4</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="1">
+        <v>34</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9JQ42</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="1">
+        <v>35</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9JQ431</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="1">
+        <v>36</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9JQ53</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="1">
+        <v>37</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_AZ</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="1">
+        <v>38</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_CX</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="1">
+        <v>39</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_DW</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="1">
+        <v>40</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_EV</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_OHS2</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_358</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="1">
+        <v>6</v>
+      </c>
+      <c r="E83" s="11">
+        <v>358</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_366</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="1">
+        <v>11</v>
+      </c>
+      <c r="E84" s="11">
+        <v>366</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_2HS2</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="1">
+        <v>20</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_PS_9AZ2</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="1">
+        <v>23</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_0AZ4</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_0DW46</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_0EV3</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_1AZ5</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2AZ2</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2AZ21</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="1">
+        <v>7</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2AZ7</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="1">
+        <v>9</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2DW40</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="1">
+        <v>10</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2DW44</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="1">
+        <v>11</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2EV10</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="1">
+        <v>12</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2EV3</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="1">
+        <v>13</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2EV30</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="1">
+        <v>14</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2EV34</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="1">
+        <v>15</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2EV36</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="1">
+        <v>16</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2EV44</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="1">
+        <v>17</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2EV6</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="1">
+        <v>18</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2JQ31</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" s="1">
+        <v>19</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2JQ6</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" s="1">
+        <v>20</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2JQ8</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" s="1">
+        <v>21</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_3EV30</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" s="1">
+        <v>23</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_3JQ1</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107" s="1">
+        <v>24</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_4DW11</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" s="1">
+        <v>25</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_4DW14</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" s="1">
+        <v>26</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_4EV14</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" s="1">
+        <v>27</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_4EV15</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="1">
+        <v>28</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_4JQ12</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" s="1">
+        <v>29</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_6JQ16</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="1">
+        <v>30</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_8EV24</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" s="1">
+        <v>31</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_9AZ10</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="1">
+        <v>32</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_9AZ7</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="1">
+        <v>33</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_9AZ81</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="1">
+        <v>34</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_9DW37</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" s="1">
+        <v>36</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_9EV2</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="1">
+        <v>37</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_9EV41</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" s="1">
+        <v>38</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_9JQ5</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="1">
+        <v>39</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_JQ1</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" s="1">
+        <v>40</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_0EV1</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_2AZ3</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="1">
+        <v>8</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_3AZ4</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="1">
+        <v>22</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>OFAV_SS_9DW32</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D126" s="1">
+        <v>35</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="str">
+        <f t="shared" ref="A127:A166" si="2">B127&amp;"_"&amp;C127&amp;"_"&amp;E127</f>
+        <v>OFRA_PS_0CX4</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_0CX5</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_0GT1</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_0GT3</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_0GT5</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" s="1">
+        <v>5</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_0GT5</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" s="1">
+        <v>5</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_1GT37</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D133" s="1">
+        <v>7</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_1GT42</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" s="1">
+        <v>8</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_1GT43</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D135" s="1">
+        <v>9</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2CX10</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D136" s="1">
+        <v>10</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2CX12</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D137" s="1">
+        <v>12</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2CX13</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D138" s="1">
+        <v>13</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2CX8</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D139" s="1">
+        <v>14</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2GT10</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" s="1">
+        <v>15</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2GT3</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D141" s="1">
+        <v>16</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2GT31</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D142" s="1">
+        <v>17</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2GT41</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D143" s="1">
+        <v>19</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2GT7</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144" s="1">
+        <v>20</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2HS11</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D145" s="1">
+        <v>21</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2HS17</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D146" s="1">
+        <v>22</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2HS27</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D147" s="1">
+        <v>23</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2HS9</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D148" s="1">
+        <v>24</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_4CX12</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D149" s="1">
+        <v>25</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_4HS13</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150" s="1">
+        <v>26</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_4HS15</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151" s="1">
+        <v>27</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_6CX18</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D152" s="1">
+        <v>28</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_6EV18</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D153" s="1">
+        <v>29</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_6GT17</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D154" s="1">
+        <v>30</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_8CX24</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" s="1">
+        <v>31</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_8HS23</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D156" s="1">
+        <v>33</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_8HS24</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157" s="1">
+        <v>34</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_9CX5</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" s="1">
+        <v>35</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_9CX6</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" s="1">
+        <v>36</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_9GT30</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D160" s="1">
+        <v>37</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_9GT47</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" s="1">
+        <v>38</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2GT30</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_1GT36</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D163" s="1">
+        <v>6</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_8HS21</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D164" s="1">
+        <v>32</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2CX11</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D165" s="1">
+        <v>11</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>OFRA_PS_2GT38</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D166" s="1">
+        <v>18</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="5" t="str">
+        <f t="shared" ref="A167:A177" si="3">B167&amp;"_"&amp;C167&amp;"_"&amp;E167</f>
+        <v>OFRA_PP_0CX4</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D167" s="13">
+        <v>1</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F167" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OFRA_PP_0CX5</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" s="13">
+        <v>2</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F168" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OFRA_PP_0GT1</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D169" s="13">
+        <v>3</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F169" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OFRA_PP_0GT5</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D170" s="13">
+        <v>5</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F170" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OFRA_PP_1GT37</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D171" s="13">
+        <v>7</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F171" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OFRA_PP_1GT37</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" s="13">
+        <v>7</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F172" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OFRA_PP_1GT42</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" s="13">
+        <v>8</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F173" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OFRA_PP_1GT42</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D174" s="13">
+        <v>8</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F174" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OFRA_PP_2CX12</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D175" s="13">
+        <v>12</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F175" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OFRA_PP_2CX12</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D176" s="13">
+        <v>12</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F176" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OFRA_PP_2GT10</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D177" s="13">
+        <v>15</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F177" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="5" t="str">
+        <f t="shared" ref="A178:A211" si="4">B178&amp;"_"&amp;C178&amp;"_"&amp;E178</f>
+        <v>OFRA_PP_2GT3</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" s="13">
+        <v>16</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F178" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2GT3</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D179" s="13">
+        <v>16</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F179" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2GT38</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D180" s="13">
+        <v>18</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F180" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2GT41</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D181" s="13">
+        <v>19</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F181" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2GT41</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D182" s="13">
+        <v>19</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F182" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2GT7</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D183" s="13">
+        <v>20</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F183" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2GT7</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D184" s="13">
+        <v>20</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F184" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2HS11</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D185" s="13">
+        <v>21</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F185" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2HS17</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D186" s="13">
+        <v>22</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F186" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2HS17</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D187" s="13">
+        <v>22</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F187" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2HS27</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D188" s="13">
+        <v>23</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2HS9</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D189" s="13">
+        <v>24</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F189" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2HS9</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D190" s="13">
+        <v>24</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F190" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_4CX12</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" s="13">
+        <v>25</v>
+      </c>
+      <c r="E191" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F191" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_4HS15</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D192" s="13">
+        <v>27</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F192" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_6EV18</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D193" s="13">
+        <v>29</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_6GT17</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D194" s="13">
+        <v>30</v>
+      </c>
+      <c r="E194" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F194" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_8CX24</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D195" s="13">
+        <v>31</v>
+      </c>
+      <c r="E195" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F195" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_8HS21</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D196" s="13">
+        <v>32</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F196" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_8HS23</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D197" s="13">
+        <v>33</v>
+      </c>
+      <c r="E197" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F197" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_8HS24</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D198" s="13">
+        <v>34</v>
+      </c>
+      <c r="E198" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F198" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_9CX5</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D199" s="13">
+        <v>35</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F199" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_9CX5</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D200" s="13">
+        <v>35</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F200" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_9GT30</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D201" s="13">
+        <v>37</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F201" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_9GT30</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D202" s="13">
+        <v>37</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F202" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_9CX6</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D203" s="13">
+        <v>36</v>
+      </c>
+      <c r="E203" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F203" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_9GT47</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D204" s="16">
+        <v>38</v>
+      </c>
+      <c r="E204" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F204" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_0GT3</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D205" s="13">
+        <v>4</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F205" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_1GT36</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D206" s="13">
+        <v>6</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F206" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_1GT43</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D207" s="13">
+        <v>9</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F207" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2CX10</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D208" s="13">
+        <v>10</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F208" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2CX11</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D209" s="13">
+        <v>11</v>
+      </c>
+      <c r="E209" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F209" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2CX13</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D210" s="13">
+        <v>13</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F210" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>OFRA_PP_2CX8</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D211" s="13">
+        <v>14</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F211" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="str">
+        <f t="shared" ref="A212:A214" si="5">B212&amp;"_"&amp;C212&amp;"_"&amp;E212</f>
+        <v>OFRA_PP_2GT31</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D212" s="13">
+        <v>17</v>
+      </c>
+      <c r="E212" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F212" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>OFRA_PP_4HS13</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D213" s="13">
+        <v>26</v>
+      </c>
+      <c r="E213" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F213" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>OFRA_PP_6CX18</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D214" s="13">
+        <v>28</v>
+      </c>
+      <c r="E214" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F214" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="5" t="str">
+        <f t="shared" ref="A215:A271" si="6">B215&amp;"_"&amp;C215&amp;"_"&amp;E215</f>
+        <v>OFAV_SP_0AZ4</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_0EV3</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D216" s="1">
+        <v>4</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_0EV3</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D217" s="1">
+        <v>4</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2AZ21</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D218" s="1">
+        <v>7</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2AZ21</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D219" s="1">
+        <v>7</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2AZ7</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D220" s="1">
+        <v>9</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2AZ7</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D221" s="1">
+        <v>9</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2AZ7</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D222" s="1">
+        <v>9</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2AZ7</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D223" s="1">
+        <v>9</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2JQ31</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D224" s="1">
+        <v>19</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2JQ31</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D225" s="1">
+        <v>19</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2JQ31</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D226" s="1">
+        <v>19</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2JQ8</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D227" s="1">
+        <v>21</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_3EV30</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D228" s="1">
+        <v>23</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_3EV30</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D229" s="1">
+        <v>23</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_3JQ1</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D230" s="1">
+        <v>24</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_3JQ1</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D231" s="1">
+        <v>24</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_3JQ1</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D232" s="1">
+        <v>24</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_3JQ1</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D233" s="1">
+        <v>24</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_4DW11</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D234" s="1">
+        <v>25</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_4EV15</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D235" s="1">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_6JQ16</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D236" s="1">
+        <v>30</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_8EV24</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D237" s="1">
+        <v>31</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_9EV2</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D238" s="1">
+        <v>37</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_EV</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_DEV35</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_3JQ10</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_0AZ24</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_4JQ12</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D243" s="1">
+        <v>29</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_9AZ10</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D244" s="1">
+        <v>32</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_9AZ7</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D245" s="1">
+        <v>33</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_9AZ81</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D246" s="1">
+        <v>34</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_9DW32</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D247" s="1">
+        <v>35</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_9DW37</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D248" s="1">
+        <v>36</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_9EV41</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D249" s="1">
+        <v>38</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_9JQ5</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D250" s="1">
+        <v>39</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_JQ1</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D251" s="1">
+        <v>40</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_0DW46</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D252" s="1">
+        <v>2</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_0EV1</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D253" s="1">
+        <v>3</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_1AZ5</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D254" s="1">
+        <v>5</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2AZ2</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D255" s="1">
+        <v>6</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2AZ3</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D256" s="1">
+        <v>8</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2DW40</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D257" s="1">
+        <v>10</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2DW44</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D258" s="1">
+        <v>11</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2EV10</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D259" s="1">
+        <v>12</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2EV3</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D260" s="1">
+        <v>13</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2EV30</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D261" s="1">
+        <v>14</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2EV34</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D262" s="1">
+        <v>15</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2EV36</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D263" s="1">
+        <v>16</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2EV44</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D264" s="1">
+        <v>17</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2EV6</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D265" s="1">
+        <v>18</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2JQ6</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D266" s="1">
+        <v>20</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_3AZ4</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D267" s="1">
+        <v>22</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_4DW14</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D268" s="1">
+        <v>26</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_4EV14</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D269" s="1">
+        <v>27</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_4EV1</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_SP_2GT7</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D271" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F271" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Transplants_Raw_Master.xlsx
+++ b/Transplants_Raw_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D373A630-EEB7-1241-8D48-772AE2953168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E879C696-A126-0D49-B0B8-29C52999C3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="500" windowWidth="17680" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="24820" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="183">
   <si>
     <t>Species</t>
   </si>
@@ -480,6 +480,111 @@
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CE/WD</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>TC/WD</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TC/DM</t>
+  </si>
+  <si>
+    <t>PRACTICE</t>
+  </si>
+  <si>
+    <t>55SS1T</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Green_Encrusting_Pavona</t>
+  </si>
+  <si>
+    <t>Pagoda_Cup</t>
+  </si>
+  <si>
+    <t>Branching_Pavona</t>
+  </si>
+  <si>
+    <t>30OA1</t>
+  </si>
+  <si>
+    <t>Tangerine_Leoptoseris</t>
+  </si>
+  <si>
+    <t>DM/TC</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>wd</t>
+  </si>
+  <si>
+    <t>TL/LZ</t>
+  </si>
+  <si>
+    <t>ZB</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>NAMES</t>
+  </si>
+  <si>
+    <t>INITIALS</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>Willow Dunster</t>
+  </si>
+  <si>
+    <t>Taylor Lindsay</t>
+  </si>
+  <si>
+    <t>Matias Gomez</t>
+  </si>
+  <si>
+    <t>Lauren Zane</t>
+  </si>
+  <si>
+    <t>Cat Eno</t>
+  </si>
+  <si>
+    <t>Taya Clements</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>3EV31</t>
+  </si>
+  <si>
+    <t>P #3</t>
   </si>
 </sst>
 </file>
@@ -550,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -576,6 +681,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,10 +997,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED04EC-AF48-A04F-A9D1-211D7C4EE961}">
-  <dimension ref="A1:Q271"/>
+  <dimension ref="A1:Q278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G247" sqref="G247"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,7 +1011,7 @@
     <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="4" bestFit="1" customWidth="1"/>
@@ -991,15 +1099,33 @@
       <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="G2" s="11">
+        <v>44648</v>
+      </c>
+      <c r="H2" s="9">
+        <v>30</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="11">
+        <v>44648</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="9">
+        <v>4</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2</v>
+      </c>
+      <c r="O2" s="9">
+        <v>3</v>
+      </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
@@ -1023,15 +1149,33 @@
       <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="G3" s="11">
+        <v>44643</v>
+      </c>
+      <c r="H3" s="9">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="11">
+        <v>44642</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="9">
+        <v>4</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
+        <v>2</v>
+      </c>
+      <c r="O3" s="9">
+        <v>3</v>
+      </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
@@ -1119,15 +1263,33 @@
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="G6" s="11">
+        <v>44631</v>
+      </c>
+      <c r="H6" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="11">
+        <v>44631</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="9">
+        <v>4</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
+        <v>2</v>
+      </c>
+      <c r="O6" s="9">
+        <v>3</v>
+      </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
@@ -1151,15 +1313,33 @@
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="G7" s="11">
+        <v>44643</v>
+      </c>
+      <c r="H7" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="11">
+        <v>44643</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="9">
+        <v>4</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>3</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
@@ -1183,15 +1363,33 @@
       <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="G8" s="11">
+        <v>44624</v>
+      </c>
+      <c r="H8" s="9">
+        <v>33</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="11">
+        <v>44629</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="9">
+        <v>4</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2</v>
+      </c>
+      <c r="O8" s="9">
+        <v>3</v>
+      </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
@@ -1215,15 +1413,33 @@
       <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="G9" s="11">
+        <v>44631</v>
+      </c>
+      <c r="H9" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="11">
+        <v>44631</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="9">
+        <v>4</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="9">
+        <v>3</v>
+      </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
@@ -1247,15 +1463,33 @@
       <c r="F10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="G10" s="11">
+        <v>44627</v>
+      </c>
+      <c r="H10" s="9">
+        <v>19</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="11">
+        <v>44627</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="9">
+        <v>4</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2</v>
+      </c>
+      <c r="O10" s="9">
+        <v>3</v>
+      </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
@@ -1279,15 +1513,33 @@
       <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="G11" s="11">
+        <v>44629</v>
+      </c>
+      <c r="H11" s="9">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="11">
+        <v>44629</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="9">
+        <v>4</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2</v>
+      </c>
+      <c r="O11" s="9">
+        <v>3</v>
+      </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
@@ -1343,15 +1595,33 @@
       <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="G13" s="11">
+        <v>44641</v>
+      </c>
+      <c r="H13" s="9">
+        <v>23</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="11">
+        <v>44641</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="9">
+        <v>4</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
+        <v>2</v>
+      </c>
+      <c r="O13" s="9">
+        <v>3</v>
+      </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
@@ -1375,15 +1645,33 @@
       <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="G14" s="11">
+        <v>44631</v>
+      </c>
+      <c r="H14" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="11">
+        <v>44631</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="9">
+        <v>4</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9">
+        <v>2</v>
+      </c>
+      <c r="O14" s="9">
+        <v>3</v>
+      </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
@@ -1407,15 +1695,33 @@
       <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="G15" s="11">
+        <v>44631</v>
+      </c>
+      <c r="H15" s="9">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="11">
+        <v>44631</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="9">
+        <v>4</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>2</v>
+      </c>
+      <c r="O15" s="9">
+        <v>3</v>
+      </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
@@ -1439,15 +1745,33 @@
       <c r="F16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="G16" s="11">
+        <v>44641</v>
+      </c>
+      <c r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="11">
+        <v>44641</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="9">
+        <v>4</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9">
+        <v>2</v>
+      </c>
+      <c r="O16" s="9">
+        <v>3</v>
+      </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
@@ -1503,15 +1827,33 @@
       <c r="F18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="G18" s="11">
+        <v>44627</v>
+      </c>
+      <c r="H18" s="9">
+        <v>34</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="11">
+        <v>44627</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
@@ -1535,15 +1877,33 @@
       <c r="F19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="G19" s="11">
+        <v>44642</v>
+      </c>
+      <c r="H19" s="9">
+        <v>17</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="11">
+        <v>44642</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="9">
+        <v>4</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1</v>
+      </c>
+      <c r="N19" s="9">
+        <v>2</v>
+      </c>
+      <c r="O19" s="9">
+        <v>3</v>
+      </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
@@ -1567,15 +1927,33 @@
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="G20" s="11">
+        <v>44629</v>
+      </c>
+      <c r="H20" s="9">
+        <v>20</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="11">
+        <v>44629</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="9">
+        <v>4</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9">
+        <v>2</v>
+      </c>
+      <c r="O20" s="9">
+        <v>3</v>
+      </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
@@ -1695,15 +2073,33 @@
       <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="G24" s="11">
+        <v>44642</v>
+      </c>
+      <c r="H24" s="9">
+        <v>15</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="11">
+        <v>44642</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="9">
+        <v>4</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1</v>
+      </c>
+      <c r="N24" s="9">
+        <v>2</v>
+      </c>
+      <c r="O24" s="9">
+        <v>3</v>
+      </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
@@ -1759,15 +2155,33 @@
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="G26" s="11">
+        <v>44641</v>
+      </c>
+      <c r="H26" s="9">
+        <v>27</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="11">
+        <v>44613</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="9">
+        <v>4</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="9">
+        <v>2</v>
+      </c>
+      <c r="O26" s="9">
+        <v>3</v>
+      </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
@@ -1887,15 +2301,33 @@
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="G30" s="11">
+        <v>44620</v>
+      </c>
+      <c r="H30" s="9">
+        <v>34</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" s="11">
+        <v>44648</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L30" s="9">
+        <v>4</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1</v>
+      </c>
+      <c r="N30" s="9">
+        <v>2</v>
+      </c>
+      <c r="O30" s="9">
+        <v>3</v>
+      </c>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
@@ -1919,15 +2351,33 @@
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
+      <c r="G31" s="11">
+        <v>44623</v>
+      </c>
+      <c r="H31" s="9">
+        <v>11</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J31" s="11">
+        <v>44643</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L31" s="9">
+        <v>4</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9">
+        <v>2</v>
+      </c>
+      <c r="O31" s="9">
+        <v>3</v>
+      </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
@@ -1983,15 +2433,33 @@
       <c r="F33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="G33" s="11">
+        <v>44643</v>
+      </c>
+      <c r="H33" s="9">
+        <v>15</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="11">
+        <v>44643</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L33" s="9">
+        <v>4</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1</v>
+      </c>
+      <c r="N33" s="9">
+        <v>2</v>
+      </c>
+      <c r="O33" s="9">
+        <v>3</v>
+      </c>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
@@ -2015,15 +2483,33 @@
       <c r="F34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
+      <c r="G34" s="11">
+        <v>44629</v>
+      </c>
+      <c r="H34" s="9">
+        <v>13</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" s="11">
+        <v>44629</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L34" s="9">
+        <v>4</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1</v>
+      </c>
+      <c r="N34" s="9">
+        <v>2</v>
+      </c>
+      <c r="O34" s="9">
+        <v>3</v>
+      </c>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
@@ -2079,15 +2565,33 @@
       <c r="F36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
+      <c r="G36" s="11">
+        <v>44623</v>
+      </c>
+      <c r="H36" s="9">
+        <v>35</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J36" s="11">
+        <v>12122</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L36" s="9">
+        <v>4</v>
+      </c>
+      <c r="M36" s="9">
+        <v>1</v>
+      </c>
+      <c r="N36" s="9">
+        <v>2</v>
+      </c>
+      <c r="O36" s="9">
+        <v>3</v>
+      </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
     </row>
@@ -2111,15 +2615,33 @@
       <c r="F37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
+      <c r="G37" s="11">
+        <v>44641</v>
+      </c>
+      <c r="H37" s="9">
+        <v>36</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J37" s="11">
+        <v>44641</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L37" s="9">
+        <v>4</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1</v>
+      </c>
+      <c r="N37" s="9">
+        <v>2</v>
+      </c>
+      <c r="O37" s="9">
+        <v>3</v>
+      </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
     </row>
@@ -2143,15 +2665,33 @@
       <c r="F38" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="G38" s="11">
+        <v>44641</v>
+      </c>
+      <c r="H38" s="9">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J38" s="11">
+        <v>44641</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L38" s="9">
+        <v>4</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1</v>
+      </c>
+      <c r="N38" s="9">
+        <v>2</v>
+      </c>
+      <c r="O38" s="9">
+        <v>3</v>
+      </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
     </row>
@@ -2240,7 +2780,6 @@
         <v>11</v>
       </c>
       <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -2303,15 +2842,33 @@
       <c r="F43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
+      <c r="G43" s="11">
+        <v>44627</v>
+      </c>
+      <c r="H43" s="9">
+        <v>25</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J43" s="11">
+        <v>44627</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L43" s="9">
+        <v>4</v>
+      </c>
+      <c r="M43" s="9">
+        <v>1</v>
+      </c>
+      <c r="N43" s="9">
+        <v>2</v>
+      </c>
+      <c r="O43" s="9">
+        <v>3</v>
+      </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
     </row>
@@ -3092,7 +3649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="str">
         <f>B81&amp;"_"&amp;C81&amp;"_"&amp;E81</f>
         <v>OFAV_PS_9JQ53</v>
@@ -3113,7 +3670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="str">
         <f>B82&amp;"_"&amp;C82&amp;"_"&amp;E82</f>
         <v>OFAV_PS_AZ</v>
@@ -3134,7 +3691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="str">
         <f>B83&amp;"_"&amp;C83&amp;"_"&amp;E83</f>
         <v>OFAV_PS_CX</v>
@@ -3155,7 +3712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="str">
         <f>B84&amp;"_"&amp;C84&amp;"_"&amp;E84</f>
         <v>OFAV_PS_DW</v>
@@ -3176,7 +3733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="str">
         <f>B85&amp;"_"&amp;C85&amp;"_"&amp;E85</f>
         <v>OFAV_PS_EV</v>
@@ -3197,7 +3754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="str">
         <f>B86&amp;"_"&amp;C86&amp;"_"&amp;E86</f>
         <v>OFAV_PS_OHS2</v>
@@ -3218,7 +3775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="str">
         <f>B87&amp;"_"&amp;C87&amp;"_"&amp;E87</f>
         <v>OFAV_SP_0AZ24</v>
@@ -3238,8 +3795,35 @@
       <c r="F87" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="12">
+        <v>44616</v>
+      </c>
+      <c r="H87" s="4">
+        <v>36</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J87" s="12">
+        <v>44616</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L87" s="4">
+        <v>4</v>
+      </c>
+      <c r="M87" s="4">
+        <v>1</v>
+      </c>
+      <c r="N87" s="4">
+        <v>2</v>
+      </c>
+      <c r="O87" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="str">
         <f>B88&amp;"_"&amp;C88&amp;"_"&amp;E88</f>
         <v>OFAV_SP_0AZ4</v>
@@ -3259,8 +3843,35 @@
       <c r="F88" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="12">
+        <v>44610</v>
+      </c>
+      <c r="H88" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J88" s="12">
+        <v>44610</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L88" s="4">
+        <v>4</v>
+      </c>
+      <c r="M88" s="4">
+        <v>1</v>
+      </c>
+      <c r="N88" s="4">
+        <v>2</v>
+      </c>
+      <c r="O88" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="str">
         <f>B89&amp;"_"&amp;C89&amp;"_"&amp;E89</f>
         <v>OFAV_SP_0DW46</v>
@@ -3281,7 +3892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="str">
         <f>B90&amp;"_"&amp;C90&amp;"_"&amp;E90</f>
         <v>OFAV_SP_0EV1</v>
@@ -3302,7 +3913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="str">
         <f>B91&amp;"_"&amp;C91&amp;"_"&amp;E91</f>
         <v>OFAV_SP_0EV3</v>
@@ -3322,8 +3933,35 @@
       <c r="F91" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="12">
+        <v>44587</v>
+      </c>
+      <c r="H91" s="4">
+        <v>27</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J91" s="12">
+        <v>44587</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L91" s="4">
+        <v>4</v>
+      </c>
+      <c r="M91" s="4">
+        <v>1</v>
+      </c>
+      <c r="N91" s="4">
+        <v>2</v>
+      </c>
+      <c r="O91" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="str">
         <f>B92&amp;"_"&amp;C92&amp;"_"&amp;E92</f>
         <v>OFAV_SP_0EV3</v>
@@ -3343,8 +3981,35 @@
       <c r="F92" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="12">
+        <v>44624</v>
+      </c>
+      <c r="H92" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J92" s="12">
+        <v>44624</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L92" s="4">
+        <v>4</v>
+      </c>
+      <c r="M92" s="4">
+        <v>1</v>
+      </c>
+      <c r="N92" s="4">
+        <v>2</v>
+      </c>
+      <c r="O92" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="str">
         <f>B93&amp;"_"&amp;C93&amp;"_"&amp;E93</f>
         <v>OFAV_SP_1AZ5</v>
@@ -3365,7 +4030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="str">
         <f>B94&amp;"_"&amp;C94&amp;"_"&amp;E94</f>
         <v>OFAV_SP_2AZ2</v>
@@ -3386,7 +4051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="str">
         <f>B95&amp;"_"&amp;C95&amp;"_"&amp;E95</f>
         <v>OFAV_SP_2AZ21</v>
@@ -3406,8 +4071,35 @@
       <c r="F95" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="12">
+        <v>44587</v>
+      </c>
+      <c r="H95" s="4">
+        <v>13</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J95" s="12">
+        <v>44587</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L95" s="4">
+        <v>4</v>
+      </c>
+      <c r="M95" s="4">
+        <v>1</v>
+      </c>
+      <c r="N95" s="4">
+        <v>2</v>
+      </c>
+      <c r="O95" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="str">
         <f>B96&amp;"_"&amp;C96&amp;"_"&amp;E96</f>
         <v>OFAV_SP_2AZ21</v>
@@ -3427,8 +4119,35 @@
       <c r="F96" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" s="12">
+        <v>44624</v>
+      </c>
+      <c r="H96" s="4">
+        <v>20</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J96" s="12">
+        <v>44624</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L96" s="4">
+        <v>4</v>
+      </c>
+      <c r="M96" s="4">
+        <v>1</v>
+      </c>
+      <c r="N96" s="4">
+        <v>2</v>
+      </c>
+      <c r="O96" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="str">
         <f>B97&amp;"_"&amp;C97&amp;"_"&amp;E97</f>
         <v>OFAV_SP_2AZ3</v>
@@ -3449,7 +4168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="str">
         <f>B98&amp;"_"&amp;C98&amp;"_"&amp;E98</f>
         <v>OFAV_SP_2AZ7</v>
@@ -3469,8 +4188,35 @@
       <c r="F98" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" s="12">
+        <v>44587</v>
+      </c>
+      <c r="H98" s="4">
+        <v>13</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J98" s="12">
+        <v>44587</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L98" s="4">
+        <v>4</v>
+      </c>
+      <c r="M98" s="4">
+        <v>1</v>
+      </c>
+      <c r="N98" s="4">
+        <v>2</v>
+      </c>
+      <c r="O98" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="str">
         <f>B99&amp;"_"&amp;C99&amp;"_"&amp;E99</f>
         <v>OFAV_SP_2AZ7</v>
@@ -3490,8 +4236,35 @@
       <c r="F99" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="12">
+        <v>44615</v>
+      </c>
+      <c r="H99" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J99" s="12">
+        <v>44615</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L99" s="4">
+        <v>4</v>
+      </c>
+      <c r="M99" s="4">
+        <v>1</v>
+      </c>
+      <c r="N99" s="4">
+        <v>2</v>
+      </c>
+      <c r="O99" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="str">
         <f>B100&amp;"_"&amp;C100&amp;"_"&amp;E100</f>
         <v>OFAV_SP_2AZ7</v>
@@ -3511,8 +4284,35 @@
       <c r="F100" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="12">
+        <v>44622</v>
+      </c>
+      <c r="H100" s="4">
+        <v>21</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J100" s="12">
+        <v>44622</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L100" s="4">
+        <v>4</v>
+      </c>
+      <c r="M100" s="4">
+        <v>1</v>
+      </c>
+      <c r="N100" s="4">
+        <v>2</v>
+      </c>
+      <c r="O100" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="str">
         <f>B101&amp;"_"&amp;C101&amp;"_"&amp;E101</f>
         <v>OFAV_SP_2AZ7</v>
@@ -3532,8 +4332,35 @@
       <c r="F101" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" s="12">
+        <v>44622</v>
+      </c>
+      <c r="H101" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J101" s="12">
+        <v>44622</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L101" s="4">
+        <v>4</v>
+      </c>
+      <c r="M101" s="4">
+        <v>1</v>
+      </c>
+      <c r="N101" s="4">
+        <v>2</v>
+      </c>
+      <c r="O101" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="str">
         <f>B102&amp;"_"&amp;C102&amp;"_"&amp;E102</f>
         <v>OFAV_SP_2DW40</v>
@@ -3554,7 +4381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="str">
         <f>B103&amp;"_"&amp;C103&amp;"_"&amp;E103</f>
         <v>OFAV_SP_2DW44</v>
@@ -3575,7 +4402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="str">
         <f>B104&amp;"_"&amp;C104&amp;"_"&amp;E104</f>
         <v>OFAV_SP_2EV10</v>
@@ -3596,7 +4423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="str">
         <f>B105&amp;"_"&amp;C105&amp;"_"&amp;E105</f>
         <v>OFAV_SP_2EV3</v>
@@ -3617,7 +4444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="str">
         <f>B106&amp;"_"&amp;C106&amp;"_"&amp;E106</f>
         <v>OFAV_SP_2EV30</v>
@@ -3638,7 +4465,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="str">
         <f>B107&amp;"_"&amp;C107&amp;"_"&amp;E107</f>
         <v>OFAV_SP_2EV34</v>
@@ -3659,7 +4486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="str">
         <f>B108&amp;"_"&amp;C108&amp;"_"&amp;E108</f>
         <v>OFAV_SP_2EV36</v>
@@ -3680,7 +4507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="str">
         <f>B109&amp;"_"&amp;C109&amp;"_"&amp;E109</f>
         <v>OFAV_SP_2EV44</v>
@@ -3701,7 +4528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="str">
         <f>B110&amp;"_"&amp;C110&amp;"_"&amp;E110</f>
         <v>OFAV_SP_2EV6</v>
@@ -3722,7 +4549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="str">
         <f>B111&amp;"_"&amp;C111&amp;"_"&amp;E111</f>
         <v>OFAV_SP_2GT7</v>
@@ -3743,7 +4570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="str">
         <f>B112&amp;"_"&amp;C112&amp;"_"&amp;E112</f>
         <v>OFAV_SP_2JQ31</v>
@@ -3763,8 +4590,35 @@
       <c r="F112" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" s="12">
+        <v>44616</v>
+      </c>
+      <c r="H112" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J112" s="12">
+        <v>44616</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L112" s="4">
+        <v>4</v>
+      </c>
+      <c r="M112" s="4">
+        <v>1</v>
+      </c>
+      <c r="N112" s="4">
+        <v>2</v>
+      </c>
+      <c r="O112" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="str">
         <f>B113&amp;"_"&amp;C113&amp;"_"&amp;E113</f>
         <v>OFAV_SP_2JQ31</v>
@@ -3784,8 +4638,35 @@
       <c r="F113" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" s="12">
+        <v>44615</v>
+      </c>
+      <c r="H113" s="4">
+        <v>7</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J113" s="12">
+        <v>44615</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L113" s="4">
+        <v>4</v>
+      </c>
+      <c r="M113" s="4">
+        <v>1</v>
+      </c>
+      <c r="N113" s="4">
+        <v>2</v>
+      </c>
+      <c r="O113" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="str">
         <f>B114&amp;"_"&amp;C114&amp;"_"&amp;E114</f>
         <v>OFAV_SP_2JQ31</v>
@@ -3805,8 +4686,35 @@
       <c r="F114" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" s="12">
+        <v>44622</v>
+      </c>
+      <c r="H114" s="4">
+        <v>22</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J114" s="12">
+        <v>44622</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L114" s="4">
+        <v>4</v>
+      </c>
+      <c r="M114" s="4">
+        <v>1</v>
+      </c>
+      <c r="N114" s="4">
+        <v>2</v>
+      </c>
+      <c r="O114" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="str">
         <f>B115&amp;"_"&amp;C115&amp;"_"&amp;E115</f>
         <v>OFAV_SP_2JQ6</v>
@@ -3827,7 +4735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="str">
         <f>B116&amp;"_"&amp;C116&amp;"_"&amp;E116</f>
         <v>OFAV_SP_2JQ8</v>
@@ -3847,8 +4755,35 @@
       <c r="F116" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" s="12">
+        <v>44622</v>
+      </c>
+      <c r="H116" s="4">
+        <v>18</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J116" s="12">
+        <v>44622</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L116" s="4">
+        <v>4</v>
+      </c>
+      <c r="M116" s="4">
+        <v>1</v>
+      </c>
+      <c r="N116" s="4">
+        <v>2</v>
+      </c>
+      <c r="O116" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="str">
         <f>B117&amp;"_"&amp;C117&amp;"_"&amp;E117</f>
         <v>OFAV_SP_3AZ4</v>
@@ -3869,7 +4804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="str">
         <f>B118&amp;"_"&amp;C118&amp;"_"&amp;E118</f>
         <v>OFAV_SP_3EV30</v>
@@ -3889,8 +4824,35 @@
       <c r="F118" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" s="12">
+        <v>44587</v>
+      </c>
+      <c r="H118" s="4">
+        <v>12</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J118" s="12">
+        <v>44587</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L118" s="4">
+        <v>4</v>
+      </c>
+      <c r="M118" s="4">
+        <v>1</v>
+      </c>
+      <c r="N118" s="4">
+        <v>2</v>
+      </c>
+      <c r="O118" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="str">
         <f>B119&amp;"_"&amp;C119&amp;"_"&amp;E119</f>
         <v>OFAV_SP_3EV30</v>
@@ -3910,11 +4872,38 @@
       <c r="F119" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" s="12">
+        <v>44622</v>
+      </c>
+      <c r="H119" s="4">
+        <v>27</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J119" s="12">
+        <v>44622</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L119" s="4">
+        <v>4</v>
+      </c>
+      <c r="M119" s="4">
+        <v>1</v>
+      </c>
+      <c r="N119" s="4">
+        <v>2</v>
+      </c>
+      <c r="O119" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="str">
         <f>B120&amp;"_"&amp;C120&amp;"_"&amp;E120</f>
-        <v>OFAV_SP_3JQ1</v>
+        <v>OFAV_SP_3EV31</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>47</v>
@@ -3926,13 +4915,23 @@
         <v>24</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="G120" s="12">
+        <v>44624</v>
+      </c>
+      <c r="H120" s="4">
+        <v>13</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J120" s="12"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="str">
         <f>B121&amp;"_"&amp;C121&amp;"_"&amp;E121</f>
         <v>OFAV_SP_3JQ1</v>
@@ -3950,10 +4949,37 @@
         <v>69</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G121" s="12">
+        <v>44588</v>
+      </c>
+      <c r="H121" s="4">
+        <v>10</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J121" s="12">
+        <v>44588</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L121" s="4">
+        <v>4</v>
+      </c>
+      <c r="M121" s="4">
+        <v>1</v>
+      </c>
+      <c r="N121" s="4">
+        <v>2</v>
+      </c>
+      <c r="O121" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="str">
         <f>B122&amp;"_"&amp;C122&amp;"_"&amp;E122</f>
         <v>OFAV_SP_3JQ1</v>
@@ -3971,10 +4997,37 @@
         <v>69</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="G122" s="12">
+        <v>44622</v>
+      </c>
+      <c r="H122" s="4">
+        <v>36</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J122" s="12">
+        <v>44622</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L122" s="4">
+        <v>4</v>
+      </c>
+      <c r="M122" s="4">
+        <v>1</v>
+      </c>
+      <c r="N122" s="4">
+        <v>2</v>
+      </c>
+      <c r="O122" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="str">
         <f>B123&amp;"_"&amp;C123&amp;"_"&amp;E123</f>
         <v>OFAV_SP_3JQ1</v>
@@ -3992,13 +5045,40 @@
         <v>69</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="G123" s="12">
+        <v>44624</v>
+      </c>
+      <c r="H123" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J123" s="12">
+        <v>44624</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L123" s="4">
+        <v>4</v>
+      </c>
+      <c r="M123" s="4">
+        <v>1</v>
+      </c>
+      <c r="N123" s="4">
+        <v>2</v>
+      </c>
+      <c r="O123" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="str">
         <f>B124&amp;"_"&amp;C124&amp;"_"&amp;E124</f>
-        <v>OFAV_SP_3JQ10</v>
+        <v>OFAV_SP_3JQ1</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>47</v>
@@ -4006,20 +5086,47 @@
       <c r="C124" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>135</v>
+      <c r="D124" s="2">
+        <v>24</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="G124" s="12">
+        <v>44624</v>
+      </c>
+      <c r="H124" s="4">
+        <v>20</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J124" s="12">
+        <v>44624</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L124" s="4">
+        <v>4</v>
+      </c>
+      <c r="M124" s="4">
+        <v>1</v>
+      </c>
+      <c r="N124" s="4">
+        <v>2</v>
+      </c>
+      <c r="O124" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="str">
         <f>B125&amp;"_"&amp;C125&amp;"_"&amp;E125</f>
-        <v>OFAV_SP_4DW11</v>
+        <v>OFAV_SP_3JQ10</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>47</v>
@@ -4027,20 +5134,47 @@
       <c r="C125" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D125" s="2">
-        <v>25</v>
+      <c r="D125" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" s="12">
+        <v>44632</v>
+      </c>
+      <c r="H125" s="4">
+        <v>12</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J125" s="12">
+        <v>44641</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L125" s="4">
+        <v>4</v>
+      </c>
+      <c r="M125" s="4">
+        <v>1</v>
+      </c>
+      <c r="N125" s="4">
+        <v>2</v>
+      </c>
+      <c r="O125" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="str">
         <f>B126&amp;"_"&amp;C126&amp;"_"&amp;E126</f>
-        <v>OFAV_SP_4DW14</v>
+        <v>OFAV_SP_4DW11</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>47</v>
@@ -4049,19 +5183,46 @@
         <v>139</v>
       </c>
       <c r="D126" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G126" s="12">
+        <v>44588</v>
+      </c>
+      <c r="H126" s="4">
+        <v>10</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J126" s="12">
+        <v>44588</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L126" s="4">
+        <v>4</v>
+      </c>
+      <c r="M126" s="4">
+        <v>1</v>
+      </c>
+      <c r="N126" s="4">
+        <v>2</v>
+      </c>
+      <c r="O126" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="str">
         <f>B127&amp;"_"&amp;C127&amp;"_"&amp;E127</f>
-        <v>OFAV_SP_4EV1</v>
+        <v>OFAV_SP_4DW14</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>47</v>
@@ -4069,20 +5230,20 @@
       <c r="C127" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>34</v>
+      <c r="D127" s="2">
+        <v>26</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="str">
         <f>B128&amp;"_"&amp;C128&amp;"_"&amp;E128</f>
-        <v>OFAV_SP_4EV14</v>
+        <v>OFAV_SP_4EV1</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>47</v>
@@ -4090,20 +5251,20 @@
       <c r="C128" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D128" s="2">
-        <v>27</v>
+      <c r="D128" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="str">
         <f>B129&amp;"_"&amp;C129&amp;"_"&amp;E129</f>
-        <v>OFAV_SP_4EV15</v>
+        <v>OFAV_SP_4EV14</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>47</v>
@@ -4112,19 +5273,19 @@
         <v>139</v>
       </c>
       <c r="D129" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="str">
         <f>B130&amp;"_"&amp;C130&amp;"_"&amp;E130</f>
-        <v>OFAV_SP_4JQ12</v>
+        <v>OFAV_SP_4EV15</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>47</v>
@@ -4133,19 +5294,46 @@
         <v>139</v>
       </c>
       <c r="D130" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G130" s="12">
+        <v>44610</v>
+      </c>
+      <c r="H130" s="4">
+        <v>28</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J130" s="12">
+        <v>44610</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L130" s="4">
+        <v>4</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N130" s="4">
+        <v>2</v>
+      </c>
+      <c r="O130" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="str">
         <f>B131&amp;"_"&amp;C131&amp;"_"&amp;E131</f>
-        <v>OFAV_SP_6JQ16</v>
+        <v>OFAV_SP_4JQ12</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>47</v>
@@ -4154,19 +5342,19 @@
         <v>139</v>
       </c>
       <c r="D131" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="str">
         <f>B132&amp;"_"&amp;C132&amp;"_"&amp;E132</f>
-        <v>OFAV_SP_8EV24</v>
+        <v>OFAV_SP_6JQ16</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>47</v>
@@ -4175,19 +5363,46 @@
         <v>139</v>
       </c>
       <c r="D132" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132" s="12">
+        <v>44610</v>
+      </c>
+      <c r="H132" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J132" s="12">
+        <v>44610</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L132" s="4">
+        <v>4</v>
+      </c>
+      <c r="M132" s="4">
+        <v>1</v>
+      </c>
+      <c r="N132" s="4">
+        <v>2</v>
+      </c>
+      <c r="O132" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="str">
         <f>B133&amp;"_"&amp;C133&amp;"_"&amp;E133</f>
-        <v>OFAV_SP_9AZ10</v>
+        <v>OFAV_SP_8EV24</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>47</v>
@@ -4196,19 +5411,46 @@
         <v>139</v>
       </c>
       <c r="D133" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G133" s="12">
+        <v>44615</v>
+      </c>
+      <c r="H133" s="4">
+        <v>7</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J133" s="12">
+        <v>44615</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L133" s="4">
+        <v>4</v>
+      </c>
+      <c r="M133" s="4">
+        <v>1</v>
+      </c>
+      <c r="N133" s="4">
+        <v>2</v>
+      </c>
+      <c r="O133" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="str">
         <f>B134&amp;"_"&amp;C134&amp;"_"&amp;E134</f>
-        <v>OFAV_SP_9AZ7</v>
+        <v>OFAV_SP_9AZ10</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>47</v>
@@ -4217,19 +5459,19 @@
         <v>139</v>
       </c>
       <c r="D134" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="str">
         <f>B135&amp;"_"&amp;C135&amp;"_"&amp;E135</f>
-        <v>OFAV_SP_9AZ81</v>
+        <v>OFAV_SP_9AZ7</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>47</v>
@@ -4238,19 +5480,19 @@
         <v>139</v>
       </c>
       <c r="D135" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="str">
         <f>B136&amp;"_"&amp;C136&amp;"_"&amp;E136</f>
-        <v>OFAV_SP_9DW32</v>
+        <v>OFAV_SP_9AZ81</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>47</v>
@@ -4259,19 +5501,19 @@
         <v>139</v>
       </c>
       <c r="D136" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="str">
         <f>B137&amp;"_"&amp;C137&amp;"_"&amp;E137</f>
-        <v>OFAV_SP_9DW37</v>
+        <v>OFAV_SP_9DW32</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>47</v>
@@ -4280,19 +5522,19 @@
         <v>139</v>
       </c>
       <c r="D137" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="str">
         <f>B138&amp;"_"&amp;C138&amp;"_"&amp;E138</f>
-        <v>OFAV_SP_9EV2</v>
+        <v>OFAV_SP_9DW37</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>47</v>
@@ -4301,19 +5543,19 @@
         <v>139</v>
       </c>
       <c r="D138" s="2">
+        <v>36</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="str">
         <f>B139&amp;"_"&amp;C139&amp;"_"&amp;E139</f>
-        <v>OFAV_SP_9EV41</v>
+        <v>OFAV_SP_9EV2</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>47</v>
@@ -4322,19 +5564,46 @@
         <v>139</v>
       </c>
       <c r="D139" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G139" s="12">
+        <v>44624</v>
+      </c>
+      <c r="H139" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J139" s="12">
+        <v>44624</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L139" s="4">
+        <v>4</v>
+      </c>
+      <c r="M139" s="4">
+        <v>1</v>
+      </c>
+      <c r="N139" s="4">
+        <v>2</v>
+      </c>
+      <c r="O139" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="str">
         <f>B140&amp;"_"&amp;C140&amp;"_"&amp;E140</f>
-        <v>OFAV_SP_9JQ5</v>
+        <v>OFAV_SP_9EV41</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>47</v>
@@ -4343,19 +5612,19 @@
         <v>139</v>
       </c>
       <c r="D140" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="str">
         <f>B141&amp;"_"&amp;C141&amp;"_"&amp;E141</f>
-        <v>OFAV_SP_DEV35</v>
+        <v>OFAV_SP_9JQ5</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>47</v>
@@ -4363,20 +5632,20 @@
       <c r="C141" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>34</v>
+      <c r="D141" s="2">
+        <v>39</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="str">
         <f>B142&amp;"_"&amp;C142&amp;"_"&amp;E142</f>
-        <v>OFAV_SP_EV</v>
+        <v>OFAV_SP_DEV35</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>47</v>
@@ -4388,16 +5657,43 @@
         <v>34</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142" s="12">
+        <v>44615</v>
+      </c>
+      <c r="H142" s="4">
+        <v>7</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J142" s="12">
+        <v>44615</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L142" s="4">
+        <v>4</v>
+      </c>
+      <c r="M142" s="4">
+        <v>1</v>
+      </c>
+      <c r="N142" s="4">
+        <v>2</v>
+      </c>
+      <c r="O142" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="str">
         <f>B143&amp;"_"&amp;C143&amp;"_"&amp;E143</f>
-        <v>OFAV_SP_JQ1</v>
+        <v>OFAV_SP_EV</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>47</v>
@@ -4405,41 +5701,68 @@
       <c r="C143" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D143" s="2">
-        <v>40</v>
+      <c r="D143" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G143" s="12">
+        <v>44622</v>
+      </c>
+      <c r="H143" s="4">
+        <v>158</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J143" s="12">
+        <v>44622</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L143" s="4">
+        <v>4</v>
+      </c>
+      <c r="M143" s="4">
+        <v>1</v>
+      </c>
+      <c r="N143" s="4">
+        <v>2</v>
+      </c>
+      <c r="O143" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="str">
         <f>B144&amp;"_"&amp;C144&amp;"_"&amp;E144</f>
-        <v>OFAV_SS_0AZ4</v>
+        <v>OFAV_SP_JQ1</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="D144" s="2">
-        <v>1</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="str">
         <f>B145&amp;"_"&amp;C145&amp;"_"&amp;E145</f>
-        <v>OFAV_SS_0DW46</v>
+        <v>OFAV_SS_0AZ4</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>47</v>
@@ -4448,10 +5771,10 @@
         <v>90</v>
       </c>
       <c r="D145" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>11</v>
@@ -4460,7 +5783,7 @@
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="str">
         <f>B146&amp;"_"&amp;C146&amp;"_"&amp;E146</f>
-        <v>OFAV_SS_0EV1</v>
+        <v>OFAV_SS_0DW46</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>47</v>
@@ -4469,19 +5792,19 @@
         <v>90</v>
       </c>
       <c r="D146" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="str">
         <f>B147&amp;"_"&amp;C147&amp;"_"&amp;E147</f>
-        <v>OFAV_SS_0EV3</v>
+        <v>OFAV_SS_0EV1</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>47</v>
@@ -4490,19 +5813,19 @@
         <v>90</v>
       </c>
       <c r="D147" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="str">
         <f>B148&amp;"_"&amp;C148&amp;"_"&amp;E148</f>
-        <v>OFAV_SS_1AZ5</v>
+        <v>OFAV_SS_0EV3</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>47</v>
@@ -4511,10 +5834,10 @@
         <v>90</v>
       </c>
       <c r="D148" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>11</v>
@@ -4523,7 +5846,7 @@
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="str">
         <f>B149&amp;"_"&amp;C149&amp;"_"&amp;E149</f>
-        <v>OFAV_SS_2AZ2</v>
+        <v>OFAV_SS_1AZ5</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>47</v>
@@ -4532,10 +5855,10 @@
         <v>90</v>
       </c>
       <c r="D149" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>11</v>
@@ -4544,7 +5867,7 @@
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="str">
         <f>B150&amp;"_"&amp;C150&amp;"_"&amp;E150</f>
-        <v>OFAV_SS_2AZ21</v>
+        <v>OFAV_SS_2AZ2</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>47</v>
@@ -4553,10 +5876,10 @@
         <v>90</v>
       </c>
       <c r="D150" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>11</v>
@@ -4565,7 +5888,7 @@
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="str">
         <f>B151&amp;"_"&amp;C151&amp;"_"&amp;E151</f>
-        <v>OFAV_SS_2AZ3</v>
+        <v>OFAV_SS_2AZ21</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>47</v>
@@ -4574,19 +5897,19 @@
         <v>90</v>
       </c>
       <c r="D151" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="str">
         <f>B152&amp;"_"&amp;C152&amp;"_"&amp;E152</f>
-        <v>OFAV_SS_2AZ7</v>
+        <v>OFAV_SS_2AZ3</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>47</v>
@@ -4595,19 +5918,19 @@
         <v>90</v>
       </c>
       <c r="D152" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="str">
         <f>B153&amp;"_"&amp;C153&amp;"_"&amp;E153</f>
-        <v>OFAV_SS_2DW40</v>
+        <v>OFAV_SS_2AZ7</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>47</v>
@@ -4616,10 +5939,10 @@
         <v>90</v>
       </c>
       <c r="D153" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>11</v>
@@ -4628,7 +5951,7 @@
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="str">
         <f>B154&amp;"_"&amp;C154&amp;"_"&amp;E154</f>
-        <v>OFAV_SS_2DW44</v>
+        <v>OFAV_SS_2DW40</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>47</v>
@@ -4637,10 +5960,10 @@
         <v>90</v>
       </c>
       <c r="D154" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>11</v>
@@ -4649,7 +5972,7 @@
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="str">
         <f>B155&amp;"_"&amp;C155&amp;"_"&amp;E155</f>
-        <v>OFAV_SS_2EV10</v>
+        <v>OFAV_SS_2DW44</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>47</v>
@@ -4658,10 +5981,10 @@
         <v>90</v>
       </c>
       <c r="D155" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>11</v>
@@ -4670,7 +5993,7 @@
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="str">
         <f>B156&amp;"_"&amp;C156&amp;"_"&amp;E156</f>
-        <v>OFAV_SS_2EV3</v>
+        <v>OFAV_SS_2EV10</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>47</v>
@@ -4679,10 +6002,10 @@
         <v>90</v>
       </c>
       <c r="D156" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>11</v>
@@ -4691,7 +6014,7 @@
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="str">
         <f>B157&amp;"_"&amp;C157&amp;"_"&amp;E157</f>
-        <v>OFAV_SS_2EV30</v>
+        <v>OFAV_SS_2EV3</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>47</v>
@@ -4700,10 +6023,10 @@
         <v>90</v>
       </c>
       <c r="D157" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>11</v>
@@ -4712,7 +6035,7 @@
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="str">
         <f>B158&amp;"_"&amp;C158&amp;"_"&amp;E158</f>
-        <v>OFAV_SS_2EV34</v>
+        <v>OFAV_SS_2EV30</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>47</v>
@@ -4721,10 +6044,10 @@
         <v>90</v>
       </c>
       <c r="D158" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>11</v>
@@ -4733,7 +6056,7 @@
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="str">
         <f>B159&amp;"_"&amp;C159&amp;"_"&amp;E159</f>
-        <v>OFAV_SS_2EV36</v>
+        <v>OFAV_SS_2EV34</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>47</v>
@@ -4742,10 +6065,10 @@
         <v>90</v>
       </c>
       <c r="D159" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>11</v>
@@ -4754,7 +6077,7 @@
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="str">
         <f>B160&amp;"_"&amp;C160&amp;"_"&amp;E160</f>
-        <v>OFAV_SS_2EV44</v>
+        <v>OFAV_SS_2EV36</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>47</v>
@@ -4763,10 +6086,10 @@
         <v>90</v>
       </c>
       <c r="D160" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>11</v>
@@ -4775,7 +6098,7 @@
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="str">
         <f>B161&amp;"_"&amp;C161&amp;"_"&amp;E161</f>
-        <v>OFAV_SS_2EV6</v>
+        <v>OFAV_SS_2EV44</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>47</v>
@@ -4784,10 +6107,10 @@
         <v>90</v>
       </c>
       <c r="D161" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>11</v>
@@ -4796,7 +6119,7 @@
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="str">
         <f>B162&amp;"_"&amp;C162&amp;"_"&amp;E162</f>
-        <v>OFAV_SS_2JQ31</v>
+        <v>OFAV_SS_2EV6</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>47</v>
@@ -4805,10 +6128,10 @@
         <v>90</v>
       </c>
       <c r="D162" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>11</v>
@@ -4817,7 +6140,7 @@
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="str">
         <f>B163&amp;"_"&amp;C163&amp;"_"&amp;E163</f>
-        <v>OFAV_SS_2JQ6</v>
+        <v>OFAV_SS_2JQ31</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>47</v>
@@ -4826,10 +6149,10 @@
         <v>90</v>
       </c>
       <c r="D163" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>11</v>
@@ -4838,7 +6161,7 @@
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="str">
         <f>B164&amp;"_"&amp;C164&amp;"_"&amp;E164</f>
-        <v>OFAV_SS_2JQ8</v>
+        <v>OFAV_SS_2JQ6</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>47</v>
@@ -4847,10 +6170,10 @@
         <v>90</v>
       </c>
       <c r="D164" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>11</v>
@@ -4859,7 +6182,7 @@
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="str">
         <f>B165&amp;"_"&amp;C165&amp;"_"&amp;E165</f>
-        <v>OFAV_SS_3AZ4</v>
+        <v>OFAV_SS_2JQ8</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>47</v>
@@ -4868,19 +6191,19 @@
         <v>90</v>
       </c>
       <c r="D165" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="str">
         <f>B166&amp;"_"&amp;C166&amp;"_"&amp;E166</f>
-        <v>OFAV_SS_3EV30</v>
+        <v>OFAV_SS_3AZ4</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>47</v>
@@ -4889,19 +6212,19 @@
         <v>90</v>
       </c>
       <c r="D166" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="str">
         <f>B167&amp;"_"&amp;C167&amp;"_"&amp;E167</f>
-        <v>OFAV_SS_3JQ1</v>
+        <v>OFAV_SS_3EV30</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>47</v>
@@ -4910,19 +6233,19 @@
         <v>90</v>
       </c>
       <c r="D167" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="str">
         <f>B168&amp;"_"&amp;C168&amp;"_"&amp;E168</f>
-        <v>OFAV_SS_4DW11</v>
+        <v>OFAV_SS_3JQ1</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>47</v>
@@ -4931,19 +6254,19 @@
         <v>90</v>
       </c>
       <c r="D168" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="str">
         <f>B169&amp;"_"&amp;C169&amp;"_"&amp;E169</f>
-        <v>OFAV_SS_4DW14</v>
+        <v>OFAV_SS_4DW11</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>47</v>
@@ -4952,10 +6275,10 @@
         <v>90</v>
       </c>
       <c r="D169" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>11</v>
@@ -4964,7 +6287,7 @@
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="str">
         <f>B170&amp;"_"&amp;C170&amp;"_"&amp;E170</f>
-        <v>OFAV_SS_4EV14</v>
+        <v>OFAV_SS_4DW14</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>47</v>
@@ -4973,10 +6296,10 @@
         <v>90</v>
       </c>
       <c r="D170" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>11</v>
@@ -4985,7 +6308,7 @@
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="str">
         <f>B171&amp;"_"&amp;C171&amp;"_"&amp;E171</f>
-        <v>OFAV_SS_4EV15</v>
+        <v>OFAV_SS_4EV14</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>47</v>
@@ -4994,10 +6317,10 @@
         <v>90</v>
       </c>
       <c r="D171" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>11</v>
@@ -5006,7 +6329,7 @@
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="str">
         <f>B172&amp;"_"&amp;C172&amp;"_"&amp;E172</f>
-        <v>OFAV_SS_4JQ12</v>
+        <v>OFAV_SS_4EV15</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>47</v>
@@ -5015,10 +6338,10 @@
         <v>90</v>
       </c>
       <c r="D172" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>11</v>
@@ -5027,7 +6350,7 @@
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="str">
         <f>B173&amp;"_"&amp;C173&amp;"_"&amp;E173</f>
-        <v>OFAV_SS_6JQ16</v>
+        <v>OFAV_SS_4JQ12</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>47</v>
@@ -5036,10 +6359,10 @@
         <v>90</v>
       </c>
       <c r="D173" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>11</v>
@@ -5048,7 +6371,7 @@
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="str">
         <f>B174&amp;"_"&amp;C174&amp;"_"&amp;E174</f>
-        <v>OFAV_SS_8EV24</v>
+        <v>OFAV_SS_6JQ16</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>47</v>
@@ -5057,10 +6380,10 @@
         <v>90</v>
       </c>
       <c r="D174" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>11</v>
@@ -5069,7 +6392,7 @@
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="str">
         <f>B175&amp;"_"&amp;C175&amp;"_"&amp;E175</f>
-        <v>OFAV_SS_9AZ10</v>
+        <v>OFAV_SS_8EV24</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>47</v>
@@ -5078,10 +6401,10 @@
         <v>90</v>
       </c>
       <c r="D175" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>11</v>
@@ -5090,7 +6413,7 @@
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="str">
         <f>B176&amp;"_"&amp;C176&amp;"_"&amp;E176</f>
-        <v>OFAV_SS_9AZ7</v>
+        <v>OFAV_SS_9AZ10</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>47</v>
@@ -5099,10 +6422,10 @@
         <v>90</v>
       </c>
       <c r="D176" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>11</v>
@@ -5111,7 +6434,7 @@
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="str">
         <f>B177&amp;"_"&amp;C177&amp;"_"&amp;E177</f>
-        <v>OFAV_SS_9AZ81</v>
+        <v>OFAV_SS_9AZ7</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>47</v>
@@ -5120,10 +6443,10 @@
         <v>90</v>
       </c>
       <c r="D177" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>11</v>
@@ -5132,7 +6455,7 @@
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="str">
         <f>B178&amp;"_"&amp;C178&amp;"_"&amp;E178</f>
-        <v>OFAV_SS_9DW32</v>
+        <v>OFAV_SS_9AZ81</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>47</v>
@@ -5141,19 +6464,19 @@
         <v>90</v>
       </c>
       <c r="D178" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="str">
         <f>B179&amp;"_"&amp;C179&amp;"_"&amp;E179</f>
-        <v>OFAV_SS_9DW37</v>
+        <v>OFAV_SS_9DW32</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>47</v>
@@ -5162,19 +6485,19 @@
         <v>90</v>
       </c>
       <c r="D179" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="str">
         <f>B180&amp;"_"&amp;C180&amp;"_"&amp;E180</f>
-        <v>OFAV_SS_9EV2</v>
+        <v>OFAV_SS_9DW37</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>47</v>
@@ -5183,10 +6506,10 @@
         <v>90</v>
       </c>
       <c r="D180" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>11</v>
@@ -5195,7 +6518,7 @@
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="str">
         <f>B181&amp;"_"&amp;C181&amp;"_"&amp;E181</f>
-        <v>OFAV_SS_9EV41</v>
+        <v>OFAV_SS_9EV2</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>47</v>
@@ -5204,10 +6527,10 @@
         <v>90</v>
       </c>
       <c r="D181" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>11</v>
@@ -5216,7 +6539,7 @@
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="str">
         <f>B182&amp;"_"&amp;C182&amp;"_"&amp;E182</f>
-        <v>OFAV_SS_9JQ5</v>
+        <v>OFAV_SS_9EV41</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>47</v>
@@ -5225,10 +6548,10 @@
         <v>90</v>
       </c>
       <c r="D182" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>11</v>
@@ -5237,7 +6560,7 @@
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="str">
         <f>B183&amp;"_"&amp;C183&amp;"_"&amp;E183</f>
-        <v>OFAV_SS_JQ1</v>
+        <v>OFAV_SS_9JQ5</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>47</v>
@@ -5246,40 +6569,40 @@
         <v>90</v>
       </c>
       <c r="D183" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="str">
         <f>B184&amp;"_"&amp;C184&amp;"_"&amp;E184</f>
-        <v>OFRA_PP_0CX4</v>
+        <v>OFAV_SS_JQ1</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D184" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="str">
         <f>B185&amp;"_"&amp;C185&amp;"_"&amp;E185</f>
-        <v>OFRA_PP_0CX5</v>
+        <v>OFRA_PP_0CX4</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>131</v>
@@ -5288,10 +6611,10 @@
         <v>40</v>
       </c>
       <c r="D185" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>11</v>
@@ -5300,7 +6623,7 @@
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="str">
         <f>B186&amp;"_"&amp;C186&amp;"_"&amp;E186</f>
-        <v>OFRA_PP_0GT1</v>
+        <v>OFRA_PP_0CX5</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>131</v>
@@ -5309,10 +6632,10 @@
         <v>40</v>
       </c>
       <c r="D186" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>11</v>
@@ -5321,7 +6644,7 @@
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="str">
         <f>B187&amp;"_"&amp;C187&amp;"_"&amp;E187</f>
-        <v>OFRA_PP_0GT3</v>
+        <v>OFRA_PP_0GT1</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>131</v>
@@ -5330,19 +6653,19 @@
         <v>40</v>
       </c>
       <c r="D187" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="str">
         <f>B188&amp;"_"&amp;C188&amp;"_"&amp;E188</f>
-        <v>OFRA_PP_0GT5</v>
+        <v>OFRA_PP_0GT3</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>131</v>
@@ -5351,19 +6674,19 @@
         <v>40</v>
       </c>
       <c r="D188" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="str">
         <f>B189&amp;"_"&amp;C189&amp;"_"&amp;E189</f>
-        <v>OFRA_PP_1GT36</v>
+        <v>OFRA_PP_0GT5</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>131</v>
@@ -5372,19 +6695,19 @@
         <v>40</v>
       </c>
       <c r="D189" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="str">
         <f>B190&amp;"_"&amp;C190&amp;"_"&amp;E190</f>
-        <v>OFRA_PP_1GT37</v>
+        <v>OFRA_PP_1GT36</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>131</v>
@@ -5393,13 +6716,13 @@
         <v>40</v>
       </c>
       <c r="D190" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -5420,13 +6743,13 @@
         <v>95</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="str">
         <f>B192&amp;"_"&amp;C192&amp;"_"&amp;E192</f>
-        <v>OFRA_PP_1GT42</v>
+        <v>OFRA_PP_1GT37</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>131</v>
@@ -5435,13 +6758,13 @@
         <v>40</v>
       </c>
       <c r="D192" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -5462,13 +6785,13 @@
         <v>96</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="str">
         <f>B194&amp;"_"&amp;C194&amp;"_"&amp;E194</f>
-        <v>OFRA_PP_1GT43</v>
+        <v>OFRA_PP_1GT42</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>131</v>
@@ -5477,19 +6800,19 @@
         <v>40</v>
       </c>
       <c r="D194" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="str">
         <f>B195&amp;"_"&amp;C195&amp;"_"&amp;E195</f>
-        <v>OFRA_PP_2CX10</v>
+        <v>OFRA_PP_1GT43</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>131</v>
@@ -5498,10 +6821,10 @@
         <v>40</v>
       </c>
       <c r="D195" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>37</v>
@@ -5510,7 +6833,7 @@
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="str">
         <f>B196&amp;"_"&amp;C196&amp;"_"&amp;E196</f>
-        <v>OFRA_PP_2CX11</v>
+        <v>OFRA_PP_2CX10</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>131</v>
@@ -5519,10 +6842,10 @@
         <v>40</v>
       </c>
       <c r="D196" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>37</v>
@@ -5531,7 +6854,7 @@
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="str">
         <f>B197&amp;"_"&amp;C197&amp;"_"&amp;E197</f>
-        <v>OFRA_PP_2CX12</v>
+        <v>OFRA_PP_2CX11</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>131</v>
@@ -5540,13 +6863,13 @@
         <v>40</v>
       </c>
       <c r="D197" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -5567,13 +6890,13 @@
         <v>99</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="str">
         <f>B199&amp;"_"&amp;C199&amp;"_"&amp;E199</f>
-        <v>OFRA_PP_2CX13</v>
+        <v>OFRA_PP_2CX12</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>131</v>
@@ -5582,19 +6905,19 @@
         <v>40</v>
       </c>
       <c r="D199" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="str">
         <f>B200&amp;"_"&amp;C200&amp;"_"&amp;E200</f>
-        <v>OFRA_PP_2CX8</v>
+        <v>OFRA_PP_2CX13</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>131</v>
@@ -5603,10 +6926,10 @@
         <v>40</v>
       </c>
       <c r="D200" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>37</v>
@@ -5615,7 +6938,7 @@
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="str">
         <f>B201&amp;"_"&amp;C201&amp;"_"&amp;E201</f>
-        <v>OFRA_PP_2GT10</v>
+        <v>OFRA_PP_2CX8</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>131</v>
@@ -5624,19 +6947,19 @@
         <v>40</v>
       </c>
       <c r="D201" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="str">
         <f>B202&amp;"_"&amp;C202&amp;"_"&amp;E202</f>
-        <v>OFRA_PP_2GT3</v>
+        <v>OFRA_PP_2GT10</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>131</v>
@@ -5645,13 +6968,13 @@
         <v>40</v>
       </c>
       <c r="D202" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -5672,13 +6995,13 @@
         <v>103</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="str">
         <f>B204&amp;"_"&amp;C204&amp;"_"&amp;E204</f>
-        <v>OFRA_PP_2GT31</v>
+        <v>OFRA_PP_2GT3</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>131</v>
@@ -5687,19 +7010,19 @@
         <v>40</v>
       </c>
       <c r="D204" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="str">
         <f>B205&amp;"_"&amp;C205&amp;"_"&amp;E205</f>
-        <v>OFRA_PP_2GT38</v>
+        <v>OFRA_PP_2GT31</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>131</v>
@@ -5708,19 +7031,19 @@
         <v>40</v>
       </c>
       <c r="D205" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="str">
         <f>B206&amp;"_"&amp;C206&amp;"_"&amp;E206</f>
-        <v>OFRA_PP_2GT41</v>
+        <v>OFRA_PP_2GT38</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>131</v>
@@ -5729,13 +7052,13 @@
         <v>40</v>
       </c>
       <c r="D206" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -5756,13 +7079,13 @@
         <v>105</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="str">
         <f>B208&amp;"_"&amp;C208&amp;"_"&amp;E208</f>
-        <v>OFRA_PP_2GT7</v>
+        <v>OFRA_PP_2GT41</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>131</v>
@@ -5771,13 +7094,13 @@
         <v>40</v>
       </c>
       <c r="D208" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -5798,13 +7121,13 @@
         <v>106</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="str">
         <f>B210&amp;"_"&amp;C210&amp;"_"&amp;E210</f>
-        <v>OFRA_PP_2HS11</v>
+        <v>OFRA_PP_2GT7</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>131</v>
@@ -5813,19 +7136,19 @@
         <v>40</v>
       </c>
       <c r="D210" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="str">
         <f>B211&amp;"_"&amp;C211&amp;"_"&amp;E211</f>
-        <v>OFRA_PP_2HS17</v>
+        <v>OFRA_PP_2HS11</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>131</v>
@@ -5834,13 +7157,13 @@
         <v>40</v>
       </c>
       <c r="D211" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -5861,13 +7184,13 @@
         <v>108</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="str">
         <f>B213&amp;"_"&amp;C213&amp;"_"&amp;E213</f>
-        <v>OFRA_PP_2HS27</v>
+        <v>OFRA_PP_2HS17</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>131</v>
@@ -5876,19 +7199,19 @@
         <v>40</v>
       </c>
       <c r="D213" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="str">
         <f>B214&amp;"_"&amp;C214&amp;"_"&amp;E214</f>
-        <v>OFRA_PP_2HS9</v>
+        <v>OFRA_PP_2HS27</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>131</v>
@@ -5897,13 +7220,13 @@
         <v>40</v>
       </c>
       <c r="D214" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -5924,13 +7247,13 @@
         <v>110</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="str">
         <f>B216&amp;"_"&amp;C216&amp;"_"&amp;E216</f>
-        <v>OFRA_PP_4CX12</v>
+        <v>OFRA_PP_2HS9</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>131</v>
@@ -5939,19 +7262,19 @@
         <v>40</v>
       </c>
       <c r="D216" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="str">
         <f>B217&amp;"_"&amp;C217&amp;"_"&amp;E217</f>
-        <v>OFRA_PP_4HS13</v>
+        <v>OFRA_PP_4CX12</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>131</v>
@@ -5960,19 +7283,19 @@
         <v>40</v>
       </c>
       <c r="D217" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="str">
         <f>B218&amp;"_"&amp;C218&amp;"_"&amp;E218</f>
-        <v>OFRA_PP_4HS15</v>
+        <v>OFRA_PP_4HS13</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>131</v>
@@ -5981,19 +7304,19 @@
         <v>40</v>
       </c>
       <c r="D218" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="str">
         <f>B219&amp;"_"&amp;C219&amp;"_"&amp;E219</f>
-        <v>OFRA_PP_6CX18</v>
+        <v>OFRA_PP_4HS15</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>131</v>
@@ -6002,19 +7325,19 @@
         <v>40</v>
       </c>
       <c r="D219" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="str">
         <f>B220&amp;"_"&amp;C220&amp;"_"&amp;E220</f>
-        <v>OFRA_PP_6EV18</v>
+        <v>OFRA_PP_6CX18</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>131</v>
@@ -6023,19 +7346,19 @@
         <v>40</v>
       </c>
       <c r="D220" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="str">
         <f>B221&amp;"_"&amp;C221&amp;"_"&amp;E221</f>
-        <v>OFRA_PP_6GT17</v>
+        <v>OFRA_PP_6EV18</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>131</v>
@@ -6044,10 +7367,10 @@
         <v>40</v>
       </c>
       <c r="D221" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>11</v>
@@ -6056,7 +7379,7 @@
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="str">
         <f>B222&amp;"_"&amp;C222&amp;"_"&amp;E222</f>
-        <v>OFRA_PP_8CX24</v>
+        <v>OFRA_PP_6GT17</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>131</v>
@@ -6065,10 +7388,10 @@
         <v>40</v>
       </c>
       <c r="D222" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>11</v>
@@ -6077,7 +7400,7 @@
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="str">
         <f>B223&amp;"_"&amp;C223&amp;"_"&amp;E223</f>
-        <v>OFRA_PP_8HS21</v>
+        <v>OFRA_PP_8CX24</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>131</v>
@@ -6086,10 +7409,10 @@
         <v>40</v>
       </c>
       <c r="D223" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>11</v>
@@ -6098,7 +7421,7 @@
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="str">
         <f>B224&amp;"_"&amp;C224&amp;"_"&amp;E224</f>
-        <v>OFRA_PP_8HS23</v>
+        <v>OFRA_PP_8HS21</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>131</v>
@@ -6107,10 +7430,10 @@
         <v>40</v>
       </c>
       <c r="D224" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>11</v>
@@ -6119,7 +7442,7 @@
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="str">
         <f>B225&amp;"_"&amp;C225&amp;"_"&amp;E225</f>
-        <v>OFRA_PP_8HS24</v>
+        <v>OFRA_PP_8HS23</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>131</v>
@@ -6128,10 +7451,10 @@
         <v>40</v>
       </c>
       <c r="D225" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>11</v>
@@ -6140,7 +7463,7 @@
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="str">
         <f>B226&amp;"_"&amp;C226&amp;"_"&amp;E226</f>
-        <v>OFRA_PP_9CX5</v>
+        <v>OFRA_PP_8HS24</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>131</v>
@@ -6149,13 +7472,13 @@
         <v>40</v>
       </c>
       <c r="D226" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -6176,13 +7499,13 @@
         <v>121</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="str">
         <f>B228&amp;"_"&amp;C228&amp;"_"&amp;E228</f>
-        <v>OFRA_PP_9CX6</v>
+        <v>OFRA_PP_9CX5</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>131</v>
@@ -6191,19 +7514,19 @@
         <v>40</v>
       </c>
       <c r="D228" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="str">
         <f>B229&amp;"_"&amp;C229&amp;"_"&amp;E229</f>
-        <v>OFRA_PP_9GT30</v>
+        <v>OFRA_PP_9CX6</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>131</v>
@@ -6212,13 +7535,13 @@
         <v>40</v>
       </c>
       <c r="D229" s="2">
+        <v>36</v>
+      </c>
+      <c r="E229" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F229" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E229" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -6239,13 +7562,13 @@
         <v>123</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="str">
         <f>B231&amp;"_"&amp;C231&amp;"_"&amp;E231</f>
-        <v>OFRA_PP_9GT47</v>
+        <v>OFRA_PP_9GT30</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>131</v>
@@ -6254,40 +7577,40 @@
         <v>40</v>
       </c>
       <c r="D231" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="str">
         <f>B232&amp;"_"&amp;C232&amp;"_"&amp;E232</f>
-        <v>OFRA_PS_0CX4</v>
+        <v>OFRA_PP_9GT47</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D232" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="str">
         <f>B233&amp;"_"&amp;C233&amp;"_"&amp;E233</f>
-        <v>OFRA_PS_0CX5</v>
+        <v>OFRA_PS_0CX4</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>131</v>
@@ -6296,10 +7619,10 @@
         <v>48</v>
       </c>
       <c r="D233" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>11</v>
@@ -6308,7 +7631,7 @@
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="str">
         <f>B234&amp;"_"&amp;C234&amp;"_"&amp;E234</f>
-        <v>OFRA_PS_0GT1</v>
+        <v>OFRA_PS_0CX5</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>131</v>
@@ -6317,10 +7640,10 @@
         <v>48</v>
       </c>
       <c r="D234" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>11</v>
@@ -6329,7 +7652,7 @@
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="str">
         <f>B235&amp;"_"&amp;C235&amp;"_"&amp;E235</f>
-        <v>OFRA_PS_0GT3</v>
+        <v>OFRA_PS_0GT1</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>131</v>
@@ -6338,10 +7661,10 @@
         <v>48</v>
       </c>
       <c r="D235" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>11</v>
@@ -6350,7 +7673,7 @@
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="str">
         <f>B236&amp;"_"&amp;C236&amp;"_"&amp;E236</f>
-        <v>OFRA_PS_0GT5</v>
+        <v>OFRA_PS_0GT3</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>131</v>
@@ -6359,13 +7682,13 @@
         <v>48</v>
       </c>
       <c r="D236" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -6386,13 +7709,13 @@
         <v>94</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="str">
         <f>B238&amp;"_"&amp;C238&amp;"_"&amp;E238</f>
-        <v>OFRA_PS_1GT36</v>
+        <v>OFRA_PS_0GT5</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>131</v>
@@ -6401,19 +7724,19 @@
         <v>48</v>
       </c>
       <c r="D238" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="str">
         <f>B239&amp;"_"&amp;C239&amp;"_"&amp;E239</f>
-        <v>OFRA_PS_1GT37</v>
+        <v>OFRA_PS_1GT36</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>131</v>
@@ -6422,19 +7745,19 @@
         <v>48</v>
       </c>
       <c r="D239" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="str">
         <f>B240&amp;"_"&amp;C240&amp;"_"&amp;E240</f>
-        <v>OFRA_PS_1GT42</v>
+        <v>OFRA_PS_1GT37</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>131</v>
@@ -6443,10 +7766,10 @@
         <v>48</v>
       </c>
       <c r="D240" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>11</v>
@@ -6455,7 +7778,7 @@
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="str">
         <f>B241&amp;"_"&amp;C241&amp;"_"&amp;E241</f>
-        <v>OFRA_PS_1GT43</v>
+        <v>OFRA_PS_1GT42</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>131</v>
@@ -6464,10 +7787,10 @@
         <v>48</v>
       </c>
       <c r="D241" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>11</v>
@@ -6476,7 +7799,7 @@
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="str">
         <f>B242&amp;"_"&amp;C242&amp;"_"&amp;E242</f>
-        <v>OFRA_PS_2CX10</v>
+        <v>OFRA_PS_1GT43</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>131</v>
@@ -6485,10 +7808,10 @@
         <v>48</v>
       </c>
       <c r="D242" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>11</v>
@@ -6497,7 +7820,7 @@
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="str">
         <f>B243&amp;"_"&amp;C243&amp;"_"&amp;E243</f>
-        <v>OFRA_PS_2CX11</v>
+        <v>OFRA_PS_2CX10</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>131</v>
@@ -6506,19 +7829,19 @@
         <v>48</v>
       </c>
       <c r="D243" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="str">
         <f>B244&amp;"_"&amp;C244&amp;"_"&amp;E244</f>
-        <v>OFRA_PS_2CX12</v>
+        <v>OFRA_PS_2CX11</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>131</v>
@@ -6527,19 +7850,19 @@
         <v>48</v>
       </c>
       <c r="D244" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="str">
         <f>B245&amp;"_"&amp;C245&amp;"_"&amp;E245</f>
-        <v>OFRA_PS_2CX13</v>
+        <v>OFRA_PS_2CX12</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>131</v>
@@ -6548,10 +7871,10 @@
         <v>48</v>
       </c>
       <c r="D245" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>11</v>
@@ -6560,7 +7883,7 @@
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="str">
         <f>B246&amp;"_"&amp;C246&amp;"_"&amp;E246</f>
-        <v>OFRA_PS_2CX8</v>
+        <v>OFRA_PS_2CX13</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>131</v>
@@ -6569,10 +7892,10 @@
         <v>48</v>
       </c>
       <c r="D246" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>11</v>
@@ -6581,7 +7904,7 @@
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="str">
         <f>B247&amp;"_"&amp;C247&amp;"_"&amp;E247</f>
-        <v>OFRA_PS_2GT10</v>
+        <v>OFRA_PS_2CX8</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>131</v>
@@ -6590,10 +7913,10 @@
         <v>48</v>
       </c>
       <c r="D247" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>11</v>
@@ -6602,7 +7925,7 @@
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="str">
         <f>B248&amp;"_"&amp;C248&amp;"_"&amp;E248</f>
-        <v>OFRA_PS_2GT3</v>
+        <v>OFRA_PS_2GT10</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>131</v>
@@ -6611,19 +7934,19 @@
         <v>48</v>
       </c>
       <c r="D248" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="str">
         <f>B249&amp;"_"&amp;C249&amp;"_"&amp;E249</f>
-        <v>OFRA_PS_2GT30</v>
+        <v>OFRA_PS_2GT3</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>131</v>
@@ -6631,20 +7954,20 @@
       <c r="C249" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D249" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D249" s="2">
+        <v>16</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="str">
         <f>B250&amp;"_"&amp;C250&amp;"_"&amp;E250</f>
-        <v>OFRA_PS_2GT31</v>
+        <v>OFRA_PS_2GT30</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>131</v>
@@ -6652,20 +7975,20 @@
       <c r="C250" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D250" s="2">
-        <v>17</v>
-      </c>
-      <c r="E250" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>11</v>
+      <c r="D250" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="str">
         <f>B251&amp;"_"&amp;C251&amp;"_"&amp;E251</f>
-        <v>OFRA_PS_2GT38</v>
+        <v>OFRA_PS_2GT31</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>131</v>
@@ -6674,19 +7997,19 @@
         <v>48</v>
       </c>
       <c r="D251" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="str">
         <f>B252&amp;"_"&amp;C252&amp;"_"&amp;E252</f>
-        <v>OFRA_PS_2GT41</v>
+        <v>OFRA_PS_2GT38</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>131</v>
@@ -6695,19 +8018,19 @@
         <v>48</v>
       </c>
       <c r="D252" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="str">
         <f>B253&amp;"_"&amp;C253&amp;"_"&amp;E253</f>
-        <v>OFRA_PS_2GT7</v>
+        <v>OFRA_PS_2GT41</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>131</v>
@@ -6716,10 +8039,10 @@
         <v>48</v>
       </c>
       <c r="D253" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>11</v>
@@ -6728,7 +8051,7 @@
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="str">
         <f>B254&amp;"_"&amp;C254&amp;"_"&amp;E254</f>
-        <v>OFRA_PS_2HS11</v>
+        <v>OFRA_PS_2GT7</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>131</v>
@@ -6737,10 +8060,10 @@
         <v>48</v>
       </c>
       <c r="D254" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>11</v>
@@ -6749,7 +8072,7 @@
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="str">
         <f>B255&amp;"_"&amp;C255&amp;"_"&amp;E255</f>
-        <v>OFRA_PS_2HS17</v>
+        <v>OFRA_PS_2HS11</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>131</v>
@@ -6758,10 +8081,10 @@
         <v>48</v>
       </c>
       <c r="D255" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>11</v>
@@ -6770,7 +8093,7 @@
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="str">
         <f>B256&amp;"_"&amp;C256&amp;"_"&amp;E256</f>
-        <v>OFRA_PS_2HS27</v>
+        <v>OFRA_PS_2HS17</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>131</v>
@@ -6779,10 +8102,10 @@
         <v>48</v>
       </c>
       <c r="D256" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>11</v>
@@ -6791,7 +8114,7 @@
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="str">
         <f>B257&amp;"_"&amp;C257&amp;"_"&amp;E257</f>
-        <v>OFRA_PS_2HS9</v>
+        <v>OFRA_PS_2HS27</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>131</v>
@@ -6800,10 +8123,10 @@
         <v>48</v>
       </c>
       <c r="D257" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>11</v>
@@ -6812,7 +8135,7 @@
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="str">
         <f>B258&amp;"_"&amp;C258&amp;"_"&amp;E258</f>
-        <v>OFRA_PS_4CX12</v>
+        <v>OFRA_PS_2HS9</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>131</v>
@@ -6821,10 +8144,10 @@
         <v>48</v>
       </c>
       <c r="D258" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>11</v>
@@ -6833,7 +8156,7 @@
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="str">
         <f>B259&amp;"_"&amp;C259&amp;"_"&amp;E259</f>
-        <v>OFRA_PS_4HS13</v>
+        <v>OFRA_PS_4CX12</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>131</v>
@@ -6842,10 +8165,10 @@
         <v>48</v>
       </c>
       <c r="D259" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>11</v>
@@ -6854,7 +8177,7 @@
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="str">
         <f>B260&amp;"_"&amp;C260&amp;"_"&amp;E260</f>
-        <v>OFRA_PS_4HS15</v>
+        <v>OFRA_PS_4HS13</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>131</v>
@@ -6863,10 +8186,10 @@
         <v>48</v>
       </c>
       <c r="D260" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>11</v>
@@ -6875,7 +8198,7 @@
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="str">
         <f>B261&amp;"_"&amp;C261&amp;"_"&amp;E261</f>
-        <v>OFRA_PS_6CX18</v>
+        <v>OFRA_PS_4HS15</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>131</v>
@@ -6884,10 +8207,10 @@
         <v>48</v>
       </c>
       <c r="D261" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>11</v>
@@ -6896,7 +8219,7 @@
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="str">
         <f>B262&amp;"_"&amp;C262&amp;"_"&amp;E262</f>
-        <v>OFRA_PS_6EV18</v>
+        <v>OFRA_PS_6CX18</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>131</v>
@@ -6905,19 +8228,19 @@
         <v>48</v>
       </c>
       <c r="D262" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="str">
         <f>B263&amp;"_"&amp;C263&amp;"_"&amp;E263</f>
-        <v>OFRA_PS_6GT17</v>
+        <v>OFRA_PS_6EV18</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>131</v>
@@ -6926,19 +8249,19 @@
         <v>48</v>
       </c>
       <c r="D263" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="str">
         <f>B264&amp;"_"&amp;C264&amp;"_"&amp;E264</f>
-        <v>OFRA_PS_8CX24</v>
+        <v>OFRA_PS_6GT17</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>131</v>
@@ -6947,10 +8270,10 @@
         <v>48</v>
       </c>
       <c r="D264" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>11</v>
@@ -6959,7 +8282,7 @@
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="str">
         <f>B265&amp;"_"&amp;C265&amp;"_"&amp;E265</f>
-        <v>OFRA_PS_8HS21</v>
+        <v>OFRA_PS_8CX24</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>131</v>
@@ -6968,19 +8291,19 @@
         <v>48</v>
       </c>
       <c r="D265" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="str">
         <f>B266&amp;"_"&amp;C266&amp;"_"&amp;E266</f>
-        <v>OFRA_PS_8HS23</v>
+        <v>OFRA_PS_8HS21</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>131</v>
@@ -6989,19 +8312,19 @@
         <v>48</v>
       </c>
       <c r="D266" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="str">
         <f>B267&amp;"_"&amp;C267&amp;"_"&amp;E267</f>
-        <v>OFRA_PS_8HS24</v>
+        <v>OFRA_PS_8HS23</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>131</v>
@@ -7010,10 +8333,10 @@
         <v>48</v>
       </c>
       <c r="D267" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>11</v>
@@ -7022,7 +8345,7 @@
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="str">
         <f>B268&amp;"_"&amp;C268&amp;"_"&amp;E268</f>
-        <v>OFRA_PS_9CX5</v>
+        <v>OFRA_PS_8HS24</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>131</v>
@@ -7031,10 +8354,10 @@
         <v>48</v>
       </c>
       <c r="D268" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>11</v>
@@ -7043,7 +8366,7 @@
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="str">
         <f>B269&amp;"_"&amp;C269&amp;"_"&amp;E269</f>
-        <v>OFRA_PS_9CX6</v>
+        <v>OFRA_PS_9CX5</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>131</v>
@@ -7052,10 +8375,10 @@
         <v>48</v>
       </c>
       <c r="D269" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>11</v>
@@ -7064,7 +8387,7 @@
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="str">
         <f>B270&amp;"_"&amp;C270&amp;"_"&amp;E270</f>
-        <v>OFRA_PS_9GT30</v>
+        <v>OFRA_PS_9CX6</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>131</v>
@@ -7073,10 +8396,10 @@
         <v>48</v>
       </c>
       <c r="D270" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>11</v>
@@ -7085,7 +8408,7 @@
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="str">
         <f>B271&amp;"_"&amp;C271&amp;"_"&amp;E271</f>
-        <v>OFRA_PS_9GT47</v>
+        <v>OFRA_PS_9GT30</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>131</v>
@@ -7094,18 +8417,201 @@
         <v>48</v>
       </c>
       <c r="D271" s="2">
+        <v>37</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="str">
+        <f>B272&amp;"_"&amp;C272&amp;"_"&amp;E272</f>
+        <v>OFRA_PS_9GT47</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D272" s="2">
         <v>38</v>
       </c>
-      <c r="E271" s="10" t="s">
+      <c r="E272" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F271" s="3" t="s">
-        <v>11</v>
+      <c r="F272" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="str">
+        <f t="shared" ref="A273:A279" si="0">B273&amp;"_"&amp;C273&amp;"_"&amp;E273</f>
+        <v>PRACTICE_55SS1T_</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G273" s="12">
+        <v>44510</v>
+      </c>
+      <c r="H273" s="4">
+        <v>13</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J273" s="12">
+        <v>44586</v>
+      </c>
+      <c r="K273" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PRACTICE_Green_Encrusting_Pavona_</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G274" s="12">
+        <v>44586</v>
+      </c>
+      <c r="H274" s="4">
+        <v>10</v>
+      </c>
+      <c r="I274" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J274" s="12">
+        <v>44586</v>
+      </c>
+      <c r="K274" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PRACTICE_Pagoda_Cup_</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G275" s="12">
+        <v>44602</v>
+      </c>
+      <c r="H275" s="4">
+        <v>55</v>
+      </c>
+      <c r="I275" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PRACTICE_Branching_Pavona_</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G276" s="12">
+        <v>44601</v>
+      </c>
+      <c r="I276" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PRACTICE_30OA1_</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G277" s="12">
+        <v>44602</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L277" s="4">
+        <v>4</v>
+      </c>
+      <c r="M277" s="4">
+        <v>1</v>
+      </c>
+      <c r="N277" s="4">
+        <v>2</v>
+      </c>
+      <c r="O277" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>PRACTICE_Tangerine_Leoptoseris_</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G278" s="12">
+        <v>44610</v>
+      </c>
+      <c r="H278" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J278" s="12">
+        <v>44610</v>
+      </c>
+      <c r="K278" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L278" s="4">
+        <v>4</v>
+      </c>
+      <c r="M278" s="4">
+        <v>1</v>
+      </c>
+      <c r="N278" s="4">
+        <v>2</v>
+      </c>
+      <c r="O278" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q271">
-    <sortCondition ref="A5:A271"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q272">
+    <sortCondition ref="A5:A272"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7114,10 +8620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2864A1B8-A548-ED41-AA96-677E01FD6E70}">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7139,6 +8645,70 @@
         <v>146</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transplants_Raw_Master.xlsx
+++ b/Transplants_Raw_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F80E82-4ED9-6940-9A77-5D03BA756DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFC599-E294-9441-9F5E-7AD724CD5C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="24820" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="190">
   <si>
     <t>Species</t>
   </si>
@@ -458,9 +458,6 @@
     <t>Airbrush_Date</t>
   </si>
   <si>
-    <t>Arbrush_volume</t>
-  </si>
-  <si>
     <t>Airbrush_Initials</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>DM</t>
   </si>
   <si>
-    <t>TC/WD</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -597,6 +591,21 @@
   </si>
   <si>
     <t xml:space="preserve">There were two pieces wrapped in one piece of tinfoil, so there are probably only 3 tubes of airbrushed tissue. </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Airbrush_volume</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED04EC-AF48-A04F-A9D1-211D7C4EE961}">
   <dimension ref="A1:T280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="125" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A78" sqref="A78"/>
-      <selection pane="topRight" activeCell="K119" sqref="K119"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,9 +1044,9 @@
     <col min="14" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.83203125" style="1"/>
-    <col min="19" max="19" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="17" max="19" width="10.83203125" style="1"/>
+    <col min="20" max="20" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.2">
@@ -1061,22 +1069,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>139</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>5</v>
@@ -1091,21 +1099,21 @@
         <v>8</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A65" si="0">B2&amp;"_"&amp;C2&amp;"_"&amp;E2</f>
+        <f>B2&amp;"_"&amp;C2&amp;"_"&amp;E2</f>
         <v>OFAV_PP_0GT1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1131,13 +1139,13 @@
         <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K2" s="5">
         <v>44648</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M2" s="4">
         <v>4</v>
@@ -1151,11 +1159,20 @@
       <c r="P2" s="4">
         <v>3</v>
       </c>
-      <c r="S2" s="4"/>
+      <c r="Q2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R2" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B3&amp;"_"&amp;C3&amp;"_"&amp;E3</f>
         <v>OFAV_PP_0HS3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1181,13 +1198,13 @@
         <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" s="5">
         <v>44642</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M3" s="4">
         <v>4</v>
@@ -1201,11 +1218,14 @@
       <c r="P3" s="4">
         <v>3</v>
       </c>
-      <c r="S3" s="4"/>
+      <c r="Q3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B4&amp;"_"&amp;C4&amp;"_"&amp;E4</f>
         <v>OFAV_PP_0HS4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1224,20 +1244,39 @@
         <v>10</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="H4" s="5">
+        <v>44645</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="5">
+        <v>44645</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="Q4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B5&amp;"_"&amp;C5&amp;"_"&amp;E5</f>
         <v>OFAV_PP_2HS12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1256,20 +1295,39 @@
         <v>10</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="H5" s="5">
+        <v>44645</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="5">
+        <v>44645</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="Q5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R5" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B6&amp;"_"&amp;C6&amp;"_"&amp;E6</f>
         <v>OFAV_PP_2HS2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1295,13 +1353,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K6" s="5">
         <v>44631</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M6" s="4">
         <v>4</v>
@@ -1315,11 +1373,20 @@
       <c r="P6" s="4">
         <v>3</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="Q6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R6" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B7&amp;"_"&amp;C7&amp;"_"&amp;E7</f>
         <v>OFAV_PP_2HS48</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1345,13 +1412,13 @@
         <v>19.5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K7" s="5">
         <v>44643</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M7" s="4">
         <v>4</v>
@@ -1365,11 +1432,20 @@
       <c r="P7" s="4">
         <v>3</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="Q7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R7" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B8&amp;"_"&amp;C8&amp;"_"&amp;E8</f>
         <v>OFAV_PP_2HS6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1395,13 +1471,13 @@
         <v>33</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K8" s="5">
         <v>44629</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M8" s="4">
         <v>4</v>
@@ -1415,11 +1491,20 @@
       <c r="P8" s="4">
         <v>3</v>
       </c>
-      <c r="S8" s="4"/>
+      <c r="Q8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R8" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B9&amp;"_"&amp;C9&amp;"_"&amp;E9</f>
         <v>OFAV_PP_310</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1445,13 +1530,13 @@
         <v>12.4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K9" s="5">
         <v>44631</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M9" s="4">
         <v>4</v>
@@ -1465,11 +1550,20 @@
       <c r="P9" s="4">
         <v>3</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="Q9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R9" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B10&amp;"_"&amp;C10&amp;"_"&amp;E10</f>
         <v>OFAV_PP_313</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1495,13 +1589,13 @@
         <v>19</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K10" s="5">
         <v>44627</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M10" s="4">
         <v>4</v>
@@ -1515,11 +1609,14 @@
       <c r="P10" s="4">
         <v>3</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="Q10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B11&amp;"_"&amp;C11&amp;"_"&amp;E11</f>
         <v>OFAV_PP_352</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1545,13 +1642,13 @@
         <v>16</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11" s="5">
         <v>44629</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M11" s="4">
         <v>4</v>
@@ -1565,11 +1662,20 @@
       <c r="P11" s="4">
         <v>3</v>
       </c>
-      <c r="S11" s="4"/>
+      <c r="Q11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R11" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B12&amp;"_"&amp;C12&amp;"_"&amp;E12</f>
         <v>OFAV_PP_356</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1588,20 +1694,41 @@
         <v>10</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="H12" s="5">
+        <v>44655</v>
+      </c>
+      <c r="I12" s="4">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="5">
+        <v>44655</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B13&amp;"_"&amp;C13&amp;"_"&amp;E13</f>
         <v>OFAV_PP_357</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1627,13 +1754,13 @@
         <v>23</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K13" s="5">
         <v>44641</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M13" s="4">
         <v>4</v>
@@ -1647,11 +1774,20 @@
       <c r="P13" s="4">
         <v>3</v>
       </c>
-      <c r="S13" s="4"/>
+      <c r="Q13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R13" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B14&amp;"_"&amp;C14&amp;"_"&amp;E14</f>
         <v>OFAV_PP_358</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1677,13 +1813,13 @@
         <v>12.5</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" s="5">
         <v>44631</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M14" s="4">
         <v>4</v>
@@ -1697,11 +1833,20 @@
       <c r="P14" s="4">
         <v>3</v>
       </c>
-      <c r="S14" s="4"/>
+      <c r="Q14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R14" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B15&amp;"_"&amp;C15&amp;"_"&amp;E15</f>
         <v>OFAV_PP_359</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1727,13 +1872,13 @@
         <v>10</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" s="5">
         <v>44631</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M15" s="4">
         <v>4</v>
@@ -1747,11 +1892,20 @@
       <c r="P15" s="4">
         <v>3</v>
       </c>
-      <c r="S15" s="4"/>
+      <c r="Q15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R15" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B16&amp;"_"&amp;C16&amp;"_"&amp;E16</f>
         <v>OFAV_PP_360</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1777,13 +1931,13 @@
         <v>16</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K16" s="5">
         <v>44641</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M16" s="4">
         <v>4</v>
@@ -1797,11 +1951,20 @@
       <c r="P16" s="4">
         <v>3</v>
       </c>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R16" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B17&amp;"_"&amp;C17&amp;"_"&amp;E17</f>
         <v>OFAV_PP_362</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1820,20 +1983,47 @@
         <v>10</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H17" s="5">
+        <v>44652</v>
+      </c>
+      <c r="I17" s="4">
+        <v>12</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="5">
+        <v>44652</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" s="4">
+        <v>4</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R17" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B18&amp;"_"&amp;C18&amp;"_"&amp;E18</f>
         <v>OFAV_PP_365</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1859,31 +2049,40 @@
         <v>34</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K18" s="5">
         <v>44627</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="M18" s="4">
+        <v>4</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R18" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B19&amp;"_"&amp;C19&amp;"_"&amp;E19</f>
         <v>OFAV_PP_366</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1909,13 +2108,13 @@
         <v>17</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K19" s="5">
         <v>44642</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M19" s="4">
         <v>4</v>
@@ -1929,11 +2128,20 @@
       <c r="P19" s="4">
         <v>3</v>
       </c>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R19" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B20&amp;"_"&amp;C20&amp;"_"&amp;E20</f>
         <v>OFAV_PP_367</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1959,13 +2167,13 @@
         <v>20</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K20" s="5">
         <v>44629</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M20" s="4">
         <v>4</v>
@@ -1979,11 +2187,20 @@
       <c r="P20" s="4">
         <v>3</v>
       </c>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R20" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B21&amp;"_"&amp;C21&amp;"_"&amp;E21</f>
         <v>OFAV_PP_368</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2002,20 +2219,41 @@
         <v>10</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H21" s="5">
+        <v>44650</v>
+      </c>
+      <c r="I21" s="4">
+        <v>33</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="5">
+        <v>44650</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="4">
+        <v>4</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B22&amp;"_"&amp;C22&amp;"_"&amp;E22</f>
         <v>OFAV_PP_369</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2034,20 +2272,47 @@
         <v>10</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H22" s="5">
+        <v>44649</v>
+      </c>
+      <c r="I22" s="4">
+        <v>23</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="5">
+        <v>44649</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" s="4">
+        <v>4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4">
+        <v>2</v>
+      </c>
+      <c r="P22" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R22" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B23&amp;"_"&amp;C23&amp;"_"&amp;E23</f>
         <v>OFAV_PP_370</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2065,21 +2330,52 @@
       <c r="F23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B24&amp;"_"&amp;C24&amp;"_"&amp;E24</f>
         <v>OFAV_PP_371</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2105,13 +2401,13 @@
         <v>15</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K24" s="5">
         <v>44642</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M24" s="4">
         <v>4</v>
@@ -2125,11 +2421,14 @@
       <c r="P24" s="4">
         <v>3</v>
       </c>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B25&amp;"_"&amp;C25&amp;"_"&amp;E25</f>
         <v>OFAV_PP_9AZ2</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2147,21 +2446,52 @@
       <c r="F25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B26&amp;"_"&amp;C26&amp;"_"&amp;E26</f>
         <v>OFAV_PP_9AZ5</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2187,13 +2517,13 @@
         <v>27</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K26" s="5">
         <v>44613</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M26" s="4">
         <v>4</v>
@@ -2207,11 +2537,20 @@
       <c r="P26" s="4">
         <v>3</v>
       </c>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R26" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B27&amp;"_"&amp;C27&amp;"_"&amp;E27</f>
         <v>OFAV_PP_9AZ9</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2230,20 +2569,47 @@
         <v>10</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H27" s="5">
+        <v>44642</v>
+      </c>
+      <c r="I27" s="4">
+        <v>22</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="5">
+        <v>44649</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M27" s="4">
+        <v>4</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>2</v>
+      </c>
+      <c r="P27" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R27" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B28&amp;"_"&amp;C28&amp;"_"&amp;E28</f>
         <v>OFAV_PP_9EV35</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2262,20 +2628,47 @@
         <v>10</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H28" s="5">
+        <v>44655</v>
+      </c>
+      <c r="I28" s="4">
+        <v>42</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K28" s="5">
+        <v>44655</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" s="4">
+        <v>4</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2</v>
+      </c>
+      <c r="P28" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R28" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B29&amp;"_"&amp;C29&amp;"_"&amp;E29</f>
         <v>OFAV_PP_9EV4</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2294,20 +2687,47 @@
         <v>10</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H29" s="5">
+        <v>44657</v>
+      </c>
+      <c r="I29" s="4">
+        <v>30</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="5">
+        <v>44657</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M29" s="4">
+        <v>4</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2</v>
+      </c>
+      <c r="P29" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R29" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B30&amp;"_"&amp;C30&amp;"_"&amp;E30</f>
         <v>OFAV_PP_9EV40</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2333,13 +2753,13 @@
         <v>34</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K30" s="5">
         <v>44648</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M30" s="4">
         <v>4</v>
@@ -2353,11 +2773,20 @@
       <c r="P30" s="4">
         <v>3</v>
       </c>
-      <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R30" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B31&amp;"_"&amp;C31&amp;"_"&amp;E31</f>
         <v>OFAV_PP_9EV5</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2383,13 +2812,13 @@
         <v>11</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K31" s="5">
         <v>44643</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M31" s="4">
         <v>4</v>
@@ -2403,11 +2832,20 @@
       <c r="P31" s="4">
         <v>3</v>
       </c>
-      <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R31" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B32&amp;"_"&amp;C32&amp;"_"&amp;E32</f>
         <v>OFAV_PP_9GT35</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2426,20 +2864,47 @@
         <v>10</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H32" s="5">
+        <v>44657</v>
+      </c>
+      <c r="I32" s="4">
+        <v>18</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K32" s="5">
+        <v>44657</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" s="4">
+        <v>4</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4">
+        <v>2</v>
+      </c>
+      <c r="P32" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R32" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B33&amp;"_"&amp;C33&amp;"_"&amp;E33</f>
         <v>OFAV_PP_9GT4</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2465,13 +2930,13 @@
         <v>15</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K33" s="5">
         <v>44643</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M33" s="4">
         <v>4</v>
@@ -2485,11 +2950,20 @@
       <c r="P33" s="4">
         <v>3</v>
       </c>
-      <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R33" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B34&amp;"_"&amp;C34&amp;"_"&amp;E34</f>
         <v>OFAV_PP_9GT46</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2515,13 +2989,13 @@
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K34" s="5">
         <v>44629</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M34" s="4">
         <v>4</v>
@@ -2535,11 +3009,20 @@
       <c r="P34" s="4">
         <v>3</v>
       </c>
-      <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R34" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B35&amp;"_"&amp;C35&amp;"_"&amp;E35</f>
         <v>OFAV_PP_9IR44</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2558,20 +3041,47 @@
         <v>10</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H35" s="5">
+        <v>44642</v>
+      </c>
+      <c r="I35" s="4">
+        <v>23</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="5">
+        <v>44642</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M35" s="4">
+        <v>4</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4">
+        <v>2</v>
+      </c>
+      <c r="P35" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R35" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B36&amp;"_"&amp;C36&amp;"_"&amp;E36</f>
         <v>OFAV_PP_9JQ4</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2597,13 +3107,13 @@
         <v>35</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K36" s="5">
         <v>12122</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M36" s="4">
         <v>4</v>
@@ -2617,11 +3127,14 @@
       <c r="P36" s="4">
         <v>3</v>
       </c>
-      <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B37&amp;"_"&amp;C37&amp;"_"&amp;E37</f>
         <v>OFAV_PP_9JQ42</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2647,13 +3160,13 @@
         <v>36</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K37" s="5">
         <v>44641</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M37" s="4">
         <v>4</v>
@@ -2667,11 +3180,20 @@
       <c r="P37" s="4">
         <v>3</v>
       </c>
-      <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R37" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B38&amp;"_"&amp;C38&amp;"_"&amp;E38</f>
         <v>OFAV_PP_9JQ43</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2697,13 +3219,13 @@
         <v>17</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K38" s="5">
         <v>44641</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M38" s="4">
         <v>4</v>
@@ -2717,11 +3239,20 @@
       <c r="P38" s="4">
         <v>3</v>
       </c>
-      <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R38" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B39&amp;"_"&amp;C39&amp;"_"&amp;E39</f>
         <v>OFAV_PP_9JQ431</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2739,21 +3270,52 @@
       <c r="F39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B40&amp;"_"&amp;C40&amp;"_"&amp;E40</f>
         <v>OFAV_PP_9JQ53</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2772,20 +3334,47 @@
         <v>10</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H40" s="5">
+        <v>44657</v>
+      </c>
+      <c r="I40" s="4">
+        <v>21</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K40" s="5">
+        <v>44657</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M40" s="4">
+        <v>4</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4">
+        <v>2</v>
+      </c>
+      <c r="P40" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R40" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B41&amp;"_"&amp;C41&amp;"_"&amp;E41</f>
         <v>OFAV_PP_AZ</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2804,19 +3393,47 @@
         <v>10</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H41" s="5">
+        <v>44650</v>
+      </c>
+      <c r="I41" s="1">
+        <v>49</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K41" s="5">
+        <v>44650</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M41" s="4">
+        <v>4</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4">
+        <v>2</v>
+      </c>
+      <c r="P41" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R41" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B42&amp;"_"&amp;C42&amp;"_"&amp;E42</f>
         <v>OFAV_PP_CX</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2835,20 +3452,47 @@
         <v>10</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H42" s="5">
+        <v>44650</v>
+      </c>
+      <c r="I42" s="4">
+        <v>17</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K42" s="5">
+        <v>44650</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M42" s="4">
+        <v>4</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4">
+        <v>2</v>
+      </c>
+      <c r="P42" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R42" s="8">
+        <v>44666</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B43&amp;"_"&amp;C43&amp;"_"&amp;E43</f>
         <v>OFAV_PP_DW</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2874,13 +3518,13 @@
         <v>25</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K43" s="5">
         <v>44627</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M43" s="4">
         <v>4</v>
@@ -2894,11 +3538,14 @@
       <c r="P43" s="4">
         <v>3</v>
       </c>
-      <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B44&amp;"_"&amp;C44&amp;"_"&amp;E44</f>
         <v>OFAV_PS_0HS3</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2917,10 +3564,40 @@
         <v>10</v>
       </c>
       <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H44" s="8">
+        <v>44666</v>
+      </c>
+      <c r="I44" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" s="8">
+        <v>44666</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" s="1">
+        <v>4</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2</v>
+      </c>
+      <c r="P44" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B45&amp;"_"&amp;C45&amp;"_"&amp;E45</f>
         <v>OFAV_PS_0HS4</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2940,9 +3617,9 @@
       </c>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B46&amp;"_"&amp;C46&amp;"_"&amp;E46</f>
         <v>OFAV_PS_2HS12</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2961,10 +3638,40 @@
         <v>10</v>
       </c>
       <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H46" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I46" s="1">
+        <v>26</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K46" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M46" s="1">
+        <v>8</v>
+      </c>
+      <c r="N46" s="1">
+        <v>7</v>
+      </c>
+      <c r="O46" s="1">
+        <v>6</v>
+      </c>
+      <c r="P46" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B47&amp;"_"&amp;C47&amp;"_"&amp;E47</f>
         <v>OFAV_PS_2HS2</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2982,11 +3689,52 @@
       <c r="F47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B48&amp;"_"&amp;C48&amp;"_"&amp;E48</f>
         <v>OFAV_PS_2HS48</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3006,9 +3754,9 @@
       </c>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B49&amp;"_"&amp;C49&amp;"_"&amp;E49</f>
         <v>OFAV_PS_2HS6</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3027,10 +3775,40 @@
         <v>10</v>
       </c>
       <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="8">
+        <v>44666</v>
+      </c>
+      <c r="I49" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K49" s="8">
+        <v>44666</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M49" s="1">
+        <v>4</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <v>2</v>
+      </c>
+      <c r="P49" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B50&amp;"_"&amp;C50&amp;"_"&amp;E50</f>
         <v>OFAV_PS_310</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3049,10 +3827,40 @@
         <v>10</v>
       </c>
       <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I50" s="1">
+        <v>18</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M50" s="1">
+        <v>4</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>2</v>
+      </c>
+      <c r="P50" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B51&amp;"_"&amp;C51&amp;"_"&amp;E51</f>
         <v>OFAV_PS_313</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3072,9 +3880,9 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B52&amp;"_"&amp;C52&amp;"_"&amp;E52</f>
         <v>OFAV_PS_352</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3093,10 +3901,40 @@
         <v>10</v>
       </c>
       <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I52" s="1">
+        <v>20</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K52" s="8">
+        <v>44659</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M52" s="1">
+        <v>4</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1">
+        <v>2</v>
+      </c>
+      <c r="P52" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B53&amp;"_"&amp;C53&amp;"_"&amp;E53</f>
         <v>OFAV_PS_356</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3115,10 +3953,40 @@
         <v>10</v>
       </c>
       <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I53" s="1">
+        <v>23</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K53" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M53" s="1">
+        <v>8</v>
+      </c>
+      <c r="N53" s="1">
+        <v>7</v>
+      </c>
+      <c r="O53" s="1">
+        <v>6</v>
+      </c>
+      <c r="P53" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B54&amp;"_"&amp;C54&amp;"_"&amp;E54</f>
         <v>OFAV_PS_357</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3137,10 +4005,40 @@
         <v>10</v>
       </c>
       <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" s="8">
+        <v>44666</v>
+      </c>
+      <c r="I54" s="1">
+        <v>13</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K54" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M54" s="1">
+        <v>4</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>2</v>
+      </c>
+      <c r="P54" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B55&amp;"_"&amp;C55&amp;"_"&amp;E55</f>
         <v>OFAV_PS_358</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3158,11 +4056,52 @@
       <c r="F55" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B56&amp;"_"&amp;C56&amp;"_"&amp;E56</f>
         <v>OFAV_PS_359</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3182,9 +4121,9 @@
       </c>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B57&amp;"_"&amp;C57&amp;"_"&amp;E57</f>
         <v>OFAV_PS_360</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3204,9 +4143,9 @@
       </c>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B58&amp;"_"&amp;C58&amp;"_"&amp;E58</f>
         <v>OFAV_PS_362</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3225,10 +4164,40 @@
         <v>41</v>
       </c>
       <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" s="8">
+        <v>44659</v>
+      </c>
+      <c r="I58" s="1">
+        <v>14</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K58" s="8">
+        <v>44659</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M58" s="1">
+        <v>4</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
+        <v>2</v>
+      </c>
+      <c r="P58" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B59&amp;"_"&amp;C59&amp;"_"&amp;E59</f>
         <v>OFAV_PS_365</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3247,10 +4216,40 @@
         <v>42</v>
       </c>
       <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I59" s="1">
+        <v>19</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K59" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M59" s="1">
+        <v>8</v>
+      </c>
+      <c r="N59" s="1">
+        <v>7</v>
+      </c>
+      <c r="O59" s="1">
+        <v>6</v>
+      </c>
+      <c r="P59" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B60&amp;"_"&amp;C60&amp;"_"&amp;E60</f>
         <v>OFAV_PS_365</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3270,9 +4269,9 @@
       </c>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B61&amp;"_"&amp;C61&amp;"_"&amp;E61</f>
         <v>OFAV_PS_366</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3290,11 +4289,52 @@
       <c r="F61" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B62&amp;"_"&amp;C62&amp;"_"&amp;E62</f>
         <v>OFAV_PS_367</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3313,10 +4353,40 @@
         <v>10</v>
       </c>
       <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I62" s="1">
+        <v>26</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K62" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M62" s="1">
+        <v>8</v>
+      </c>
+      <c r="N62" s="1">
+        <v>7</v>
+      </c>
+      <c r="O62" s="1">
+        <v>6</v>
+      </c>
+      <c r="P62" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B63&amp;"_"&amp;C63&amp;"_"&amp;E63</f>
         <v>OFAV_PS_368</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3336,9 +4406,9 @@
       </c>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B64&amp;"_"&amp;C64&amp;"_"&amp;E64</f>
         <v>OFAV_PS_369</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3357,10 +4427,40 @@
         <v>10</v>
       </c>
       <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="8">
+        <v>44659</v>
+      </c>
+      <c r="I64" s="1">
+        <v>25</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K64" s="8">
+        <v>44659</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M64" s="1">
+        <v>4</v>
+      </c>
+      <c r="N64" s="1">
+        <v>2</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+      <c r="P64" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>B65&amp;"_"&amp;C65&amp;"_"&amp;E65</f>
         <v>OFAV_PS_370</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3379,10 +4479,40 @@
         <v>10</v>
       </c>
       <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I65" s="1">
+        <v>17</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K65" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M65" s="1">
+        <v>8</v>
+      </c>
+      <c r="N65" s="1">
+        <v>7</v>
+      </c>
+      <c r="O65" s="1">
+        <v>6</v>
+      </c>
+      <c r="P65" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f t="shared" ref="A66:A131" si="1">B66&amp;"_"&amp;C66&amp;"_"&amp;E66</f>
+        <f>B66&amp;"_"&amp;C66&amp;"_"&amp;E66</f>
         <v>OFAV_PS_371</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -3402,9 +4532,9 @@
       </c>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B67&amp;"_"&amp;C67&amp;"_"&amp;E67</f>
         <v>OFAV_PS_9AZ2</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3422,11 +4552,52 @@
       <c r="F67" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T67" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B68&amp;"_"&amp;C68&amp;"_"&amp;E68</f>
         <v>OFAV_PS_9AZ5</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3446,9 +4617,9 @@
       </c>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B69&amp;"_"&amp;C69&amp;"_"&amp;E69</f>
         <v>OFAV_PS_9AZ9</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -3468,9 +4639,9 @@
       </c>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B70&amp;"_"&amp;C70&amp;"_"&amp;E70</f>
         <v>OFAV_PS_9EV35</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3489,10 +4660,40 @@
         <v>10</v>
       </c>
       <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I70" s="1">
+        <v>35</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K70" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M70" s="1">
+        <v>4</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
+        <v>2</v>
+      </c>
+      <c r="P70" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B71&amp;"_"&amp;C71&amp;"_"&amp;E71</f>
         <v>OFAV_PS_9EV4</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3512,9 +4713,9 @@
       </c>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B72&amp;"_"&amp;C72&amp;"_"&amp;E72</f>
         <v>OFAV_PS_9EV40</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3534,9 +4735,9 @@
       </c>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B73&amp;"_"&amp;C73&amp;"_"&amp;E73</f>
         <v>OFAV_PS_9EV5</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -3555,10 +4756,40 @@
         <v>10</v>
       </c>
       <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="8">
+        <v>44666</v>
+      </c>
+      <c r="I73" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K73" s="8">
+        <v>44666</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M73" s="1">
+        <v>4</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>2</v>
+      </c>
+      <c r="P73" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B74&amp;"_"&amp;C74&amp;"_"&amp;E74</f>
         <v>OFAV_PS_9GT35</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -3578,9 +4809,9 @@
       </c>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B75&amp;"_"&amp;C75&amp;"_"&amp;E75</f>
         <v>OFAV_PS_9GT4</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3600,9 +4831,9 @@
       </c>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B76&amp;"_"&amp;C76&amp;"_"&amp;E76</f>
         <v>OFAV_PS_9GT46</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -3622,9 +4853,9 @@
       </c>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B77&amp;"_"&amp;C77&amp;"_"&amp;E77</f>
         <v>OFAV_PS_9IR44</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -3643,10 +4874,40 @@
         <v>10</v>
       </c>
       <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="8">
+        <v>44666</v>
+      </c>
+      <c r="I77" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77" s="8">
+        <v>44666</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M77" s="1">
+        <v>4</v>
+      </c>
+      <c r="N77" s="1">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
+        <v>2</v>
+      </c>
+      <c r="P77" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B78&amp;"_"&amp;C78&amp;"_"&amp;E78</f>
         <v>OFAV_PS_9JQ4</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3665,10 +4926,40 @@
         <v>10</v>
       </c>
       <c r="G78" s="6"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I78" s="1">
+        <v>19</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K78" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M78" s="1">
+        <v>8</v>
+      </c>
+      <c r="N78" s="1">
+        <v>7</v>
+      </c>
+      <c r="O78" s="1">
+        <v>6</v>
+      </c>
+      <c r="P78" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B79&amp;"_"&amp;C79&amp;"_"&amp;E79</f>
         <v>OFAV_PS_9JQ42</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3688,9 +4979,9 @@
       </c>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B80&amp;"_"&amp;C80&amp;"_"&amp;E80</f>
         <v>OFAV_PS_9JQ431</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3709,10 +5000,40 @@
         <v>10</v>
       </c>
       <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H80" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I80" s="1">
+        <v>23</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K80" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M80" s="1">
+        <v>8</v>
+      </c>
+      <c r="N80" s="1">
+        <v>7</v>
+      </c>
+      <c r="O80" s="1">
+        <v>6</v>
+      </c>
+      <c r="P80" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B81&amp;"_"&amp;C81&amp;"_"&amp;E81</f>
         <v>OFAV_PS_9JQ53</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3732,9 +5053,9 @@
       </c>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B82&amp;"_"&amp;C82&amp;"_"&amp;E82</f>
         <v>OFAV_PS_AZ</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3754,9 +5075,9 @@
       </c>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B83&amp;"_"&amp;C83&amp;"_"&amp;E83</f>
         <v>OFAV_PS_CX</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3775,10 +5096,40 @@
         <v>10</v>
       </c>
       <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H83" s="8">
+        <v>44669</v>
+      </c>
+      <c r="I83" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K83" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M83" s="1">
+        <v>8</v>
+      </c>
+      <c r="N83" s="1">
+        <v>7</v>
+      </c>
+      <c r="O83" s="1">
+        <v>6</v>
+      </c>
+      <c r="P83" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B84&amp;"_"&amp;C84&amp;"_"&amp;E84</f>
         <v>OFAV_PS_DW</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3798,9 +5149,9 @@
       </c>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B85&amp;"_"&amp;C85&amp;"_"&amp;E85</f>
         <v>OFAV_PS_EV</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3820,9 +5171,9 @@
       </c>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B86&amp;"_"&amp;C86&amp;"_"&amp;E86</f>
         <v>OFAV_PS_OHS2</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3842,9 +5193,9 @@
       </c>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B87&amp;"_"&amp;C87&amp;"_"&amp;E87</f>
         <v>OFAV_SP_0AZ24</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -3870,13 +5221,13 @@
         <v>36</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K87" s="8">
         <v>44616</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M87" s="1">
         <v>4</v>
@@ -3890,16 +5241,19 @@
       <c r="P87" s="1">
         <v>3</v>
       </c>
-      <c r="Q87" s="8">
+      <c r="Q87" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R87" s="8">
         <v>44663</v>
       </c>
-      <c r="R87" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B88&amp;"_"&amp;C88&amp;"_"&amp;E88</f>
         <v>OFAV_SP_0AZ4</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -3925,13 +5279,13 @@
         <v>27.3</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K88" s="8">
         <v>44610</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M88" s="1">
         <v>4</v>
@@ -3945,16 +5299,19 @@
       <c r="P88" s="1">
         <v>3</v>
       </c>
-      <c r="Q88" s="8">
+      <c r="Q88" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R88" s="8">
         <v>44663</v>
       </c>
-      <c r="R88" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B89&amp;"_"&amp;C89&amp;"_"&amp;E89</f>
         <v>OFAV_SP_0DW46</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -3972,7 +5329,9 @@
       <c r="F89" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H89" s="6" t="s">
         <v>36</v>
       </c>
@@ -4006,10 +5365,16 @@
       <c r="R89" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T89" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B90&amp;"_"&amp;C90&amp;"_"&amp;E90</f>
         <v>OFAV_SP_0EV1</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -4027,7 +5392,9 @@
       <c r="F90" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H90" s="6" t="s">
         <v>36</v>
       </c>
@@ -4061,10 +5428,16 @@
       <c r="R90" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T90" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B91&amp;"_"&amp;C91&amp;"_"&amp;E91</f>
         <v>OFAV_SP_0EV3</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -4090,13 +5463,13 @@
         <v>27</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K91" s="8">
         <v>44587</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M91" s="1">
         <v>4</v>
@@ -4110,16 +5483,19 @@
       <c r="P91" s="1">
         <v>3</v>
       </c>
-      <c r="Q91" s="8">
+      <c r="Q91" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R91" s="8">
         <v>44663</v>
       </c>
-      <c r="R91" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B92&amp;"_"&amp;C92&amp;"_"&amp;E92</f>
         <v>OFAV_SP_0EV3</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -4145,13 +5521,13 @@
         <v>10.5</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K92" s="8">
         <v>44624</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M92" s="1">
         <v>4</v>
@@ -4165,16 +5541,19 @@
       <c r="P92" s="1">
         <v>3</v>
       </c>
-      <c r="Q92" s="8">
+      <c r="Q92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R92" s="8">
         <v>44663</v>
       </c>
-      <c r="R92" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B93&amp;"_"&amp;C93&amp;"_"&amp;E93</f>
         <v>OFAV_SP_1AZ5</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -4192,7 +5571,9 @@
       <c r="F93" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G93" s="6"/>
+      <c r="G93" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H93" s="6" t="s">
         <v>36</v>
       </c>
@@ -4226,10 +5607,16 @@
       <c r="R93" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T93" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B94&amp;"_"&amp;C94&amp;"_"&amp;E94</f>
         <v>OFAV_SP_2AZ2</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4247,7 +5634,9 @@
       <c r="F94" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G94" s="6"/>
+      <c r="G94" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H94" s="6" t="s">
         <v>36</v>
       </c>
@@ -4281,10 +5670,16 @@
       <c r="R94" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T94" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B95&amp;"_"&amp;C95&amp;"_"&amp;E95</f>
         <v>OFAV_SP_2AZ21</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -4310,13 +5705,13 @@
         <v>13</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K95" s="8">
         <v>44587</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M95" s="1">
         <v>4</v>
@@ -4330,16 +5725,19 @@
       <c r="P95" s="1">
         <v>3</v>
       </c>
-      <c r="Q95" s="8">
+      <c r="Q95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R95" s="8">
         <v>44663</v>
       </c>
-      <c r="R95" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B96&amp;"_"&amp;C96&amp;"_"&amp;E96</f>
         <v>OFAV_SP_2AZ21</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -4365,13 +5763,13 @@
         <v>20</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K96" s="8">
         <v>44624</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M96" s="1">
         <v>4</v>
@@ -4385,16 +5783,19 @@
       <c r="P96" s="1">
         <v>3</v>
       </c>
-      <c r="Q96" s="8">
+      <c r="Q96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R96" s="8">
         <v>44663</v>
       </c>
-      <c r="R96" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B97&amp;"_"&amp;C97&amp;"_"&amp;E97</f>
         <v>OFAV_SP_2AZ3</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -4412,7 +5813,9 @@
       <c r="F97" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G97" s="6"/>
+      <c r="G97" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H97" s="6" t="s">
         <v>36</v>
       </c>
@@ -4446,10 +5849,16 @@
       <c r="R97" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T97" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B98&amp;"_"&amp;C98&amp;"_"&amp;E98</f>
         <v>OFAV_SP_2AZ7</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -4475,13 +5884,13 @@
         <v>13</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K98" s="8">
         <v>44587</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M98" s="1">
         <v>4</v>
@@ -4495,16 +5904,19 @@
       <c r="P98" s="1">
         <v>3</v>
       </c>
-      <c r="Q98" s="8">
+      <c r="Q98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R98" s="8">
         <v>44663</v>
       </c>
-      <c r="R98" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B99&amp;"_"&amp;C99&amp;"_"&amp;E99</f>
         <v>OFAV_SP_2AZ7</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -4530,13 +5942,13 @@
         <v>55.5</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K99" s="8">
         <v>44615</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M99" s="1">
         <v>4</v>
@@ -4550,16 +5962,19 @@
       <c r="P99" s="1">
         <v>3</v>
       </c>
-      <c r="Q99" s="8">
+      <c r="Q99" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R99" s="8">
         <v>44663</v>
       </c>
-      <c r="R99" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B100&amp;"_"&amp;C100&amp;"_"&amp;E100</f>
         <v>OFAV_SP_2AZ7</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -4585,13 +6000,13 @@
         <v>21</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K100" s="8">
         <v>44622</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M100" s="1">
         <v>4</v>
@@ -4605,16 +6020,19 @@
       <c r="P100" s="1">
         <v>3</v>
       </c>
-      <c r="Q100" s="8">
+      <c r="Q100" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R100" s="8">
         <v>44663</v>
       </c>
-      <c r="R100" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B101&amp;"_"&amp;C101&amp;"_"&amp;E101</f>
         <v>OFAV_SP_2AZ7</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -4640,13 +6058,13 @@
         <v>12.5</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K101" s="8">
         <v>44622</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M101" s="1">
         <v>4</v>
@@ -4660,16 +6078,19 @@
       <c r="P101" s="1">
         <v>3</v>
       </c>
-      <c r="Q101" s="8">
+      <c r="Q101" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R101" s="8">
         <v>44663</v>
       </c>
-      <c r="R101" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B102&amp;"_"&amp;C102&amp;"_"&amp;E102</f>
         <v>OFAV_SP_2DW40</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -4687,7 +6108,9 @@
       <c r="F102" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G102" s="6"/>
+      <c r="G102" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H102" s="6" t="s">
         <v>36</v>
       </c>
@@ -4721,10 +6144,16 @@
       <c r="R102" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T102" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B103&amp;"_"&amp;C103&amp;"_"&amp;E103</f>
         <v>OFAV_SP_2DW44</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -4742,7 +6171,9 @@
       <c r="F103" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H103" s="6" t="s">
         <v>36</v>
       </c>
@@ -4776,10 +6207,16 @@
       <c r="R103" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S103" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T103" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B104&amp;"_"&amp;C104&amp;"_"&amp;E104</f>
         <v>OFAV_SP_2EV10</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -4797,7 +6234,9 @@
       <c r="F104" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G104" s="6"/>
+      <c r="G104" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H104" s="6" t="s">
         <v>36</v>
       </c>
@@ -4831,10 +6270,16 @@
       <c r="R104" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T104" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B105&amp;"_"&amp;C105&amp;"_"&amp;E105</f>
         <v>OFAV_SP_2EV3</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -4852,7 +6297,9 @@
       <c r="F105" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G105" s="6"/>
+      <c r="G105" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H105" s="6" t="s">
         <v>36</v>
       </c>
@@ -4886,10 +6333,16 @@
       <c r="R105" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S105" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T105" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B106&amp;"_"&amp;C106&amp;"_"&amp;E106</f>
         <v>OFAV_SP_2EV30</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -4907,7 +6360,9 @@
       <c r="F106" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G106" s="6"/>
+      <c r="G106" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H106" s="6" t="s">
         <v>36</v>
       </c>
@@ -4941,10 +6396,16 @@
       <c r="R106" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T106" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B107&amp;"_"&amp;C107&amp;"_"&amp;E107</f>
         <v>OFAV_SP_2EV34</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -4962,7 +6423,9 @@
       <c r="F107" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G107" s="6"/>
+      <c r="G107" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H107" s="6" t="s">
         <v>36</v>
       </c>
@@ -4996,10 +6459,16 @@
       <c r="R107" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S107" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T107" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B108&amp;"_"&amp;C108&amp;"_"&amp;E108</f>
         <v>OFAV_SP_2EV36</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -5017,7 +6486,9 @@
       <c r="F108" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G108" s="6"/>
+      <c r="G108" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H108" s="6" t="s">
         <v>36</v>
       </c>
@@ -5051,10 +6522,16 @@
       <c r="R108" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T108" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B109&amp;"_"&amp;C109&amp;"_"&amp;E109</f>
         <v>OFAV_SP_2EV44</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -5072,7 +6549,9 @@
       <c r="F109" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G109" s="6"/>
+      <c r="G109" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H109" s="6" t="s">
         <v>36</v>
       </c>
@@ -5106,10 +6585,16 @@
       <c r="R109" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S109" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T109" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B110&amp;"_"&amp;C110&amp;"_"&amp;E110</f>
         <v>OFAV_SP_2EV6</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -5127,7 +6612,9 @@
       <c r="F110" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G110" s="6"/>
+      <c r="G110" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H110" s="6" t="s">
         <v>36</v>
       </c>
@@ -5161,10 +6648,16 @@
       <c r="R110" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T110" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B111&amp;"_"&amp;C111&amp;"_"&amp;E111</f>
         <v>OFAV_SP_2GT7</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -5182,7 +6675,9 @@
       <c r="F111" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G111" s="6"/>
+      <c r="G111" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H111" s="6" t="s">
         <v>36</v>
       </c>
@@ -5216,10 +6711,16 @@
       <c r="R111" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S111" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T111" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B112&amp;"_"&amp;C112&amp;"_"&amp;E112</f>
         <v>OFAV_SP_2JQ31</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -5245,13 +6746,13 @@
         <v>32.5</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K112" s="8">
         <v>44616</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M112" s="1">
         <v>4</v>
@@ -5265,16 +6766,19 @@
       <c r="P112" s="1">
         <v>3</v>
       </c>
-      <c r="Q112" s="8">
+      <c r="Q112" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R112" s="8">
         <v>44663</v>
       </c>
-      <c r="R112" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S112" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B113&amp;"_"&amp;C113&amp;"_"&amp;E113</f>
         <v>OFAV_SP_2JQ31</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -5300,13 +6804,13 @@
         <v>7</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K113" s="8">
         <v>44615</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M113" s="1">
         <v>4</v>
@@ -5320,16 +6824,19 @@
       <c r="P113" s="1">
         <v>3</v>
       </c>
-      <c r="Q113" s="8">
+      <c r="Q113" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R113" s="8">
         <v>44663</v>
       </c>
-      <c r="R113" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S113" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B114&amp;"_"&amp;C114&amp;"_"&amp;E114</f>
         <v>OFAV_SP_2JQ31</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -5355,13 +6862,13 @@
         <v>22</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K114" s="8">
         <v>44622</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M114" s="1">
         <v>4</v>
@@ -5375,16 +6882,19 @@
       <c r="P114" s="1">
         <v>3</v>
       </c>
-      <c r="Q114" s="8">
+      <c r="Q114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R114" s="8">
         <v>44663</v>
       </c>
-      <c r="R114" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S114" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B115&amp;"_"&amp;C115&amp;"_"&amp;E115</f>
         <v>OFAV_SP_2JQ6</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -5402,7 +6912,9 @@
       <c r="F115" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G115" s="6"/>
+      <c r="G115" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H115" s="6" t="s">
         <v>36</v>
       </c>
@@ -5436,10 +6948,16 @@
       <c r="R115" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S115" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T115" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B116&amp;"_"&amp;C116&amp;"_"&amp;E116</f>
         <v>OFAV_SP_2JQ8</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -5465,13 +6983,13 @@
         <v>18</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K116" s="8">
         <v>44622</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M116" s="1">
         <v>4</v>
@@ -5485,16 +7003,19 @@
       <c r="P116" s="1">
         <v>3</v>
       </c>
-      <c r="Q116" s="8">
+      <c r="Q116" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R116" s="8">
         <v>44663</v>
       </c>
-      <c r="R116" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S116" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B117&amp;"_"&amp;C117&amp;"_"&amp;E117</f>
         <v>OFAV_SP_3AZ4</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -5512,7 +7033,9 @@
       <c r="F117" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G117" s="6"/>
+      <c r="G117" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H117" s="6" t="s">
         <v>36</v>
       </c>
@@ -5546,10 +7069,16 @@
       <c r="R117" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S117" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T117" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
-        <f t="shared" ref="A118" si="2">B118&amp;"_"&amp;C118&amp;"_"&amp;E118</f>
+        <f>B118&amp;"_"&amp;C118&amp;"_"&amp;E118</f>
         <v>OFAV_SP_3EV30</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -5565,48 +7094,49 @@
         <v>67</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>152</v>
+        <v>42</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="H118" s="8">
+        <v>44587</v>
+      </c>
+      <c r="I118" s="1">
+        <v>12</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K118" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="K118" s="8">
+        <v>44587</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q118" s="8">
+        <v>155</v>
+      </c>
+      <c r="M118" s="1">
+        <v>4</v>
+      </c>
+      <c r="N118" s="1">
+        <v>1</v>
+      </c>
+      <c r="O118" s="1">
+        <v>2</v>
+      </c>
+      <c r="P118" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R118" s="8">
         <v>44663</v>
       </c>
-      <c r="R118" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S118" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
-        <f t="shared" ref="A119" si="3">B119&amp;"_"&amp;C119&amp;"_"&amp;E119</f>
+        <f>B119&amp;"_"&amp;C119&amp;"_"&amp;E119</f>
         <v>OFAV_SP_3EV30</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -5622,46 +7152,49 @@
         <v>67</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="8">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="I119" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K119" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="K119" s="8">
+        <v>44622</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q119" s="8">
+        <v>148</v>
+      </c>
+      <c r="M119" s="1">
+        <v>4</v>
+      </c>
+      <c r="N119" s="1">
+        <v>1</v>
+      </c>
+      <c r="O119" s="1">
+        <v>2</v>
+      </c>
+      <c r="P119" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R119" s="8">
         <v>44663</v>
       </c>
-      <c r="R119" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S119" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B120&amp;"_"&amp;C120&amp;"_"&amp;E120</f>
         <v>OFAV_SP_3EV30</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -5677,46 +7210,49 @@
         <v>67</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="8">
-        <v>44587</v>
+        <v>44624</v>
       </c>
       <c r="I120" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K120" s="8">
-        <v>44587</v>
+        <v>44624</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M120" s="1">
-        <v>4</v>
-      </c>
-      <c r="N120" s="1">
-        <v>1</v>
-      </c>
-      <c r="O120" s="1">
-        <v>2</v>
-      </c>
-      <c r="P120" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q120" s="8">
+        <v>148</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R120" s="8">
         <v>44663</v>
       </c>
-      <c r="R120" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S120" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B121&amp;"_"&amp;C121&amp;"_"&amp;E121</f>
         <v>OFAV_SP_3EV30</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -5732,46 +7268,48 @@
         <v>67</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G121" s="6"/>
-      <c r="H121" s="8">
-        <v>44622</v>
-      </c>
-      <c r="I121" s="1">
-        <v>27</v>
+        <v>132</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K121" s="8">
-        <v>44622</v>
+        <v>150</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M121" s="1">
-        <v>4</v>
-      </c>
-      <c r="N121" s="1">
-        <v>1</v>
-      </c>
-      <c r="O121" s="1">
-        <v>2</v>
-      </c>
-      <c r="P121" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q121" s="8">
+        <v>150</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R121" s="8">
         <v>44663</v>
       </c>
-      <c r="R121" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S121" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B122&amp;"_"&amp;C122&amp;"_"&amp;E122</f>
         <v>OFAV_SP_3EV31</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -5784,10 +7322,10 @@
         <v>24</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="6" t="s">
@@ -5823,10 +7361,13 @@
       <c r="R122" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S122" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B123&amp;"_"&amp;C123&amp;"_"&amp;E123</f>
         <v>OFAV_SP_3JQ1</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -5852,13 +7393,13 @@
         <v>10</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K123" s="8">
         <v>44588</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M123" s="1">
         <v>4</v>
@@ -5872,16 +7413,19 @@
       <c r="P123" s="1">
         <v>3</v>
       </c>
-      <c r="Q123" s="8">
+      <c r="Q123" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R123" s="8">
         <v>44663</v>
       </c>
-      <c r="R123" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S123" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B124&amp;"_"&amp;C124&amp;"_"&amp;E124</f>
         <v>OFAV_SP_3JQ1</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -5907,13 +7451,13 @@
         <v>36</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K124" s="8">
         <v>44622</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M124" s="1">
         <v>4</v>
@@ -5927,16 +7471,19 @@
       <c r="P124" s="1">
         <v>3</v>
       </c>
-      <c r="Q124" s="8">
+      <c r="Q124" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R124" s="8">
         <v>44663</v>
       </c>
-      <c r="R124" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S124" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B125&amp;"_"&amp;C125&amp;"_"&amp;E125</f>
         <v>OFAV_SP_3JQ1</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -5962,13 +7509,13 @@
         <v>11.5</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K125" s="8">
         <v>44624</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M125" s="1">
         <v>4</v>
@@ -5982,16 +7529,19 @@
       <c r="P125" s="1">
         <v>3</v>
       </c>
-      <c r="Q125" s="8">
+      <c r="Q125" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R125" s="8">
         <v>44663</v>
       </c>
-      <c r="R125" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S125" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B126&amp;"_"&amp;C126&amp;"_"&amp;E126</f>
         <v>OFAV_SP_3JQ1</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -6017,13 +7567,13 @@
         <v>20</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K126" s="8">
         <v>44624</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M126" s="1">
         <v>4</v>
@@ -6037,16 +7587,19 @@
       <c r="P126" s="1">
         <v>3</v>
       </c>
-      <c r="Q126" s="8">
+      <c r="Q126" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R126" s="8">
         <v>44663</v>
       </c>
-      <c r="R126" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S126" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B127&amp;"_"&amp;C127&amp;"_"&amp;E127</f>
         <v>OFAV_SP_3JQ10</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -6072,13 +7625,13 @@
         <v>12</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K127" s="8">
         <v>44641</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M127" s="1">
         <v>4</v>
@@ -6092,16 +7645,19 @@
       <c r="P127" s="1">
         <v>3</v>
       </c>
-      <c r="Q127" s="8">
+      <c r="Q127" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R127" s="8">
         <v>44663</v>
       </c>
-      <c r="R127" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S127" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B128&amp;"_"&amp;C128&amp;"_"&amp;E128</f>
         <v>OFAV_SP_4DW11</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -6127,13 +7683,13 @@
         <v>10</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K128" s="8">
         <v>44588</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M128" s="1">
         <v>4</v>
@@ -6147,16 +7703,19 @@
       <c r="P128" s="1">
         <v>3</v>
       </c>
-      <c r="Q128" s="8">
+      <c r="Q128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R128" s="8">
         <v>44663</v>
       </c>
-      <c r="R128" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S128" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B129&amp;"_"&amp;C129&amp;"_"&amp;E129</f>
         <v>OFAV_SP_4DW14</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -6174,7 +7733,9 @@
       <c r="F129" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G129" s="6"/>
+      <c r="G129" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H129" s="6" t="s">
         <v>36</v>
       </c>
@@ -6208,10 +7769,16 @@
       <c r="R129" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T129" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B130&amp;"_"&amp;C130&amp;"_"&amp;E130</f>
         <v>OFAV_SP_4EV1</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -6229,7 +7796,9 @@
       <c r="F130" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H130" s="6" t="s">
         <v>36</v>
       </c>
@@ -6263,10 +7832,16 @@
       <c r="R130" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S130" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T130" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>B131&amp;"_"&amp;C131&amp;"_"&amp;E131</f>
         <v>OFAV_SP_4EV14</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -6284,7 +7859,9 @@
       <c r="F131" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G131" s="6"/>
+      <c r="G131" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H131" s="6" t="s">
         <v>36</v>
       </c>
@@ -6318,10 +7895,16 @@
       <c r="R131" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T131" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="str">
-        <f t="shared" ref="A132:A195" si="4">B132&amp;"_"&amp;C132&amp;"_"&amp;E132</f>
+        <f>B132&amp;"_"&amp;C132&amp;"_"&amp;E132</f>
         <v>OFAV_SP_4EV15</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -6347,19 +7930,19 @@
         <v>28</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K132" s="8">
         <v>44610</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M132" s="1">
         <v>4</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O132" s="1">
         <v>2</v>
@@ -6367,16 +7950,19 @@
       <c r="P132" s="1">
         <v>3</v>
       </c>
-      <c r="Q132" s="8">
+      <c r="Q132" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R132" s="8">
         <v>44663</v>
       </c>
-      <c r="R132" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S132" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B133&amp;"_"&amp;C133&amp;"_"&amp;E133</f>
         <v>OFAV_SP_4JQ12</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -6394,7 +7980,9 @@
       <c r="F133" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G133" s="6"/>
+      <c r="G133" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H133" s="6" t="s">
         <v>36</v>
       </c>
@@ -6428,10 +8016,16 @@
       <c r="R133" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T133" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B134&amp;"_"&amp;C134&amp;"_"&amp;E134</f>
         <v>OFAV_SP_6JQ16</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -6457,13 +8051,13 @@
         <v>22.5</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K134" s="8">
         <v>44610</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M134" s="1">
         <v>4</v>
@@ -6477,16 +8071,19 @@
       <c r="P134" s="1">
         <v>3</v>
       </c>
-      <c r="Q134" s="8">
+      <c r="Q134" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R134" s="8">
         <v>44663</v>
       </c>
-      <c r="R134" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S134" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B135&amp;"_"&amp;C135&amp;"_"&amp;E135</f>
         <v>OFAV_SP_8EV24</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -6512,13 +8109,13 @@
         <v>7</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K135" s="8">
         <v>44615</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M135" s="1">
         <v>4</v>
@@ -6532,16 +8129,19 @@
       <c r="P135" s="1">
         <v>3</v>
       </c>
-      <c r="Q135" s="8">
+      <c r="Q135" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R135" s="8">
         <v>44663</v>
       </c>
-      <c r="R135" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S135" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B136&amp;"_"&amp;C136&amp;"_"&amp;E136</f>
         <v>OFAV_SP_9AZ10</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -6559,7 +8159,9 @@
       <c r="F136" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G136" s="6"/>
+      <c r="G136" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H136" s="6" t="s">
         <v>36</v>
       </c>
@@ -6593,10 +8195,16 @@
       <c r="R136" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T136" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B137&amp;"_"&amp;C137&amp;"_"&amp;E137</f>
         <v>OFAV_SP_9AZ7</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -6614,7 +8222,9 @@
       <c r="F137" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G137" s="6"/>
+      <c r="G137" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H137" s="6" t="s">
         <v>36</v>
       </c>
@@ -6648,10 +8258,16 @@
       <c r="R137" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S137" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T137" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B138&amp;"_"&amp;C138&amp;"_"&amp;E138</f>
         <v>OFAV_SP_9AZ81</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -6669,7 +8285,9 @@
       <c r="F138" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G138" s="6"/>
+      <c r="G138" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H138" s="6" t="s">
         <v>36</v>
       </c>
@@ -6703,10 +8321,16 @@
       <c r="R138" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T138" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B139&amp;"_"&amp;C139&amp;"_"&amp;E139</f>
         <v>OFAV_SP_9DW32</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -6724,7 +8348,9 @@
       <c r="F139" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G139" s="6"/>
+      <c r="G139" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H139" s="6" t="s">
         <v>36</v>
       </c>
@@ -6758,10 +8384,16 @@
       <c r="R139" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S139" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T139" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B140&amp;"_"&amp;C140&amp;"_"&amp;E140</f>
         <v>OFAV_SP_9DW37</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -6779,7 +8411,9 @@
       <c r="F140" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G140" s="6"/>
+      <c r="G140" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H140" s="6" t="s">
         <v>36</v>
       </c>
@@ -6813,10 +8447,16 @@
       <c r="R140" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T140" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B141&amp;"_"&amp;C141&amp;"_"&amp;E141</f>
         <v>OFAV_SP_9EV2</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -6842,13 +8482,13 @@
         <v>12.5</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K141" s="8">
         <v>44624</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M141" s="1">
         <v>4</v>
@@ -6862,16 +8502,19 @@
       <c r="P141" s="1">
         <v>3</v>
       </c>
-      <c r="Q141" s="8">
+      <c r="Q141" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R141" s="8">
         <v>44663</v>
       </c>
-      <c r="R141" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S141" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B142&amp;"_"&amp;C142&amp;"_"&amp;E142</f>
         <v>OFAV_SP_9EV41</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -6889,7 +8532,9 @@
       <c r="F142" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G142" s="6"/>
+      <c r="G142" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H142" s="6" t="s">
         <v>36</v>
       </c>
@@ -6923,10 +8568,16 @@
       <c r="R142" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T142" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B143&amp;"_"&amp;C143&amp;"_"&amp;E143</f>
         <v>OFAV_SP_9JQ5</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -6944,7 +8595,9 @@
       <c r="F143" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G143" s="6"/>
+      <c r="G143" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H143" s="6" t="s">
         <v>36</v>
       </c>
@@ -6978,10 +8631,16 @@
       <c r="R143" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S143" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T143" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B144&amp;"_"&amp;C144&amp;"_"&amp;E144</f>
         <v>OFAV_SP_DEV35</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -7007,13 +8666,13 @@
         <v>7</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K144" s="8">
         <v>44615</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M144" s="1">
         <v>4</v>
@@ -7027,16 +8686,19 @@
       <c r="P144" s="1">
         <v>3</v>
       </c>
-      <c r="Q144" s="8">
+      <c r="Q144" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R144" s="8">
         <v>44663</v>
       </c>
-      <c r="R144" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S144" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B145&amp;"_"&amp;C145&amp;"_"&amp;E145</f>
         <v>OFAV_SP_EV</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -7062,13 +8724,13 @@
         <v>158</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K145" s="8">
         <v>44622</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M145" s="1">
         <v>4</v>
@@ -7082,16 +8744,19 @@
       <c r="P145" s="1">
         <v>3</v>
       </c>
-      <c r="Q145" s="8">
+      <c r="Q145" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R145" s="8">
         <v>44663</v>
       </c>
-      <c r="R145" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S145" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B146&amp;"_"&amp;C146&amp;"_"&amp;E146</f>
         <v>OFAV_SP_JQ1</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -7109,7 +8774,9 @@
       <c r="F146" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G146" s="6"/>
+      <c r="G146" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H146" s="6" t="s">
         <v>36</v>
       </c>
@@ -7143,10 +8810,16 @@
       <c r="R146" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S146" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T146" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B147&amp;"_"&amp;C147&amp;"_"&amp;E147</f>
         <v>OFAV_SS_0AZ4</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -7166,9 +8839,9 @@
       </c>
       <c r="G147" s="6"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B148&amp;"_"&amp;C148&amp;"_"&amp;E148</f>
         <v>OFAV_SS_0DW46</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -7188,9 +8861,9 @@
       </c>
       <c r="G148" s="6"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B149&amp;"_"&amp;C149&amp;"_"&amp;E149</f>
         <v>OFAV_SS_0EV1</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -7208,11 +8881,52 @@
       <c r="F149" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G149" s="6"/>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S149" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T149" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B150&amp;"_"&amp;C150&amp;"_"&amp;E150</f>
         <v>OFAV_SS_0EV3</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -7232,9 +8946,9 @@
       </c>
       <c r="G150" s="6"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B151&amp;"_"&amp;C151&amp;"_"&amp;E151</f>
         <v>OFAV_SS_1AZ5</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -7254,9 +8968,9 @@
       </c>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B152&amp;"_"&amp;C152&amp;"_"&amp;E152</f>
         <v>OFAV_SS_2AZ2</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -7276,9 +8990,9 @@
       </c>
       <c r="G152" s="6"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B153&amp;"_"&amp;C153&amp;"_"&amp;E153</f>
         <v>OFAV_SS_2AZ21</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -7298,9 +9012,9 @@
       </c>
       <c r="G153" s="6"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B154&amp;"_"&amp;C154&amp;"_"&amp;E154</f>
         <v>OFAV_SS_2AZ3</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -7318,11 +9032,52 @@
       <c r="F154" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G154" s="6"/>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T154" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B155&amp;"_"&amp;C155&amp;"_"&amp;E155</f>
         <v>OFAV_SS_2AZ7</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -7342,9 +9097,9 @@
       </c>
       <c r="G155" s="6"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B156&amp;"_"&amp;C156&amp;"_"&amp;E156</f>
         <v>OFAV_SS_2DW40</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -7364,9 +9119,9 @@
       </c>
       <c r="G156" s="6"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B157&amp;"_"&amp;C157&amp;"_"&amp;E157</f>
         <v>OFAV_SS_2DW44</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -7386,9 +9141,9 @@
       </c>
       <c r="G157" s="6"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B158&amp;"_"&amp;C158&amp;"_"&amp;E158</f>
         <v>OFAV_SS_2EV10</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -7408,9 +9163,9 @@
       </c>
       <c r="G158" s="6"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B159&amp;"_"&amp;C159&amp;"_"&amp;E159</f>
         <v>OFAV_SS_2EV3</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -7430,9 +9185,9 @@
       </c>
       <c r="G159" s="6"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B160&amp;"_"&amp;C160&amp;"_"&amp;E160</f>
         <v>OFAV_SS_2EV30</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -7452,9 +9207,9 @@
       </c>
       <c r="G160" s="6"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B161&amp;"_"&amp;C161&amp;"_"&amp;E161</f>
         <v>OFAV_SS_2EV34</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -7474,9 +9229,9 @@
       </c>
       <c r="G161" s="6"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B162&amp;"_"&amp;C162&amp;"_"&amp;E162</f>
         <v>OFAV_SS_2EV36</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -7496,9 +9251,9 @@
       </c>
       <c r="G162" s="6"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B163&amp;"_"&amp;C163&amp;"_"&amp;E163</f>
         <v>OFAV_SS_2EV44</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -7518,9 +9273,9 @@
       </c>
       <c r="G163" s="6"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B164&amp;"_"&amp;C164&amp;"_"&amp;E164</f>
         <v>OFAV_SS_2EV6</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -7540,9 +9295,9 @@
       </c>
       <c r="G164" s="6"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B165&amp;"_"&amp;C165&amp;"_"&amp;E165</f>
         <v>OFAV_SS_2JQ31</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -7562,9 +9317,9 @@
       </c>
       <c r="G165" s="6"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B166&amp;"_"&amp;C166&amp;"_"&amp;E166</f>
         <v>OFAV_SS_2JQ6</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -7584,9 +9339,9 @@
       </c>
       <c r="G166" s="6"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B167&amp;"_"&amp;C167&amp;"_"&amp;E167</f>
         <v>OFAV_SS_2JQ8</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -7606,9 +9361,9 @@
       </c>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B168&amp;"_"&amp;C168&amp;"_"&amp;E168</f>
         <v>OFAV_SS_3AZ4</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -7626,11 +9381,52 @@
       <c r="F168" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G168" s="6"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T168" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B169&amp;"_"&amp;C169&amp;"_"&amp;E169</f>
         <v>OFAV_SS_3EV30</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -7650,9 +9446,9 @@
       </c>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B170&amp;"_"&amp;C170&amp;"_"&amp;E170</f>
         <v>OFAV_SS_3JQ1</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -7672,9 +9468,9 @@
       </c>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B171&amp;"_"&amp;C171&amp;"_"&amp;E171</f>
         <v>OFAV_SS_4DW11</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -7694,9 +9490,9 @@
       </c>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B172&amp;"_"&amp;C172&amp;"_"&amp;E172</f>
         <v>OFAV_SS_4DW14</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -7716,9 +9512,9 @@
       </c>
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B173&amp;"_"&amp;C173&amp;"_"&amp;E173</f>
         <v>OFAV_SS_4EV14</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -7738,9 +9534,9 @@
       </c>
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B174&amp;"_"&amp;C174&amp;"_"&amp;E174</f>
         <v>OFAV_SS_4EV15</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -7760,9 +9556,9 @@
       </c>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B175&amp;"_"&amp;C175&amp;"_"&amp;E175</f>
         <v>OFAV_SS_4JQ12</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -7782,9 +9578,9 @@
       </c>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B176&amp;"_"&amp;C176&amp;"_"&amp;E176</f>
         <v>OFAV_SS_6JQ16</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -7804,9 +9600,9 @@
       </c>
       <c r="G176" s="6"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B177&amp;"_"&amp;C177&amp;"_"&amp;E177</f>
         <v>OFAV_SS_8EV24</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -7826,9 +9622,9 @@
       </c>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B178&amp;"_"&amp;C178&amp;"_"&amp;E178</f>
         <v>OFAV_SS_9AZ10</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -7848,9 +9644,9 @@
       </c>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B179&amp;"_"&amp;C179&amp;"_"&amp;E179</f>
         <v>OFAV_SS_9AZ7</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -7870,9 +9666,9 @@
       </c>
       <c r="G179" s="6"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B180&amp;"_"&amp;C180&amp;"_"&amp;E180</f>
         <v>OFAV_SS_9AZ81</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -7892,9 +9688,9 @@
       </c>
       <c r="G180" s="6"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B181&amp;"_"&amp;C181&amp;"_"&amp;E181</f>
         <v>OFAV_SS_9DW32</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -7912,11 +9708,52 @@
       <c r="F181" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G181" s="6"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T181" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B182&amp;"_"&amp;C182&amp;"_"&amp;E182</f>
         <v>OFAV_SS_9DW37</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -7936,9 +9773,9 @@
       </c>
       <c r="G182" s="6"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B183&amp;"_"&amp;C183&amp;"_"&amp;E183</f>
         <v>OFAV_SS_9EV2</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -7958,9 +9795,9 @@
       </c>
       <c r="G183" s="6"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B184&amp;"_"&amp;C184&amp;"_"&amp;E184</f>
         <v>OFAV_SS_9EV41</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -7980,9 +9817,9 @@
       </c>
       <c r="G184" s="6"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B185&amp;"_"&amp;C185&amp;"_"&amp;E185</f>
         <v>OFAV_SS_9JQ5</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -8002,9 +9839,9 @@
       </c>
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B186&amp;"_"&amp;C186&amp;"_"&amp;E186</f>
         <v>OFAV_SS_JQ1</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -8022,11 +9859,52 @@
       <c r="F186" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G186" s="6"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T186" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B187&amp;"_"&amp;C187&amp;"_"&amp;E187</f>
         <v>OFRA_PP_0CX4</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -8046,9 +9924,9 @@
       </c>
       <c r="G187" s="6"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B188&amp;"_"&amp;C188&amp;"_"&amp;E188</f>
         <v>OFRA_PP_0CX5</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -8068,9 +9946,9 @@
       </c>
       <c r="G188" s="6"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B189&amp;"_"&amp;C189&amp;"_"&amp;E189</f>
         <v>OFRA_PP_0GT1</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -8090,9 +9968,9 @@
       </c>
       <c r="G189" s="6"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B190&amp;"_"&amp;C190&amp;"_"&amp;E190</f>
         <v>OFRA_PP_0GT3</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -8110,11 +9988,52 @@
       <c r="F190" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G190" s="6"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T190" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B191&amp;"_"&amp;C191&amp;"_"&amp;E191</f>
         <v>OFRA_PP_0GT5</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -8134,9 +10053,9 @@
       </c>
       <c r="G191" s="6"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B192&amp;"_"&amp;C192&amp;"_"&amp;E192</f>
         <v>OFRA_PP_1GT36</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -8154,11 +10073,52 @@
       <c r="F192" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G192" s="6"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T192" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B193&amp;"_"&amp;C193&amp;"_"&amp;E193</f>
         <v>OFRA_PP_1GT37</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -8178,9 +10138,9 @@
       </c>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B194&amp;"_"&amp;C194&amp;"_"&amp;E194</f>
         <v>OFRA_PP_1GT37</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -8200,9 +10160,9 @@
       </c>
       <c r="G194" s="6"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>B195&amp;"_"&amp;C195&amp;"_"&amp;E195</f>
         <v>OFRA_PP_1GT42</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -8222,9 +10182,9 @@
       </c>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="str">
-        <f t="shared" ref="A196:A259" si="5">B196&amp;"_"&amp;C196&amp;"_"&amp;E196</f>
+        <f>B196&amp;"_"&amp;C196&amp;"_"&amp;E196</f>
         <v>OFRA_PP_1GT42</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -8244,9 +10204,9 @@
       </c>
       <c r="G196" s="6"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B197&amp;"_"&amp;C197&amp;"_"&amp;E197</f>
         <v>OFRA_PP_1GT43</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -8264,11 +10224,52 @@
       <c r="F197" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G197" s="6"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T197" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B198&amp;"_"&amp;C198&amp;"_"&amp;E198</f>
         <v>OFRA_PP_2CX10</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -8286,11 +10287,52 @@
       <c r="F198" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G198" s="6"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T198" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B199&amp;"_"&amp;C199&amp;"_"&amp;E199</f>
         <v>OFRA_PP_2CX11</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -8308,11 +10350,52 @@
       <c r="F199" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G199" s="6"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T199" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B200&amp;"_"&amp;C200&amp;"_"&amp;E200</f>
         <v>OFRA_PP_2CX12</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -8332,9 +10415,9 @@
       </c>
       <c r="G200" s="6"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B201&amp;"_"&amp;C201&amp;"_"&amp;E201</f>
         <v>OFRA_PP_2CX12</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -8354,9 +10437,9 @@
       </c>
       <c r="G201" s="6"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B202&amp;"_"&amp;C202&amp;"_"&amp;E202</f>
         <v>OFRA_PP_2CX13</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -8374,11 +10457,52 @@
       <c r="F202" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G202" s="6"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T202" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B203&amp;"_"&amp;C203&amp;"_"&amp;E203</f>
         <v>OFRA_PP_2CX8</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -8396,11 +10520,52 @@
       <c r="F203" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G203" s="6"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T203" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B204&amp;"_"&amp;C204&amp;"_"&amp;E204</f>
         <v>OFRA_PP_2GT10</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -8420,9 +10585,9 @@
       </c>
       <c r="G204" s="6"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B205&amp;"_"&amp;C205&amp;"_"&amp;E205</f>
         <v>OFRA_PP_2GT3</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -8442,9 +10607,9 @@
       </c>
       <c r="G205" s="6"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B206&amp;"_"&amp;C206&amp;"_"&amp;E206</f>
         <v>OFRA_PP_2GT3</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -8464,9 +10629,9 @@
       </c>
       <c r="G206" s="6"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B207&amp;"_"&amp;C207&amp;"_"&amp;E207</f>
         <v>OFRA_PP_2GT31</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -8484,11 +10649,52 @@
       <c r="F207" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G207" s="6"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S207" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T207" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B208&amp;"_"&amp;C208&amp;"_"&amp;E208</f>
         <v>OFRA_PP_2GT38</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -8508,9 +10714,9 @@
       </c>
       <c r="G208" s="6"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B209&amp;"_"&amp;C209&amp;"_"&amp;E209</f>
         <v>OFRA_PP_2GT41</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -8530,9 +10736,9 @@
       </c>
       <c r="G209" s="6"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B210&amp;"_"&amp;C210&amp;"_"&amp;E210</f>
         <v>OFRA_PP_2GT41</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -8552,9 +10758,9 @@
       </c>
       <c r="G210" s="6"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B211&amp;"_"&amp;C211&amp;"_"&amp;E211</f>
         <v>OFRA_PP_2GT7</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -8574,9 +10780,9 @@
       </c>
       <c r="G211" s="6"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B212&amp;"_"&amp;C212&amp;"_"&amp;E212</f>
         <v>OFRA_PP_2GT7</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -8596,9 +10802,9 @@
       </c>
       <c r="G212" s="6"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B213&amp;"_"&amp;C213&amp;"_"&amp;E213</f>
         <v>OFRA_PP_2HS11</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -8618,9 +10824,9 @@
       </c>
       <c r="G213" s="6"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B214&amp;"_"&amp;C214&amp;"_"&amp;E214</f>
         <v>OFRA_PP_2HS17</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -8640,9 +10846,9 @@
       </c>
       <c r="G214" s="6"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B215&amp;"_"&amp;C215&amp;"_"&amp;E215</f>
         <v>OFRA_PP_2HS17</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -8662,9 +10868,9 @@
       </c>
       <c r="G215" s="6"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B216&amp;"_"&amp;C216&amp;"_"&amp;E216</f>
         <v>OFRA_PP_2HS27</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -8684,9 +10890,9 @@
       </c>
       <c r="G216" s="6"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B217&amp;"_"&amp;C217&amp;"_"&amp;E217</f>
         <v>OFRA_PP_2HS9</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -8706,9 +10912,9 @@
       </c>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B218&amp;"_"&amp;C218&amp;"_"&amp;E218</f>
         <v>OFRA_PP_2HS9</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -8728,9 +10934,9 @@
       </c>
       <c r="G218" s="6"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B219&amp;"_"&amp;C219&amp;"_"&amp;E219</f>
         <v>OFRA_PP_4CX12</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -8750,9 +10956,9 @@
       </c>
       <c r="G219" s="6"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B220&amp;"_"&amp;C220&amp;"_"&amp;E220</f>
         <v>OFRA_PP_4HS13</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -8770,11 +10976,52 @@
       <c r="F220" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G220" s="6"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T220" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B221&amp;"_"&amp;C221&amp;"_"&amp;E221</f>
         <v>OFRA_PP_4HS15</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -8794,9 +11041,9 @@
       </c>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B222&amp;"_"&amp;C222&amp;"_"&amp;E222</f>
         <v>OFRA_PP_6CX18</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -8814,11 +11061,52 @@
       <c r="F222" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G222" s="6"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S222" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T222" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B223&amp;"_"&amp;C223&amp;"_"&amp;E223</f>
         <v>OFRA_PP_6EV18</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -8838,9 +11126,9 @@
       </c>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B224&amp;"_"&amp;C224&amp;"_"&amp;E224</f>
         <v>OFRA_PP_6GT17</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -8860,9 +11148,9 @@
       </c>
       <c r="G224" s="6"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B225&amp;"_"&amp;C225&amp;"_"&amp;E225</f>
         <v>OFRA_PP_8CX24</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -8882,9 +11170,9 @@
       </c>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B226&amp;"_"&amp;C226&amp;"_"&amp;E226</f>
         <v>OFRA_PP_8HS21</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -8904,9 +11192,9 @@
       </c>
       <c r="G226" s="6"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B227&amp;"_"&amp;C227&amp;"_"&amp;E227</f>
         <v>OFRA_PP_8HS23</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -8926,9 +11214,9 @@
       </c>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B228&amp;"_"&amp;C228&amp;"_"&amp;E228</f>
         <v>OFRA_PP_8HS24</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -8948,9 +11236,9 @@
       </c>
       <c r="G228" s="6"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B229&amp;"_"&amp;C229&amp;"_"&amp;E229</f>
         <v>OFRA_PP_9CX5</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -8970,9 +11258,9 @@
       </c>
       <c r="G229" s="6"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B230&amp;"_"&amp;C230&amp;"_"&amp;E230</f>
         <v>OFRA_PP_9CX5</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -8992,9 +11280,9 @@
       </c>
       <c r="G230" s="6"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B231&amp;"_"&amp;C231&amp;"_"&amp;E231</f>
         <v>OFRA_PP_9CX6</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -9012,11 +11300,52 @@
       <c r="F231" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G231" s="6"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S231" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T231" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B232&amp;"_"&amp;C232&amp;"_"&amp;E232</f>
         <v>OFRA_PP_9GT30</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -9036,9 +11365,9 @@
       </c>
       <c r="G232" s="6"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B233&amp;"_"&amp;C233&amp;"_"&amp;E233</f>
         <v>OFRA_PP_9GT30</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -9058,9 +11387,9 @@
       </c>
       <c r="G233" s="6"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B234&amp;"_"&amp;C234&amp;"_"&amp;E234</f>
         <v>OFRA_PP_9GT47</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -9078,11 +11407,52 @@
       <c r="F234" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G234" s="6"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S234" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T234" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B235&amp;"_"&amp;C235&amp;"_"&amp;E235</f>
         <v>OFRA_PS_0CX4</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -9102,9 +11472,9 @@
       </c>
       <c r="G235" s="6"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B236&amp;"_"&amp;C236&amp;"_"&amp;E236</f>
         <v>OFRA_PS_0CX5</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -9124,9 +11494,9 @@
       </c>
       <c r="G236" s="6"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B237&amp;"_"&amp;C237&amp;"_"&amp;E237</f>
         <v>OFRA_PS_0GT1</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -9146,9 +11516,9 @@
       </c>
       <c r="G237" s="6"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B238&amp;"_"&amp;C238&amp;"_"&amp;E238</f>
         <v>OFRA_PS_0GT3</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -9168,9 +11538,9 @@
       </c>
       <c r="G238" s="6"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B239&amp;"_"&amp;C239&amp;"_"&amp;E239</f>
         <v>OFRA_PS_0GT5</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -9190,9 +11560,9 @@
       </c>
       <c r="G239" s="6"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B240&amp;"_"&amp;C240&amp;"_"&amp;E240</f>
         <v>OFRA_PS_0GT5</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -9212,9 +11582,9 @@
       </c>
       <c r="G240" s="6"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B241&amp;"_"&amp;C241&amp;"_"&amp;E241</f>
         <v>OFRA_PS_1GT36</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -9232,11 +11602,52 @@
       <c r="F241" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G241" s="6"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S241" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T241" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B242&amp;"_"&amp;C242&amp;"_"&amp;E242</f>
         <v>OFRA_PS_1GT37</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -9256,9 +11667,9 @@
       </c>
       <c r="G242" s="6"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B243&amp;"_"&amp;C243&amp;"_"&amp;E243</f>
         <v>OFRA_PS_1GT42</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -9278,9 +11689,9 @@
       </c>
       <c r="G243" s="6"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B244&amp;"_"&amp;C244&amp;"_"&amp;E244</f>
         <v>OFRA_PS_1GT43</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -9300,9 +11711,9 @@
       </c>
       <c r="G244" s="6"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B245&amp;"_"&amp;C245&amp;"_"&amp;E245</f>
         <v>OFRA_PS_2CX10</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -9322,9 +11733,9 @@
       </c>
       <c r="G245" s="6"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B246&amp;"_"&amp;C246&amp;"_"&amp;E246</f>
         <v>OFRA_PS_2CX11</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -9342,11 +11753,52 @@
       <c r="F246" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G246" s="6"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S246" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T246" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B247&amp;"_"&amp;C247&amp;"_"&amp;E247</f>
         <v>OFRA_PS_2CX12</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -9366,9 +11818,9 @@
       </c>
       <c r="G247" s="6"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B248&amp;"_"&amp;C248&amp;"_"&amp;E248</f>
         <v>OFRA_PS_2CX13</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -9388,9 +11840,9 @@
       </c>
       <c r="G248" s="6"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B249&amp;"_"&amp;C249&amp;"_"&amp;E249</f>
         <v>OFRA_PS_2CX8</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -9410,9 +11862,9 @@
       </c>
       <c r="G249" s="6"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B250&amp;"_"&amp;C250&amp;"_"&amp;E250</f>
         <v>OFRA_PS_2GT10</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -9432,9 +11884,9 @@
       </c>
       <c r="G250" s="6"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B251&amp;"_"&amp;C251&amp;"_"&amp;E251</f>
         <v>OFRA_PS_2GT3</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -9454,9 +11906,9 @@
       </c>
       <c r="G251" s="6"/>
     </row>
-    <row r="252" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B252&amp;"_"&amp;C252&amp;"_"&amp;E252</f>
         <v>OFRA_PS_2GT30</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -9476,9 +11928,9 @@
       </c>
       <c r="G252" s="9"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B253&amp;"_"&amp;C253&amp;"_"&amp;E253</f>
         <v>OFRA_PS_2GT31</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -9498,9 +11950,9 @@
       </c>
       <c r="G253" s="6"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B254&amp;"_"&amp;C254&amp;"_"&amp;E254</f>
         <v>OFRA_PS_2GT38</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -9518,11 +11970,52 @@
       <c r="F254" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G254" s="6"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S254" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T254" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B255&amp;"_"&amp;C255&amp;"_"&amp;E255</f>
         <v>OFRA_PS_2GT41</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -9542,9 +12035,9 @@
       </c>
       <c r="G255" s="6"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B256&amp;"_"&amp;C256&amp;"_"&amp;E256</f>
         <v>OFRA_PS_2GT7</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -9564,9 +12057,9 @@
       </c>
       <c r="G256" s="6"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B257&amp;"_"&amp;C257&amp;"_"&amp;E257</f>
         <v>OFRA_PS_2HS11</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -9586,9 +12079,9 @@
       </c>
       <c r="G257" s="6"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B258&amp;"_"&amp;C258&amp;"_"&amp;E258</f>
         <v>OFRA_PS_2HS17</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -9608,9 +12101,9 @@
       </c>
       <c r="G258" s="6"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>B259&amp;"_"&amp;C259&amp;"_"&amp;E259</f>
         <v>OFRA_PS_2HS27</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -9630,9 +12123,9 @@
       </c>
       <c r="G259" s="6"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="str">
-        <f t="shared" ref="A260:A323" si="6">B260&amp;"_"&amp;C260&amp;"_"&amp;E260</f>
+        <f>B260&amp;"_"&amp;C260&amp;"_"&amp;E260</f>
         <v>OFRA_PS_2HS9</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -9652,9 +12145,9 @@
       </c>
       <c r="G260" s="6"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B261&amp;"_"&amp;C261&amp;"_"&amp;E261</f>
         <v>OFRA_PS_4CX12</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -9674,9 +12167,9 @@
       </c>
       <c r="G261" s="6"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B262&amp;"_"&amp;C262&amp;"_"&amp;E262</f>
         <v>OFRA_PS_4HS13</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -9696,9 +12189,9 @@
       </c>
       <c r="G262" s="6"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B263&amp;"_"&amp;C263&amp;"_"&amp;E263</f>
         <v>OFRA_PS_4HS15</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -9718,9 +12211,9 @@
       </c>
       <c r="G263" s="6"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B264&amp;"_"&amp;C264&amp;"_"&amp;E264</f>
         <v>OFRA_PS_6CX18</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -9740,9 +12233,9 @@
       </c>
       <c r="G264" s="6"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B265&amp;"_"&amp;C265&amp;"_"&amp;E265</f>
         <v>OFRA_PS_6EV18</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -9762,9 +12255,9 @@
       </c>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B266&amp;"_"&amp;C266&amp;"_"&amp;E266</f>
         <v>OFRA_PS_6GT17</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -9784,9 +12277,9 @@
       </c>
       <c r="G266" s="6"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B267&amp;"_"&amp;C267&amp;"_"&amp;E267</f>
         <v>OFRA_PS_8CX24</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -9806,9 +12299,9 @@
       </c>
       <c r="G267" s="6"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B268&amp;"_"&amp;C268&amp;"_"&amp;E268</f>
         <v>OFRA_PS_8HS21</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -9826,11 +12319,52 @@
       <c r="F268" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G268" s="6"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T268" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B269&amp;"_"&amp;C269&amp;"_"&amp;E269</f>
         <v>OFRA_PS_8HS23</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -9850,9 +12384,9 @@
       </c>
       <c r="G269" s="6"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B270&amp;"_"&amp;C270&amp;"_"&amp;E270</f>
         <v>OFRA_PS_8HS24</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -9872,9 +12406,9 @@
       </c>
       <c r="G270" s="6"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B271&amp;"_"&amp;C271&amp;"_"&amp;E271</f>
         <v>OFRA_PS_9CX5</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -9894,9 +12428,9 @@
       </c>
       <c r="G271" s="6"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B272&amp;"_"&amp;C272&amp;"_"&amp;E272</f>
         <v>OFRA_PS_9CX6</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -9918,7 +12452,7 @@
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B273&amp;"_"&amp;C273&amp;"_"&amp;E273</f>
         <v>OFRA_PS_9GT30</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -9940,7 +12474,7 @@
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>B274&amp;"_"&amp;C274&amp;"_"&amp;E274</f>
         <v>OFRA_PS_9GT47</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -9962,137 +12496,137 @@
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="str">
-        <f t="shared" ref="A275:A280" si="7">B275&amp;"_"&amp;C275&amp;"_"&amp;E275</f>
-        <v>PRACTICE_55SS1T_</v>
+        <f>B275&amp;"_"&amp;C275&amp;"_"&amp;E275</f>
+        <v>PRACTICE_30OA1_</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H275" s="8">
-        <v>44510</v>
-      </c>
-      <c r="I275" s="1">
-        <v>13</v>
+        <v>44602</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K275" s="8">
-        <v>44586</v>
-      </c>
-      <c r="L275" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
+      </c>
+      <c r="M275" s="1">
+        <v>4</v>
+      </c>
+      <c r="N275" s="1">
+        <v>1</v>
+      </c>
+      <c r="O275" s="1">
+        <v>2</v>
+      </c>
+      <c r="P275" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PRACTICE_Green_Encrusting_Pavona_</v>
+        <f>B276&amp;"_"&amp;C276&amp;"_"&amp;E276</f>
+        <v>PRACTICE_55SS1T_</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H276" s="8">
+        <v>44510</v>
+      </c>
+      <c r="I276" s="1">
+        <v>13</v>
+      </c>
+      <c r="J276" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H276" s="8">
-        <v>44586</v>
-      </c>
-      <c r="I276" s="1">
-        <v>10</v>
-      </c>
-      <c r="J276" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="K276" s="8">
         <v>44586</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PRACTICE_Pagoda_Cup_</v>
+        <f>B277&amp;"_"&amp;C277&amp;"_"&amp;E277</f>
+        <v>PRACTICE_Branching_Pavona_</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H277" s="8">
+        <v>44601</v>
+      </c>
+      <c r="J277" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H277" s="8">
-        <v>44602</v>
-      </c>
-      <c r="I277" s="1">
-        <v>55</v>
-      </c>
-      <c r="J277" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PRACTICE_Branching_Pavona_</v>
+        <f>B278&amp;"_"&amp;C278&amp;"_"&amp;E278</f>
+        <v>PRACTICE_Green_Encrusting_Pavona_</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H278" s="8">
-        <v>44601</v>
+        <v>44586</v>
+      </c>
+      <c r="I278" s="1">
+        <v>10</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
+      </c>
+      <c r="K278" s="8">
+        <v>44586</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>PRACTICE_30OA1_</v>
+        <f>B279&amp;"_"&amp;C279&amp;"_"&amp;E279</f>
+        <v>PRACTICE_Pagoda_Cup_</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H279" s="8">
         <v>44602</v>
       </c>
+      <c r="I279" s="1">
+        <v>55</v>
+      </c>
       <c r="J279" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M279" s="1">
-        <v>4</v>
-      </c>
-      <c r="N279" s="1">
-        <v>1</v>
-      </c>
-      <c r="O279" s="1">
-        <v>2</v>
-      </c>
-      <c r="P279" s="1">
-        <v>3</v>
+        <v>155</v>
       </c>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>B280&amp;"_"&amp;C280&amp;"_"&amp;E280</f>
         <v>PRACTICE_Tangerine_Leoptoseris_</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H280" s="8">
         <v>44610</v>
@@ -10101,13 +12635,13 @@
         <v>22.5</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K280" s="8">
         <v>44610</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M280" s="1">
         <v>4</v>
@@ -10123,8 +12657,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S274">
-    <sortCondition ref="A5:A274"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T281">
+    <sortCondition ref="A1:A281"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10147,79 +12681,79 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Transplants_Raw_Master.xlsx
+++ b/Transplants_Raw_Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFC599-E294-9441-9F5E-7AD724CD5C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201C7A6A-CDD4-1E48-9FF8-846A992CA94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="24820" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="195">
   <si>
     <t>Species</t>
   </si>
@@ -606,12 +606,30 @@
   </si>
   <si>
     <t>Airbrush_volume</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Tl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 tubes! </t>
+  </si>
+  <si>
+    <t>4//22/22</t>
+  </si>
+  <si>
+    <t>TL/DM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -676,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -704,6 +722,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,9 +1045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED04EC-AF48-A04F-A9D1-211D7C4EE961}">
   <dimension ref="A1:T280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R147" sqref="R147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1137,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>B2&amp;"_"&amp;C2&amp;"_"&amp;E2</f>
+        <f t="shared" ref="A2:A65" si="0">B2&amp;"_"&amp;C2&amp;"_"&amp;E2</f>
         <v>OFAV_PP_0GT1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1135,7 +1159,7 @@
       <c r="H2" s="5">
         <v>44648</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="10">
         <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1172,7 +1196,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>B3&amp;"_"&amp;C3&amp;"_"&amp;E3</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_0HS3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1194,7 +1218,7 @@
       <c r="H3" s="5">
         <v>44643</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="10">
         <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1221,11 +1245,17 @@
       <c r="Q3" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="R3" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>B4&amp;"_"&amp;C4&amp;"_"&amp;E4</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_0HS4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1259,10 +1289,18 @@
       <c r="L4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="Q4" s="1" t="s">
         <v>187</v>
       </c>
@@ -1276,7 +1314,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>B5&amp;"_"&amp;C5&amp;"_"&amp;E5</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_2HS12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1310,10 +1348,18 @@
       <c r="L5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>187</v>
       </c>
@@ -1327,7 +1373,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>B6&amp;"_"&amp;C6&amp;"_"&amp;E6</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_2HS2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1349,7 +1395,7 @@
       <c r="H6" s="5">
         <v>44631</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="10">
         <v>10.199999999999999</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -1386,7 +1432,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>B7&amp;"_"&amp;C7&amp;"_"&amp;E7</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_2HS48</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1408,7 +1454,7 @@
       <c r="H7" s="5">
         <v>44643</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="10">
         <v>19.5</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -1445,7 +1491,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>B8&amp;"_"&amp;C8&amp;"_"&amp;E8</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_2HS6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1467,7 +1513,7 @@
       <c r="H8" s="5">
         <v>44624</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="10">
         <v>33</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -1504,7 +1550,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>B9&amp;"_"&amp;C9&amp;"_"&amp;E9</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_310</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1526,7 +1572,7 @@
       <c r="H9" s="5">
         <v>44631</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="10">
         <v>12.4</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -1563,7 +1609,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f>B10&amp;"_"&amp;C10&amp;"_"&amp;E10</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_313</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1585,7 +1631,7 @@
       <c r="H10" s="5">
         <v>44627</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="10">
         <v>19</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -1612,11 +1658,17 @@
       <c r="Q10" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="R10" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
-        <f>B11&amp;"_"&amp;C11&amp;"_"&amp;E11</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_352</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1638,7 +1690,7 @@
       <c r="H11" s="5">
         <v>44629</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="10">
         <v>16</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -1675,7 +1727,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
-        <f>B12&amp;"_"&amp;C12&amp;"_"&amp;E12</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_356</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1697,7 +1749,7 @@
       <c r="H12" s="5">
         <v>44655</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="10">
         <v>30</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -1724,11 +1776,17 @@
       <c r="Q12" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="R12" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
-        <f>B13&amp;"_"&amp;C13&amp;"_"&amp;E13</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_357</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1750,7 +1808,7 @@
       <c r="H13" s="5">
         <v>44641</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="10">
         <v>23</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -1787,7 +1845,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
-        <f>B14&amp;"_"&amp;C14&amp;"_"&amp;E14</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_358</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1809,7 +1867,7 @@
       <c r="H14" s="5">
         <v>44631</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="10">
         <v>12.5</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -1846,7 +1904,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
-        <f>B15&amp;"_"&amp;C15&amp;"_"&amp;E15</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_359</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1868,7 +1926,7 @@
       <c r="H15" s="5">
         <v>44631</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="10">
         <v>10</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -1905,7 +1963,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
-        <f>B16&amp;"_"&amp;C16&amp;"_"&amp;E16</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_360</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1927,7 +1985,7 @@
       <c r="H16" s="5">
         <v>44641</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="10">
         <v>16</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -1964,7 +2022,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
-        <f>B17&amp;"_"&amp;C17&amp;"_"&amp;E17</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_362</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1986,7 +2044,7 @@
       <c r="H17" s="5">
         <v>44652</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="10">
         <v>12</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -2023,7 +2081,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f>B18&amp;"_"&amp;C18&amp;"_"&amp;E18</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_365</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2045,7 +2103,7 @@
       <c r="H18" s="5">
         <v>44627</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="10">
         <v>34</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -2082,7 +2140,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
-        <f>B19&amp;"_"&amp;C19&amp;"_"&amp;E19</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_366</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2104,7 +2162,7 @@
       <c r="H19" s="5">
         <v>44642</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="10">
         <v>17</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -2141,7 +2199,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
-        <f>B20&amp;"_"&amp;C20&amp;"_"&amp;E20</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_367</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2163,7 +2221,7 @@
       <c r="H20" s="5">
         <v>44629</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="10">
         <v>20</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -2200,7 +2258,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f>B21&amp;"_"&amp;C21&amp;"_"&amp;E21</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_368</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2222,7 +2280,7 @@
       <c r="H21" s="5">
         <v>44650</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="10">
         <v>33</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -2249,11 +2307,17 @@
       <c r="Q21" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="R21" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
-        <f>B22&amp;"_"&amp;C22&amp;"_"&amp;E22</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_369</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2275,7 +2339,7 @@
       <c r="H22" s="5">
         <v>44649</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="10">
         <v>23</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -2312,7 +2376,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
-        <f>B23&amp;"_"&amp;C23&amp;"_"&amp;E23</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_370</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2375,7 +2439,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
-        <f>B24&amp;"_"&amp;C24&amp;"_"&amp;E24</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_371</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2397,7 +2461,7 @@
       <c r="H24" s="5">
         <v>44642</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="10">
         <v>15</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -2424,11 +2488,17 @@
       <c r="Q24" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="R24" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
-        <f>B25&amp;"_"&amp;C25&amp;"_"&amp;E25</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9AZ2</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2491,7 +2561,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
-        <f>B26&amp;"_"&amp;C26&amp;"_"&amp;E26</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9AZ5</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2513,7 +2583,7 @@
       <c r="H26" s="5">
         <v>44641</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="10">
         <v>27</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -2550,7 +2620,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
-        <f>B27&amp;"_"&amp;C27&amp;"_"&amp;E27</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9AZ9</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2572,7 +2642,7 @@
       <c r="H27" s="5">
         <v>44642</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="10">
         <v>22</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -2609,7 +2679,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
-        <f>B28&amp;"_"&amp;C28&amp;"_"&amp;E28</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9EV35</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2631,7 +2701,7 @@
       <c r="H28" s="5">
         <v>44655</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="10">
         <v>42</v>
       </c>
       <c r="J28" s="4" t="s">
@@ -2668,7 +2738,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
-        <f>B29&amp;"_"&amp;C29&amp;"_"&amp;E29</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9EV4</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2690,7 +2760,7 @@
       <c r="H29" s="5">
         <v>44657</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="10">
         <v>30</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -2727,7 +2797,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
-        <f>B30&amp;"_"&amp;C30&amp;"_"&amp;E30</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9EV40</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2749,7 +2819,7 @@
       <c r="H30" s="5">
         <v>44620</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="10">
         <v>34</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -2786,7 +2856,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
-        <f>B31&amp;"_"&amp;C31&amp;"_"&amp;E31</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9EV5</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2808,7 +2878,7 @@
       <c r="H31" s="5">
         <v>44623</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="10">
         <v>11</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -2845,7 +2915,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
-        <f>B32&amp;"_"&amp;C32&amp;"_"&amp;E32</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9GT35</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2867,7 +2937,7 @@
       <c r="H32" s="5">
         <v>44657</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="10">
         <v>18</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -2904,7 +2974,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f>B33&amp;"_"&amp;C33&amp;"_"&amp;E33</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9GT4</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2926,7 +2996,7 @@
       <c r="H33" s="5">
         <v>44643</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="10">
         <v>15</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -2963,7 +3033,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
-        <f>B34&amp;"_"&amp;C34&amp;"_"&amp;E34</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9GT46</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2985,7 +3055,7 @@
       <c r="H34" s="5">
         <v>44629</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="10">
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -3022,7 +3092,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
-        <f>B35&amp;"_"&amp;C35&amp;"_"&amp;E35</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9IR44</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3044,7 +3114,7 @@
       <c r="H35" s="5">
         <v>44642</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="10">
         <v>23</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -3081,7 +3151,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
-        <f>B36&amp;"_"&amp;C36&amp;"_"&amp;E36</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9JQ4</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3103,7 +3173,7 @@
       <c r="H36" s="5">
         <v>44623</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="10">
         <v>35</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -3130,11 +3200,17 @@
       <c r="Q36" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="R36" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
-        <f>B37&amp;"_"&amp;C37&amp;"_"&amp;E37</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9JQ42</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3156,7 +3232,7 @@
       <c r="H37" s="5">
         <v>44641</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="10">
         <v>36</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -3193,7 +3269,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
-        <f>B38&amp;"_"&amp;C38&amp;"_"&amp;E38</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9JQ43</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3215,7 +3291,7 @@
       <c r="H38" s="5">
         <v>44641</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="10">
         <v>17</v>
       </c>
       <c r="J38" s="4" t="s">
@@ -3252,7 +3328,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
-        <f>B39&amp;"_"&amp;C39&amp;"_"&amp;E39</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9JQ431</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3315,7 +3391,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
-        <f>B40&amp;"_"&amp;C40&amp;"_"&amp;E40</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9JQ53</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3337,7 +3413,7 @@
       <c r="H40" s="5">
         <v>44657</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="10">
         <v>21</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -3374,7 +3450,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
-        <f>B41&amp;"_"&amp;C41&amp;"_"&amp;E41</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_AZ</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3396,7 +3472,7 @@
       <c r="H41" s="5">
         <v>44650</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="11">
         <v>49</v>
       </c>
       <c r="J41" s="4" t="s">
@@ -3433,7 +3509,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
-        <f>B42&amp;"_"&amp;C42&amp;"_"&amp;E42</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_CX</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3455,7 +3531,7 @@
       <c r="H42" s="5">
         <v>44650</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="10">
         <v>17</v>
       </c>
       <c r="J42" s="4" t="s">
@@ -3492,7 +3568,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
-        <f>B43&amp;"_"&amp;C43&amp;"_"&amp;E43</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_DW</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3514,7 +3590,7 @@
       <c r="H43" s="5">
         <v>44627</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="10">
         <v>25</v>
       </c>
       <c r="J43" s="4" t="s">
@@ -3541,11 +3617,17 @@
       <c r="Q43" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="R43" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
-        <f>B44&amp;"_"&amp;C44&amp;"_"&amp;E44</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_0HS3</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3567,7 +3649,7 @@
       <c r="H44" s="8">
         <v>44666</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="11">
         <v>34.5</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -3594,10 +3676,16 @@
       <c r="Q44" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R44" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
-        <f>B45&amp;"_"&amp;C45&amp;"_"&amp;E45</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_0HS4</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3616,10 +3704,46 @@
         <v>10</v>
       </c>
       <c r="G45" s="6"/>
+      <c r="H45" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I45" s="11">
+        <v>15</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M45" s="1">
+        <v>8</v>
+      </c>
+      <c r="N45" s="1">
+        <v>7</v>
+      </c>
+      <c r="O45" s="1">
+        <v>6</v>
+      </c>
+      <c r="P45" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R45" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f>B46&amp;"_"&amp;C46&amp;"_"&amp;E46</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_2HS12</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3641,7 +3765,7 @@
       <c r="H46" s="8">
         <v>44669</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="11">
         <v>26</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -3668,10 +3792,16 @@
       <c r="Q46" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R46" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
-        <f>B47&amp;"_"&amp;C47&amp;"_"&amp;E47</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_2HS2</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3734,7 +3864,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
-        <f>B48&amp;"_"&amp;C48&amp;"_"&amp;E48</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_2HS48</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3753,10 +3883,46 @@
         <v>10</v>
       </c>
       <c r="G48" s="6"/>
+      <c r="H48" s="8">
+        <v>44672</v>
+      </c>
+      <c r="I48" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="8">
+        <v>44672</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M48" s="1">
+        <v>8</v>
+      </c>
+      <c r="N48" s="1">
+        <v>7</v>
+      </c>
+      <c r="O48" s="1">
+        <v>6</v>
+      </c>
+      <c r="P48" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R48" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
-        <f>B49&amp;"_"&amp;C49&amp;"_"&amp;E49</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_2HS6</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3778,7 +3944,7 @@
       <c r="H49" s="8">
         <v>44666</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="11">
         <v>12.5</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -3805,10 +3971,16 @@
       <c r="Q49" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R49" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
-        <f>B50&amp;"_"&amp;C50&amp;"_"&amp;E50</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_310</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3830,7 +4002,7 @@
       <c r="H50" s="8">
         <v>44669</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="11">
         <v>18</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -3857,10 +4029,16 @@
       <c r="Q50" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R50" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
-        <f>B51&amp;"_"&amp;C51&amp;"_"&amp;E51</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_313</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3879,10 +4057,46 @@
         <v>10</v>
       </c>
       <c r="G51" s="6"/>
+      <c r="H51" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I51" s="11">
+        <v>15</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K51" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M51" s="1">
+        <v>8</v>
+      </c>
+      <c r="N51" s="1">
+        <v>7</v>
+      </c>
+      <c r="O51" s="1">
+        <v>6</v>
+      </c>
+      <c r="P51" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R51" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
-        <f>B52&amp;"_"&amp;C52&amp;"_"&amp;E52</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_352</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3904,7 +4118,7 @@
       <c r="H52" s="8">
         <v>44669</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="11">
         <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -3931,10 +4145,16 @@
       <c r="Q52" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R52" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
-        <f>B53&amp;"_"&amp;C53&amp;"_"&amp;E53</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_356</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3956,7 +4176,7 @@
       <c r="H53" s="8">
         <v>44669</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="11">
         <v>23</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -3983,10 +4203,16 @@
       <c r="Q53" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R53" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
-        <f>B54&amp;"_"&amp;C54&amp;"_"&amp;E54</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_357</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4008,7 +4234,7 @@
       <c r="H54" s="8">
         <v>44666</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="11">
         <v>13</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -4035,10 +4261,16 @@
       <c r="Q54" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R54" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
-        <f>B55&amp;"_"&amp;C55&amp;"_"&amp;E55</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_358</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4101,7 +4333,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
-        <f>B56&amp;"_"&amp;C56&amp;"_"&amp;E56</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_359</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4120,10 +4352,46 @@
         <v>10</v>
       </c>
       <c r="G56" s="6"/>
+      <c r="H56" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I56" s="11">
+        <v>15</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K56" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M56" s="1">
+        <v>8</v>
+      </c>
+      <c r="N56" s="1">
+        <v>7</v>
+      </c>
+      <c r="O56" s="1">
+        <v>6</v>
+      </c>
+      <c r="P56" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R56" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
-        <f>B57&amp;"_"&amp;C57&amp;"_"&amp;E57</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_360</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4142,10 +4410,46 @@
         <v>10</v>
       </c>
       <c r="G57" s="6"/>
+      <c r="H57" s="8">
+        <v>44671</v>
+      </c>
+      <c r="I57" s="11">
+        <v>16</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K57" s="8">
+        <v>44671</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M57" s="1">
+        <v>8</v>
+      </c>
+      <c r="N57" s="1">
+        <v>7</v>
+      </c>
+      <c r="O57" s="1">
+        <v>6</v>
+      </c>
+      <c r="P57" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R57" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
-        <f>B58&amp;"_"&amp;C58&amp;"_"&amp;E58</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_362</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4167,7 +4471,7 @@
       <c r="H58" s="8">
         <v>44659</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="11">
         <v>14</v>
       </c>
       <c r="J58" s="1" t="s">
@@ -4194,10 +4498,16 @@
       <c r="Q58" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R58" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
-        <f>B59&amp;"_"&amp;C59&amp;"_"&amp;E59</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_365</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4219,7 +4529,7 @@
       <c r="H59" s="8">
         <v>44669</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="11">
         <v>19</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -4246,10 +4556,16 @@
       <c r="Q59" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R59" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
-        <f>B60&amp;"_"&amp;C60&amp;"_"&amp;E60</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_365</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4268,10 +4584,46 @@
         <v>43</v>
       </c>
       <c r="G60" s="6"/>
+      <c r="H60" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I60" s="11">
+        <v>13</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K60" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M60" s="1">
+        <v>8</v>
+      </c>
+      <c r="N60" s="1">
+        <v>7</v>
+      </c>
+      <c r="O60" s="1">
+        <v>6</v>
+      </c>
+      <c r="P60" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R60" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
-        <f>B61&amp;"_"&amp;C61&amp;"_"&amp;E61</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_366</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4334,7 +4686,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
-        <f>B62&amp;"_"&amp;C62&amp;"_"&amp;E62</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_367</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4356,7 +4708,7 @@
       <c r="H62" s="8">
         <v>44669</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="11">
         <v>26</v>
       </c>
       <c r="J62" s="1" t="s">
@@ -4383,10 +4735,16 @@
       <c r="Q62" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R62" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
-        <f>B63&amp;"_"&amp;C63&amp;"_"&amp;E63</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_368</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -4405,10 +4763,46 @@
         <v>10</v>
       </c>
       <c r="G63" s="6"/>
+      <c r="H63" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I63" s="11">
+        <v>13</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K63" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M63" s="1">
+        <v>8</v>
+      </c>
+      <c r="N63" s="1">
+        <v>7</v>
+      </c>
+      <c r="O63" s="1">
+        <v>6</v>
+      </c>
+      <c r="P63" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R63" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
-        <f>B64&amp;"_"&amp;C64&amp;"_"&amp;E64</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_369</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4430,7 +4824,7 @@
       <c r="H64" s="8">
         <v>44659</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="11">
         <v>25</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -4457,10 +4851,16 @@
       <c r="Q64" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R64" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
-        <f>B65&amp;"_"&amp;C65&amp;"_"&amp;E65</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PS_370</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4482,7 +4882,7 @@
       <c r="H65" s="8">
         <v>44669</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="11">
         <v>17</v>
       </c>
       <c r="J65" s="1" t="s">
@@ -4509,10 +4909,16 @@
       <c r="Q65" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R65" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f>B66&amp;"_"&amp;C66&amp;"_"&amp;E66</f>
+        <f t="shared" ref="A66:A129" si="1">B66&amp;"_"&amp;C66&amp;"_"&amp;E66</f>
         <v>OFAV_PS_371</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4531,10 +4937,46 @@
         <v>10</v>
       </c>
       <c r="G66" s="6"/>
+      <c r="H66" s="8">
+        <v>44672</v>
+      </c>
+      <c r="I66" s="11">
+        <v>25</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K66" s="8">
+        <v>44672</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M66" s="1">
+        <v>8</v>
+      </c>
+      <c r="N66" s="1">
+        <v>7</v>
+      </c>
+      <c r="O66" s="1">
+        <v>6</v>
+      </c>
+      <c r="P66" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R66" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
-        <f>B67&amp;"_"&amp;C67&amp;"_"&amp;E67</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9AZ2</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4597,7 +5039,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
-        <f>B68&amp;"_"&amp;C68&amp;"_"&amp;E68</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9AZ5</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4616,10 +5058,46 @@
         <v>10</v>
       </c>
       <c r="G68" s="6"/>
+      <c r="H68" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I68" s="11">
+        <v>15</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K68" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M68" s="1">
+        <v>8</v>
+      </c>
+      <c r="N68" s="1">
+        <v>7</v>
+      </c>
+      <c r="O68" s="1">
+        <v>6</v>
+      </c>
+      <c r="P68" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R68" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
-        <f>B69&amp;"_"&amp;C69&amp;"_"&amp;E69</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9AZ9</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4638,10 +5116,46 @@
         <v>10</v>
       </c>
       <c r="G69" s="6"/>
+      <c r="H69" s="8">
+        <v>44672</v>
+      </c>
+      <c r="I69" s="11">
+        <v>27.5</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K69" s="8">
+        <v>44672</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M69" s="1">
+        <v>8</v>
+      </c>
+      <c r="N69" s="1">
+        <v>7</v>
+      </c>
+      <c r="O69" s="1">
+        <v>6</v>
+      </c>
+      <c r="P69" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R69" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
-        <f>B70&amp;"_"&amp;C70&amp;"_"&amp;E70</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9EV35</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4663,7 +5177,7 @@
       <c r="H70" s="8">
         <v>44669</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="11">
         <v>35</v>
       </c>
       <c r="J70" s="1" t="s">
@@ -4690,10 +5204,16 @@
       <c r="Q70" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R70" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
-        <f>B71&amp;"_"&amp;C71&amp;"_"&amp;E71</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9EV4</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4711,11 +5231,49 @@
       <c r="F71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="6"/>
+      <c r="G71" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H71" s="8">
+        <v>44671</v>
+      </c>
+      <c r="I71" s="11">
+        <v>55</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K71" s="8">
+        <v>44671</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M71" s="1">
+        <v>8</v>
+      </c>
+      <c r="N71" s="1">
+        <v>7</v>
+      </c>
+      <c r="O71" s="1">
+        <v>6</v>
+      </c>
+      <c r="P71" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R71" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
-        <f>B72&amp;"_"&amp;C72&amp;"_"&amp;E72</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9EV40</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4734,10 +5292,46 @@
         <v>10</v>
       </c>
       <c r="G72" s="6"/>
+      <c r="H72" s="8">
+        <v>44672</v>
+      </c>
+      <c r="I72" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K72" s="8">
+        <v>44672</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M72" s="1">
+        <v>8</v>
+      </c>
+      <c r="N72" s="1">
+        <v>7</v>
+      </c>
+      <c r="O72" s="1">
+        <v>6</v>
+      </c>
+      <c r="P72" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R72" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
-        <f>B73&amp;"_"&amp;C73&amp;"_"&amp;E73</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9EV5</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4759,7 +5353,7 @@
       <c r="H73" s="8">
         <v>44666</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="11">
         <v>16.5</v>
       </c>
       <c r="J73" s="1" t="s">
@@ -4786,10 +5380,16 @@
       <c r="Q73" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R73" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
-        <f>B74&amp;"_"&amp;C74&amp;"_"&amp;E74</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9GT35</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4808,10 +5408,46 @@
         <v>10</v>
       </c>
       <c r="G74" s="6"/>
+      <c r="H74" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I74" s="11">
+        <v>13</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K74" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M74" s="1">
+        <v>8</v>
+      </c>
+      <c r="N74" s="1">
+        <v>7</v>
+      </c>
+      <c r="O74" s="1">
+        <v>6</v>
+      </c>
+      <c r="P74" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R74" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
-        <f>B75&amp;"_"&amp;C75&amp;"_"&amp;E75</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9GT4</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4830,10 +5466,46 @@
         <v>10</v>
       </c>
       <c r="G75" s="6"/>
+      <c r="H75" s="8">
+        <v>44671</v>
+      </c>
+      <c r="I75" s="11">
+        <v>34</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K75" s="8">
+        <v>44671</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M75" s="1">
+        <v>8</v>
+      </c>
+      <c r="N75" s="1">
+        <v>7</v>
+      </c>
+      <c r="O75" s="1">
+        <v>6</v>
+      </c>
+      <c r="P75" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R75" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
-        <f>B76&amp;"_"&amp;C76&amp;"_"&amp;E76</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9GT46</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -4852,10 +5524,46 @@
         <v>10</v>
       </c>
       <c r="G76" s="6"/>
+      <c r="H76" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I76" s="11">
+        <v>15</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K76" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M76" s="1">
+        <v>8</v>
+      </c>
+      <c r="N76" s="1">
+        <v>7</v>
+      </c>
+      <c r="O76" s="1">
+        <v>6</v>
+      </c>
+      <c r="P76" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
-        <f>B77&amp;"_"&amp;C77&amp;"_"&amp;E77</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9IR44</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -4877,7 +5585,7 @@
       <c r="H77" s="8">
         <v>44666</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="11">
         <v>25.2</v>
       </c>
       <c r="J77" s="1" t="s">
@@ -4904,10 +5612,16 @@
       <c r="Q77" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R77" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
-        <f>B78&amp;"_"&amp;C78&amp;"_"&amp;E78</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9JQ4</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -4929,7 +5643,7 @@
       <c r="H78" s="8">
         <v>44669</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="11">
         <v>19</v>
       </c>
       <c r="J78" s="1" t="s">
@@ -4956,10 +5670,16 @@
       <c r="Q78" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R78" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
-        <f>B79&amp;"_"&amp;C79&amp;"_"&amp;E79</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9JQ42</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -4978,10 +5698,46 @@
         <v>10</v>
       </c>
       <c r="G79" s="6"/>
+      <c r="H79" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I79" s="11">
+        <v>15</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K79" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M79" s="1">
+        <v>8</v>
+      </c>
+      <c r="N79" s="1">
+        <v>7</v>
+      </c>
+      <c r="O79" s="1">
+        <v>6</v>
+      </c>
+      <c r="P79" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R79" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
-        <f>B80&amp;"_"&amp;C80&amp;"_"&amp;E80</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9JQ431</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -5003,7 +5759,7 @@
       <c r="H80" s="8">
         <v>44669</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="11">
         <v>23</v>
       </c>
       <c r="J80" s="1" t="s">
@@ -5030,10 +5786,16 @@
       <c r="Q80" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R80" s="8">
+        <v>44672</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
-        <f>B81&amp;"_"&amp;C81&amp;"_"&amp;E81</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_9JQ53</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -5052,10 +5814,46 @@
         <v>10</v>
       </c>
       <c r="G81" s="6"/>
+      <c r="H81" s="8">
+        <v>44672</v>
+      </c>
+      <c r="I81" s="11">
+        <v>15</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K81" s="8">
+        <v>44669</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M81" s="1">
+        <v>8</v>
+      </c>
+      <c r="N81" s="1">
+        <v>7</v>
+      </c>
+      <c r="O81" s="1">
+        <v>6</v>
+      </c>
+      <c r="P81" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R81" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
-        <f>B82&amp;"_"&amp;C82&amp;"_"&amp;E82</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_AZ</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -5074,10 +5872,46 @@
         <v>10</v>
       </c>
       <c r="G82" s="6"/>
+      <c r="H82" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I82" s="11">
+        <v>14</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K82" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M82" s="1">
+        <v>8</v>
+      </c>
+      <c r="N82" s="1">
+        <v>7</v>
+      </c>
+      <c r="O82" s="1">
+        <v>6</v>
+      </c>
+      <c r="P82" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R82" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
-        <f>B83&amp;"_"&amp;C83&amp;"_"&amp;E83</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_CX</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -5099,7 +5933,7 @@
       <c r="H83" s="8">
         <v>44669</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="11">
         <v>24.8</v>
       </c>
       <c r="J83" s="1" t="s">
@@ -5126,10 +5960,16 @@
       <c r="Q83" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="R83" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
-        <f>B84&amp;"_"&amp;C84&amp;"_"&amp;E84</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_DW</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -5148,10 +5988,46 @@
         <v>10</v>
       </c>
       <c r="G84" s="6"/>
+      <c r="H84" s="8">
+        <v>44673</v>
+      </c>
+      <c r="I84" s="1">
+        <v>17</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K84" s="8">
+        <v>44673</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M84" s="1">
+        <v>8</v>
+      </c>
+      <c r="N84" s="1">
+        <v>7</v>
+      </c>
+      <c r="O84" s="1">
+        <v>6</v>
+      </c>
+      <c r="P84" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R84" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
-        <f>B85&amp;"_"&amp;C85&amp;"_"&amp;E85</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_EV</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -5170,10 +6046,46 @@
         <v>10</v>
       </c>
       <c r="G85" s="6"/>
+      <c r="H85" s="8">
+        <v>44671</v>
+      </c>
+      <c r="I85" s="1">
+        <v>19</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K85" s="8">
+        <v>44671</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M85" s="1">
+        <v>8</v>
+      </c>
+      <c r="N85" s="1">
+        <v>7</v>
+      </c>
+      <c r="O85" s="1">
+        <v>6</v>
+      </c>
+      <c r="P85" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R85" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
-        <f>B86&amp;"_"&amp;C86&amp;"_"&amp;E86</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_OHS2</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -5192,10 +6104,46 @@
         <v>10</v>
       </c>
       <c r="G86" s="6"/>
+      <c r="H86" s="8">
+        <v>44672</v>
+      </c>
+      <c r="I86" s="1">
+        <v>24</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K86" s="8">
+        <v>44672</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M86" s="1">
+        <v>8</v>
+      </c>
+      <c r="N86" s="1">
+        <v>7</v>
+      </c>
+      <c r="O86" s="1">
+        <v>6</v>
+      </c>
+      <c r="P86" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R86" s="8">
+        <v>44673</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
-        <f>B87&amp;"_"&amp;C87&amp;"_"&amp;E87</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_0AZ24</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -5217,7 +6165,7 @@
       <c r="H87" s="8">
         <v>44616</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="11">
         <v>36</v>
       </c>
       <c r="J87" s="1" t="s">
@@ -5253,7 +6201,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
-        <f>B88&amp;"_"&amp;C88&amp;"_"&amp;E88</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_0AZ4</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -5275,7 +6223,7 @@
       <c r="H88" s="8">
         <v>44610</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="11">
         <v>27.3</v>
       </c>
       <c r="J88" s="1" t="s">
@@ -5311,7 +6259,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
-        <f>B89&amp;"_"&amp;C89&amp;"_"&amp;E89</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_0DW46</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -5374,7 +6322,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
-        <f>B90&amp;"_"&amp;C90&amp;"_"&amp;E90</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_0EV1</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -5437,7 +6385,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
-        <f>B91&amp;"_"&amp;C91&amp;"_"&amp;E91</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_0EV3</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -5459,7 +6407,7 @@
       <c r="H91" s="8">
         <v>44587</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="11">
         <v>27</v>
       </c>
       <c r="J91" s="1" t="s">
@@ -5495,7 +6443,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
-        <f>B92&amp;"_"&amp;C92&amp;"_"&amp;E92</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_0EV3</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -5517,7 +6465,7 @@
       <c r="H92" s="8">
         <v>44624</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="11">
         <v>10.5</v>
       </c>
       <c r="J92" s="1" t="s">
@@ -5553,7 +6501,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
-        <f>B93&amp;"_"&amp;C93&amp;"_"&amp;E93</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_1AZ5</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -5616,7 +6564,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
-        <f>B94&amp;"_"&amp;C94&amp;"_"&amp;E94</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2AZ2</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -5679,7 +6627,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
-        <f>B95&amp;"_"&amp;C95&amp;"_"&amp;E95</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2AZ21</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -5701,7 +6649,7 @@
       <c r="H95" s="8">
         <v>44587</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="11">
         <v>13</v>
       </c>
       <c r="J95" s="1" t="s">
@@ -5737,7 +6685,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
-        <f>B96&amp;"_"&amp;C96&amp;"_"&amp;E96</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2AZ21</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -5759,7 +6707,7 @@
       <c r="H96" s="8">
         <v>44624</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="11">
         <v>20</v>
       </c>
       <c r="J96" s="1" t="s">
@@ -5795,7 +6743,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
-        <f>B97&amp;"_"&amp;C97&amp;"_"&amp;E97</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2AZ3</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -5858,7 +6806,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="str">
-        <f>B98&amp;"_"&amp;C98&amp;"_"&amp;E98</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2AZ7</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -5880,7 +6828,7 @@
       <c r="H98" s="8">
         <v>44587</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="11">
         <v>13</v>
       </c>
       <c r="J98" s="1" t="s">
@@ -5916,7 +6864,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="str">
-        <f>B99&amp;"_"&amp;C99&amp;"_"&amp;E99</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2AZ7</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -5938,7 +6886,7 @@
       <c r="H99" s="8">
         <v>44615</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="11">
         <v>55.5</v>
       </c>
       <c r="J99" s="1" t="s">
@@ -5974,7 +6922,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="str">
-        <f>B100&amp;"_"&amp;C100&amp;"_"&amp;E100</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2AZ7</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -5996,7 +6944,7 @@
       <c r="H100" s="8">
         <v>44622</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="11">
         <v>21</v>
       </c>
       <c r="J100" s="1" t="s">
@@ -6032,7 +6980,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="str">
-        <f>B101&amp;"_"&amp;C101&amp;"_"&amp;E101</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2AZ7</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -6054,7 +7002,7 @@
       <c r="H101" s="8">
         <v>44622</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="11">
         <v>12.5</v>
       </c>
       <c r="J101" s="1" t="s">
@@ -6090,7 +7038,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="str">
-        <f>B102&amp;"_"&amp;C102&amp;"_"&amp;E102</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2DW40</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -6153,7 +7101,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="str">
-        <f>B103&amp;"_"&amp;C103&amp;"_"&amp;E103</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2DW44</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -6216,7 +7164,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="str">
-        <f>B104&amp;"_"&amp;C104&amp;"_"&amp;E104</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2EV10</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -6279,7 +7227,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="str">
-        <f>B105&amp;"_"&amp;C105&amp;"_"&amp;E105</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2EV3</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -6342,7 +7290,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="str">
-        <f>B106&amp;"_"&amp;C106&amp;"_"&amp;E106</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2EV30</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -6405,7 +7353,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="str">
-        <f>B107&amp;"_"&amp;C107&amp;"_"&amp;E107</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2EV34</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -6468,7 +7416,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="str">
-        <f>B108&amp;"_"&amp;C108&amp;"_"&amp;E108</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2EV36</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -6531,7 +7479,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="str">
-        <f>B109&amp;"_"&amp;C109&amp;"_"&amp;E109</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2EV44</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -6594,7 +7542,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="str">
-        <f>B110&amp;"_"&amp;C110&amp;"_"&amp;E110</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2EV6</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -6657,7 +7605,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="str">
-        <f>B111&amp;"_"&amp;C111&amp;"_"&amp;E111</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2GT7</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -6720,7 +7668,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="str">
-        <f>B112&amp;"_"&amp;C112&amp;"_"&amp;E112</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2JQ31</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -6742,7 +7690,7 @@
       <c r="H112" s="8">
         <v>44616</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="11">
         <v>32.5</v>
       </c>
       <c r="J112" s="1" t="s">
@@ -6778,7 +7726,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="str">
-        <f>B113&amp;"_"&amp;C113&amp;"_"&amp;E113</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2JQ31</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -6800,7 +7748,7 @@
       <c r="H113" s="8">
         <v>44615</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="11">
         <v>7</v>
       </c>
       <c r="J113" s="1" t="s">
@@ -6836,7 +7784,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="str">
-        <f>B114&amp;"_"&amp;C114&amp;"_"&amp;E114</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2JQ31</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -6858,7 +7806,7 @@
       <c r="H114" s="8">
         <v>44622</v>
       </c>
-      <c r="I114" s="1">
+      <c r="I114" s="11">
         <v>22</v>
       </c>
       <c r="J114" s="1" t="s">
@@ -6894,7 +7842,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="str">
-        <f>B115&amp;"_"&amp;C115&amp;"_"&amp;E115</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2JQ6</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -6957,7 +7905,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="str">
-        <f>B116&amp;"_"&amp;C116&amp;"_"&amp;E116</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_2JQ8</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -6979,7 +7927,7 @@
       <c r="H116" s="8">
         <v>44622</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="11">
         <v>18</v>
       </c>
       <c r="J116" s="1" t="s">
@@ -7015,7 +7963,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="str">
-        <f>B117&amp;"_"&amp;C117&amp;"_"&amp;E117</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3AZ4</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -7078,7 +8026,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
-        <f>B118&amp;"_"&amp;C118&amp;"_"&amp;E118</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3EV30</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -7100,7 +8048,7 @@
       <c r="H118" s="8">
         <v>44587</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="11">
         <v>12</v>
       </c>
       <c r="J118" s="1" t="s">
@@ -7136,7 +8084,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
-        <f>B119&amp;"_"&amp;C119&amp;"_"&amp;E119</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3EV30</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -7158,7 +8106,7 @@
       <c r="H119" s="8">
         <v>44622</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="11">
         <v>27</v>
       </c>
       <c r="J119" s="1" t="s">
@@ -7194,7 +8142,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
-        <f>B120&amp;"_"&amp;C120&amp;"_"&amp;E120</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3EV30</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -7216,7 +8164,7 @@
       <c r="H120" s="8">
         <v>44624</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="11">
         <v>13</v>
       </c>
       <c r="J120" s="1" t="s">
@@ -7252,7 +8200,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
-        <f>B121&amp;"_"&amp;C121&amp;"_"&amp;E121</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3EV30</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -7309,7 +8257,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
-        <f>B122&amp;"_"&amp;C122&amp;"_"&amp;E122</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3EV31</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -7367,7 +8315,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
-        <f>B123&amp;"_"&amp;C123&amp;"_"&amp;E123</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3JQ1</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -7389,7 +8337,7 @@
       <c r="H123" s="8">
         <v>44588</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="11">
         <v>10</v>
       </c>
       <c r="J123" s="1" t="s">
@@ -7425,7 +8373,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
-        <f>B124&amp;"_"&amp;C124&amp;"_"&amp;E124</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3JQ1</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -7447,7 +8395,7 @@
       <c r="H124" s="8">
         <v>44622</v>
       </c>
-      <c r="I124" s="1">
+      <c r="I124" s="11">
         <v>36</v>
       </c>
       <c r="J124" s="1" t="s">
@@ -7483,7 +8431,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
-        <f>B125&amp;"_"&amp;C125&amp;"_"&amp;E125</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3JQ1</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -7505,7 +8453,7 @@
       <c r="H125" s="8">
         <v>44624</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="11">
         <v>11.5</v>
       </c>
       <c r="J125" s="1" t="s">
@@ -7541,7 +8489,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
-        <f>B126&amp;"_"&amp;C126&amp;"_"&amp;E126</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3JQ1</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -7563,7 +8511,7 @@
       <c r="H126" s="8">
         <v>44624</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="11">
         <v>20</v>
       </c>
       <c r="J126" s="1" t="s">
@@ -7599,7 +8547,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
-        <f>B127&amp;"_"&amp;C127&amp;"_"&amp;E127</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_3JQ10</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -7621,7 +8569,7 @@
       <c r="H127" s="8">
         <v>44632</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="11">
         <v>12</v>
       </c>
       <c r="J127" s="1" t="s">
@@ -7657,7 +8605,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
-        <f>B128&amp;"_"&amp;C128&amp;"_"&amp;E128</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_4DW11</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -7679,7 +8627,7 @@
       <c r="H128" s="8">
         <v>44588</v>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="11">
         <v>10</v>
       </c>
       <c r="J128" s="1" t="s">
@@ -7715,7 +8663,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
-        <f>B129&amp;"_"&amp;C129&amp;"_"&amp;E129</f>
+        <f t="shared" si="1"/>
         <v>OFAV_SP_4DW14</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -7778,7 +8726,7 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="str">
-        <f>B130&amp;"_"&amp;C130&amp;"_"&amp;E130</f>
+        <f t="shared" ref="A130:A193" si="2">B130&amp;"_"&amp;C130&amp;"_"&amp;E130</f>
         <v>OFAV_SP_4EV1</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -7841,7 +8789,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
-        <f>B131&amp;"_"&amp;C131&amp;"_"&amp;E131</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_4EV14</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -7904,7 +8852,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="str">
-        <f>B132&amp;"_"&amp;C132&amp;"_"&amp;E132</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_4EV15</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -7926,7 +8874,7 @@
       <c r="H132" s="8">
         <v>44610</v>
       </c>
-      <c r="I132" s="1">
+      <c r="I132" s="11">
         <v>28</v>
       </c>
       <c r="J132" s="1" t="s">
@@ -7962,7 +8910,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="str">
-        <f>B133&amp;"_"&amp;C133&amp;"_"&amp;E133</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_4JQ12</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -8025,7 +8973,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="str">
-        <f>B134&amp;"_"&amp;C134&amp;"_"&amp;E134</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_6JQ16</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -8047,7 +8995,7 @@
       <c r="H134" s="8">
         <v>44610</v>
       </c>
-      <c r="I134" s="1">
+      <c r="I134" s="11">
         <v>22.5</v>
       </c>
       <c r="J134" s="1" t="s">
@@ -8083,7 +9031,7 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="str">
-        <f>B135&amp;"_"&amp;C135&amp;"_"&amp;E135</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_8EV24</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -8105,7 +9053,7 @@
       <c r="H135" s="8">
         <v>44615</v>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="11">
         <v>7</v>
       </c>
       <c r="J135" s="1" t="s">
@@ -8141,7 +9089,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="str">
-        <f>B136&amp;"_"&amp;C136&amp;"_"&amp;E136</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_9AZ10</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -8204,7 +9152,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="str">
-        <f>B137&amp;"_"&amp;C137&amp;"_"&amp;E137</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_9AZ7</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -8267,7 +9215,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="str">
-        <f>B138&amp;"_"&amp;C138&amp;"_"&amp;E138</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_9AZ81</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -8330,7 +9278,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="str">
-        <f>B139&amp;"_"&amp;C139&amp;"_"&amp;E139</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_9DW32</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -8393,7 +9341,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="str">
-        <f>B140&amp;"_"&amp;C140&amp;"_"&amp;E140</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_9DW37</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -8456,7 +9404,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="str">
-        <f>B141&amp;"_"&amp;C141&amp;"_"&amp;E141</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_9EV2</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -8478,7 +9426,7 @@
       <c r="H141" s="8">
         <v>44624</v>
       </c>
-      <c r="I141" s="1">
+      <c r="I141" s="11">
         <v>12.5</v>
       </c>
       <c r="J141" s="1" t="s">
@@ -8514,7 +9462,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="str">
-        <f>B142&amp;"_"&amp;C142&amp;"_"&amp;E142</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_9EV41</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -8577,7 +9525,7 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="str">
-        <f>B143&amp;"_"&amp;C143&amp;"_"&amp;E143</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_9JQ5</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -8640,7 +9588,7 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="str">
-        <f>B144&amp;"_"&amp;C144&amp;"_"&amp;E144</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_DEV35</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -8662,7 +9610,7 @@
       <c r="H144" s="8">
         <v>44615</v>
       </c>
-      <c r="I144" s="1">
+      <c r="I144" s="11">
         <v>7</v>
       </c>
       <c r="J144" s="1" t="s">
@@ -8698,7 +9646,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="str">
-        <f>B145&amp;"_"&amp;C145&amp;"_"&amp;E145</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_EV</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -8720,7 +9668,7 @@
       <c r="H145" s="8">
         <v>44622</v>
       </c>
-      <c r="I145" s="1">
+      <c r="I145" s="11">
         <v>158</v>
       </c>
       <c r="J145" s="1" t="s">
@@ -8756,7 +9704,7 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="str">
-        <f>B146&amp;"_"&amp;C146&amp;"_"&amp;E146</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_JQ1</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -8819,7 +9767,7 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="str">
-        <f>B147&amp;"_"&amp;C147&amp;"_"&amp;E147</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_0AZ4</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -8841,7 +9789,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="str">
-        <f>B148&amp;"_"&amp;C148&amp;"_"&amp;E148</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_0DW46</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -8863,7 +9811,7 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="str">
-        <f>B149&amp;"_"&amp;C149&amp;"_"&amp;E149</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_0EV1</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -8926,7 +9874,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="str">
-        <f>B150&amp;"_"&amp;C150&amp;"_"&amp;E150</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_0EV3</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -8948,7 +9896,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="str">
-        <f>B151&amp;"_"&amp;C151&amp;"_"&amp;E151</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_1AZ5</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -8970,7 +9918,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="str">
-        <f>B152&amp;"_"&amp;C152&amp;"_"&amp;E152</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2AZ2</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -8992,7 +9940,7 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="str">
-        <f>B153&amp;"_"&amp;C153&amp;"_"&amp;E153</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2AZ21</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -9014,7 +9962,7 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="str">
-        <f>B154&amp;"_"&amp;C154&amp;"_"&amp;E154</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2AZ3</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -9077,7 +10025,7 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="str">
-        <f>B155&amp;"_"&amp;C155&amp;"_"&amp;E155</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2AZ7</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -9099,7 +10047,7 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="str">
-        <f>B156&amp;"_"&amp;C156&amp;"_"&amp;E156</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2DW40</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -9121,7 +10069,7 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="str">
-        <f>B157&amp;"_"&amp;C157&amp;"_"&amp;E157</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2DW44</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -9143,7 +10091,7 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="str">
-        <f>B158&amp;"_"&amp;C158&amp;"_"&amp;E158</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2EV10</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -9165,7 +10113,7 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="str">
-        <f>B159&amp;"_"&amp;C159&amp;"_"&amp;E159</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2EV3</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -9187,7 +10135,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="str">
-        <f>B160&amp;"_"&amp;C160&amp;"_"&amp;E160</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2EV30</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -9209,7 +10157,7 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="str">
-        <f>B161&amp;"_"&amp;C161&amp;"_"&amp;E161</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2EV34</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -9231,7 +10179,7 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="str">
-        <f>B162&amp;"_"&amp;C162&amp;"_"&amp;E162</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2EV36</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -9253,7 +10201,7 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="str">
-        <f>B163&amp;"_"&amp;C163&amp;"_"&amp;E163</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2EV44</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -9275,7 +10223,7 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="str">
-        <f>B164&amp;"_"&amp;C164&amp;"_"&amp;E164</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2EV6</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -9297,7 +10245,7 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="str">
-        <f>B165&amp;"_"&amp;C165&amp;"_"&amp;E165</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2JQ31</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -9319,7 +10267,7 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="str">
-        <f>B166&amp;"_"&amp;C166&amp;"_"&amp;E166</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2JQ6</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -9341,7 +10289,7 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="str">
-        <f>B167&amp;"_"&amp;C167&amp;"_"&amp;E167</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_2JQ8</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -9363,7 +10311,7 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="str">
-        <f>B168&amp;"_"&amp;C168&amp;"_"&amp;E168</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_3AZ4</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -9426,7 +10374,7 @@
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="str">
-        <f>B169&amp;"_"&amp;C169&amp;"_"&amp;E169</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_3EV30</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -9448,7 +10396,7 @@
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="str">
-        <f>B170&amp;"_"&amp;C170&amp;"_"&amp;E170</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_3JQ1</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -9470,7 +10418,7 @@
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="str">
-        <f>B171&amp;"_"&amp;C171&amp;"_"&amp;E171</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_4DW11</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -9492,7 +10440,7 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="str">
-        <f>B172&amp;"_"&amp;C172&amp;"_"&amp;E172</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_4DW14</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -9514,7 +10462,7 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="str">
-        <f>B173&amp;"_"&amp;C173&amp;"_"&amp;E173</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_4EV14</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -9536,7 +10484,7 @@
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="str">
-        <f>B174&amp;"_"&amp;C174&amp;"_"&amp;E174</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_4EV15</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -9558,7 +10506,7 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="str">
-        <f>B175&amp;"_"&amp;C175&amp;"_"&amp;E175</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_4JQ12</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -9580,7 +10528,7 @@
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="str">
-        <f>B176&amp;"_"&amp;C176&amp;"_"&amp;E176</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_6JQ16</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -9602,7 +10550,7 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="str">
-        <f>B177&amp;"_"&amp;C177&amp;"_"&amp;E177</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_8EV24</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -9624,7 +10572,7 @@
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="str">
-        <f>B178&amp;"_"&amp;C178&amp;"_"&amp;E178</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_9AZ10</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -9646,7 +10594,7 @@
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="str">
-        <f>B179&amp;"_"&amp;C179&amp;"_"&amp;E179</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_9AZ7</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -9668,7 +10616,7 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="str">
-        <f>B180&amp;"_"&amp;C180&amp;"_"&amp;E180</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_9AZ81</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -9690,7 +10638,7 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="str">
-        <f>B181&amp;"_"&amp;C181&amp;"_"&amp;E181</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_9DW32</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -9753,7 +10701,7 @@
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="str">
-        <f>B182&amp;"_"&amp;C182&amp;"_"&amp;E182</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_9DW37</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -9775,7 +10723,7 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="str">
-        <f>B183&amp;"_"&amp;C183&amp;"_"&amp;E183</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_9EV2</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -9797,7 +10745,7 @@
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="str">
-        <f>B184&amp;"_"&amp;C184&amp;"_"&amp;E184</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_9EV41</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -9819,7 +10767,7 @@
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="str">
-        <f>B185&amp;"_"&amp;C185&amp;"_"&amp;E185</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_9JQ5</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -9841,7 +10789,7 @@
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="str">
-        <f>B186&amp;"_"&amp;C186&amp;"_"&amp;E186</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SS_JQ1</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -9904,7 +10852,7 @@
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="str">
-        <f>B187&amp;"_"&amp;C187&amp;"_"&amp;E187</f>
+        <f t="shared" si="2"/>
         <v>OFRA_PP_0CX4</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -9926,7 +10874,7 @@
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="str">
-        <f>B188&amp;"_"&amp;C188&amp;"_"&amp;E188</f>
+        <f t="shared" si="2"/>
         <v>OFRA_PP_0CX5</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -9948,7 +10896,7 @@
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="str">
-        <f>B189&amp;"_"&amp;C189&amp;"_"&amp;E189</f>
+        <f t="shared" si="2"/>
         <v>OFRA_PP_0GT1</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -9970,7 +10918,7 @@
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="str">
-        <f>B190&amp;"_"&amp;C190&amp;"_"&amp;E190</f>
+        <f t="shared" si="2"/>
         <v>OFRA_PP_0GT3</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -10033,7 +10981,7 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="str">
-        <f>B191&amp;"_"&amp;C191&amp;"_"&amp;E191</f>
+        <f t="shared" si="2"/>
         <v>OFRA_PP_0GT5</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -10055,7 +11003,7 @@
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
-        <f>B192&amp;"_"&amp;C192&amp;"_"&amp;E192</f>
+        <f t="shared" si="2"/>
         <v>OFRA_PP_1GT36</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -10118,7 +11066,7 @@
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
-        <f>B193&amp;"_"&amp;C193&amp;"_"&amp;E193</f>
+        <f t="shared" si="2"/>
         <v>OFRA_PP_1GT37</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -10140,7 +11088,7 @@
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="str">
-        <f>B194&amp;"_"&amp;C194&amp;"_"&amp;E194</f>
+        <f t="shared" ref="A194:A257" si="3">B194&amp;"_"&amp;C194&amp;"_"&amp;E194</f>
         <v>OFRA_PP_1GT37</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -10162,7 +11110,7 @@
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
-        <f>B195&amp;"_"&amp;C195&amp;"_"&amp;E195</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_1GT42</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -10184,7 +11132,7 @@
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="str">
-        <f>B196&amp;"_"&amp;C196&amp;"_"&amp;E196</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_1GT42</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -10206,7 +11154,7 @@
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="str">
-        <f>B197&amp;"_"&amp;C197&amp;"_"&amp;E197</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_1GT43</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -10269,7 +11217,7 @@
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="str">
-        <f>B198&amp;"_"&amp;C198&amp;"_"&amp;E198</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2CX10</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -10332,7 +11280,7 @@
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="str">
-        <f>B199&amp;"_"&amp;C199&amp;"_"&amp;E199</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2CX11</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -10395,7 +11343,7 @@
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="str">
-        <f>B200&amp;"_"&amp;C200&amp;"_"&amp;E200</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2CX12</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -10417,7 +11365,7 @@
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="str">
-        <f>B201&amp;"_"&amp;C201&amp;"_"&amp;E201</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2CX12</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -10439,7 +11387,7 @@
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="str">
-        <f>B202&amp;"_"&amp;C202&amp;"_"&amp;E202</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2CX13</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -10502,7 +11450,7 @@
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="str">
-        <f>B203&amp;"_"&amp;C203&amp;"_"&amp;E203</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2CX8</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -10565,7 +11513,7 @@
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="str">
-        <f>B204&amp;"_"&amp;C204&amp;"_"&amp;E204</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2GT10</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -10587,7 +11535,7 @@
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="str">
-        <f>B205&amp;"_"&amp;C205&amp;"_"&amp;E205</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2GT3</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -10609,7 +11557,7 @@
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="str">
-        <f>B206&amp;"_"&amp;C206&amp;"_"&amp;E206</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2GT3</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -10631,7 +11579,7 @@
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="str">
-        <f>B207&amp;"_"&amp;C207&amp;"_"&amp;E207</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2GT31</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -10694,7 +11642,7 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="str">
-        <f>B208&amp;"_"&amp;C208&amp;"_"&amp;E208</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2GT38</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -10716,7 +11664,7 @@
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="str">
-        <f>B209&amp;"_"&amp;C209&amp;"_"&amp;E209</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2GT41</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -10738,7 +11686,7 @@
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="str">
-        <f>B210&amp;"_"&amp;C210&amp;"_"&amp;E210</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2GT41</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -10760,7 +11708,7 @@
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="str">
-        <f>B211&amp;"_"&amp;C211&amp;"_"&amp;E211</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2GT7</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -10782,7 +11730,7 @@
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="str">
-        <f>B212&amp;"_"&amp;C212&amp;"_"&amp;E212</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2GT7</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -10804,7 +11752,7 @@
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="str">
-        <f>B213&amp;"_"&amp;C213&amp;"_"&amp;E213</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2HS11</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -10826,7 +11774,7 @@
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="str">
-        <f>B214&amp;"_"&amp;C214&amp;"_"&amp;E214</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2HS17</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -10848,7 +11796,7 @@
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="str">
-        <f>B215&amp;"_"&amp;C215&amp;"_"&amp;E215</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2HS17</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -10870,7 +11818,7 @@
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="str">
-        <f>B216&amp;"_"&amp;C216&amp;"_"&amp;E216</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2HS27</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -10892,7 +11840,7 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="str">
-        <f>B217&amp;"_"&amp;C217&amp;"_"&amp;E217</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2HS9</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -10914,7 +11862,7 @@
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="str">
-        <f>B218&amp;"_"&amp;C218&amp;"_"&amp;E218</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_2HS9</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -10936,7 +11884,7 @@
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="str">
-        <f>B219&amp;"_"&amp;C219&amp;"_"&amp;E219</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_4CX12</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -10958,7 +11906,7 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="str">
-        <f>B220&amp;"_"&amp;C220&amp;"_"&amp;E220</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_4HS13</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -11021,7 +11969,7 @@
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="str">
-        <f>B221&amp;"_"&amp;C221&amp;"_"&amp;E221</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_4HS15</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -11043,7 +11991,7 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="str">
-        <f>B222&amp;"_"&amp;C222&amp;"_"&amp;E222</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_6CX18</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -11106,7 +12054,7 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="str">
-        <f>B223&amp;"_"&amp;C223&amp;"_"&amp;E223</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_6EV18</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -11128,7 +12076,7 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="str">
-        <f>B224&amp;"_"&amp;C224&amp;"_"&amp;E224</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_6GT17</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -11150,7 +12098,7 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="str">
-        <f>B225&amp;"_"&amp;C225&amp;"_"&amp;E225</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_8CX24</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -11172,7 +12120,7 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="str">
-        <f>B226&amp;"_"&amp;C226&amp;"_"&amp;E226</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_8HS21</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -11194,7 +12142,7 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="str">
-        <f>B227&amp;"_"&amp;C227&amp;"_"&amp;E227</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_8HS23</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -11216,7 +12164,7 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="str">
-        <f>B228&amp;"_"&amp;C228&amp;"_"&amp;E228</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_8HS24</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -11238,7 +12186,7 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="str">
-        <f>B229&amp;"_"&amp;C229&amp;"_"&amp;E229</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_9CX5</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -11260,7 +12208,7 @@
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="str">
-        <f>B230&amp;"_"&amp;C230&amp;"_"&amp;E230</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_9CX5</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -11282,7 +12230,7 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="str">
-        <f>B231&amp;"_"&amp;C231&amp;"_"&amp;E231</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_9CX6</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -11345,7 +12293,7 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="str">
-        <f>B232&amp;"_"&amp;C232&amp;"_"&amp;E232</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_9GT30</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -11367,7 +12315,7 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="str">
-        <f>B233&amp;"_"&amp;C233&amp;"_"&amp;E233</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_9GT30</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -11389,7 +12337,7 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="str">
-        <f>B234&amp;"_"&amp;C234&amp;"_"&amp;E234</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PP_9GT47</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -11452,7 +12400,7 @@
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="str">
-        <f>B235&amp;"_"&amp;C235&amp;"_"&amp;E235</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_0CX4</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -11474,7 +12422,7 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="str">
-        <f>B236&amp;"_"&amp;C236&amp;"_"&amp;E236</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_0CX5</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -11496,7 +12444,7 @@
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="str">
-        <f>B237&amp;"_"&amp;C237&amp;"_"&amp;E237</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_0GT1</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -11518,7 +12466,7 @@
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="str">
-        <f>B238&amp;"_"&amp;C238&amp;"_"&amp;E238</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_0GT3</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -11540,7 +12488,7 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="str">
-        <f>B239&amp;"_"&amp;C239&amp;"_"&amp;E239</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_0GT5</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -11562,7 +12510,7 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="str">
-        <f>B240&amp;"_"&amp;C240&amp;"_"&amp;E240</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_0GT5</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -11584,7 +12532,7 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="str">
-        <f>B241&amp;"_"&amp;C241&amp;"_"&amp;E241</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_1GT36</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -11647,7 +12595,7 @@
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="str">
-        <f>B242&amp;"_"&amp;C242&amp;"_"&amp;E242</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_1GT37</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -11669,7 +12617,7 @@
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="str">
-        <f>B243&amp;"_"&amp;C243&amp;"_"&amp;E243</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_1GT42</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -11691,7 +12639,7 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="str">
-        <f>B244&amp;"_"&amp;C244&amp;"_"&amp;E244</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_1GT43</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -11713,7 +12661,7 @@
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="str">
-        <f>B245&amp;"_"&amp;C245&amp;"_"&amp;E245</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2CX10</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -11735,7 +12683,7 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="str">
-        <f>B246&amp;"_"&amp;C246&amp;"_"&amp;E246</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2CX11</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -11798,7 +12746,7 @@
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="str">
-        <f>B247&amp;"_"&amp;C247&amp;"_"&amp;E247</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2CX12</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -11820,7 +12768,7 @@
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="str">
-        <f>B248&amp;"_"&amp;C248&amp;"_"&amp;E248</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2CX13</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -11842,7 +12790,7 @@
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="str">
-        <f>B249&amp;"_"&amp;C249&amp;"_"&amp;E249</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2CX8</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -11864,7 +12812,7 @@
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="str">
-        <f>B250&amp;"_"&amp;C250&amp;"_"&amp;E250</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2GT10</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -11886,7 +12834,7 @@
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="str">
-        <f>B251&amp;"_"&amp;C251&amp;"_"&amp;E251</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2GT3</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -11908,7 +12856,7 @@
     </row>
     <row r="252" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="str">
-        <f>B252&amp;"_"&amp;C252&amp;"_"&amp;E252</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2GT30</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -11930,7 +12878,7 @@
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="str">
-        <f>B253&amp;"_"&amp;C253&amp;"_"&amp;E253</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2GT31</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -11952,7 +12900,7 @@
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="str">
-        <f>B254&amp;"_"&amp;C254&amp;"_"&amp;E254</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2GT38</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -12015,7 +12963,7 @@
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="str">
-        <f>B255&amp;"_"&amp;C255&amp;"_"&amp;E255</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2GT41</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -12037,7 +12985,7 @@
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="str">
-        <f>B256&amp;"_"&amp;C256&amp;"_"&amp;E256</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2GT7</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -12059,7 +13007,7 @@
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="str">
-        <f>B257&amp;"_"&amp;C257&amp;"_"&amp;E257</f>
+        <f t="shared" si="3"/>
         <v>OFRA_PS_2HS11</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -12081,7 +13029,7 @@
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="str">
-        <f>B258&amp;"_"&amp;C258&amp;"_"&amp;E258</f>
+        <f t="shared" ref="A258:A321" si="4">B258&amp;"_"&amp;C258&amp;"_"&amp;E258</f>
         <v>OFRA_PS_2HS17</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -12103,7 +13051,7 @@
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="str">
-        <f>B259&amp;"_"&amp;C259&amp;"_"&amp;E259</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_2HS27</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -12125,7 +13073,7 @@
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="str">
-        <f>B260&amp;"_"&amp;C260&amp;"_"&amp;E260</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_2HS9</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -12147,7 +13095,7 @@
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="str">
-        <f>B261&amp;"_"&amp;C261&amp;"_"&amp;E261</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_4CX12</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -12169,7 +13117,7 @@
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="str">
-        <f>B262&amp;"_"&amp;C262&amp;"_"&amp;E262</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_4HS13</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -12191,7 +13139,7 @@
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="str">
-        <f>B263&amp;"_"&amp;C263&amp;"_"&amp;E263</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_4HS15</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -12213,7 +13161,7 @@
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="str">
-        <f>B264&amp;"_"&amp;C264&amp;"_"&amp;E264</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_6CX18</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -12235,7 +13183,7 @@
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="str">
-        <f>B265&amp;"_"&amp;C265&amp;"_"&amp;E265</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_6EV18</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -12257,7 +13205,7 @@
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="str">
-        <f>B266&amp;"_"&amp;C266&amp;"_"&amp;E266</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_6GT17</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -12279,7 +13227,7 @@
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="str">
-        <f>B267&amp;"_"&amp;C267&amp;"_"&amp;E267</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_8CX24</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -12301,7 +13249,7 @@
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="str">
-        <f>B268&amp;"_"&amp;C268&amp;"_"&amp;E268</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_8HS21</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -12364,7 +13312,7 @@
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="str">
-        <f>B269&amp;"_"&amp;C269&amp;"_"&amp;E269</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_8HS23</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -12386,7 +13334,7 @@
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="str">
-        <f>B270&amp;"_"&amp;C270&amp;"_"&amp;E270</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_8HS24</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -12408,7 +13356,7 @@
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="str">
-        <f>B271&amp;"_"&amp;C271&amp;"_"&amp;E271</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_9CX5</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -12430,7 +13378,7 @@
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="str">
-        <f>B272&amp;"_"&amp;C272&amp;"_"&amp;E272</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_9CX6</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -12452,7 +13400,7 @@
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="str">
-        <f>B273&amp;"_"&amp;C273&amp;"_"&amp;E273</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_9GT30</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -12474,7 +13422,7 @@
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="str">
-        <f>B274&amp;"_"&amp;C274&amp;"_"&amp;E274</f>
+        <f t="shared" si="4"/>
         <v>OFRA_PS_9GT47</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -12496,7 +13444,7 @@
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="str">
-        <f>B275&amp;"_"&amp;C275&amp;"_"&amp;E275</f>
+        <f t="shared" si="4"/>
         <v>PRACTICE_30OA1_</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -12526,7 +13474,7 @@
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="str">
-        <f>B276&amp;"_"&amp;C276&amp;"_"&amp;E276</f>
+        <f t="shared" si="4"/>
         <v>PRACTICE_55SS1T_</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -12538,7 +13486,7 @@
       <c r="H276" s="8">
         <v>44510</v>
       </c>
-      <c r="I276" s="1">
+      <c r="I276" s="11">
         <v>13</v>
       </c>
       <c r="J276" s="1" t="s">
@@ -12553,7 +13501,7 @@
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="str">
-        <f>B277&amp;"_"&amp;C277&amp;"_"&amp;E277</f>
+        <f t="shared" si="4"/>
         <v>PRACTICE_Branching_Pavona_</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -12565,13 +13513,14 @@
       <c r="H277" s="8">
         <v>44601</v>
       </c>
+      <c r="I277" s="11"/>
       <c r="J277" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="str">
-        <f>B278&amp;"_"&amp;C278&amp;"_"&amp;E278</f>
+        <f t="shared" si="4"/>
         <v>PRACTICE_Green_Encrusting_Pavona_</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -12583,7 +13532,7 @@
       <c r="H278" s="8">
         <v>44586</v>
       </c>
-      <c r="I278" s="1">
+      <c r="I278" s="11">
         <v>10</v>
       </c>
       <c r="J278" s="1" t="s">
@@ -12598,7 +13547,7 @@
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="str">
-        <f>B279&amp;"_"&amp;C279&amp;"_"&amp;E279</f>
+        <f t="shared" si="4"/>
         <v>PRACTICE_Pagoda_Cup_</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -12610,7 +13559,7 @@
       <c r="H279" s="8">
         <v>44602</v>
       </c>
-      <c r="I279" s="1">
+      <c r="I279" s="11">
         <v>55</v>
       </c>
       <c r="J279" s="1" t="s">
@@ -12619,7 +13568,7 @@
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="str">
-        <f>B280&amp;"_"&amp;C280&amp;"_"&amp;E280</f>
+        <f t="shared" si="4"/>
         <v>PRACTICE_Tangerine_Leoptoseris_</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -12631,7 +13580,7 @@
       <c r="H280" s="8">
         <v>44610</v>
       </c>
-      <c r="I280" s="1">
+      <c r="I280" s="11">
         <v>22.5</v>
       </c>
       <c r="J280" s="1" t="s">

--- a/Transplants_Raw_Master.xlsx
+++ b/Transplants_Raw_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2760370-5AA9-1E49-84DE-0704CF75603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30169F84-24FF-FC44-8FE7-A38313621745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="24820" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="24820" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="204">
   <si>
     <t>Species</t>
   </si>
@@ -636,6 +636,18 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>HLE</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Some spilled when transferring homogenate</t>
   </si>
 </sst>
 </file>
@@ -1073,9 +1085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED04EC-AF48-A04F-A9D1-211D7C4EE961}">
   <dimension ref="A1:S282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q283" sqref="Q283"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K222" sqref="K222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12177,7 +12189,42 @@
       <c r="F190" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G190" s="6"/>
+      <c r="H190" s="13">
+        <v>44718</v>
+      </c>
+      <c r="I190" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K190" s="8">
+        <v>44718</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M190" s="1">
+        <v>9</v>
+      </c>
+      <c r="N190" s="1">
+        <v>10</v>
+      </c>
+      <c r="O190" s="1">
+        <v>11</v>
+      </c>
+      <c r="P190" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R190" s="8">
+        <v>44354</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="str">
@@ -12200,6 +12247,42 @@
         <v>9</v>
       </c>
       <c r="G191" s="6"/>
+      <c r="H191" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I191" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K191" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M191" s="1">
+        <v>9</v>
+      </c>
+      <c r="N191" s="1">
+        <v>10</v>
+      </c>
+      <c r="O191" s="1">
+        <v>11</v>
+      </c>
+      <c r="P191" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R191" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
@@ -12222,6 +12305,42 @@
         <v>9</v>
       </c>
       <c r="G192" s="6"/>
+      <c r="H192" s="8">
+        <v>44714</v>
+      </c>
+      <c r="I192" s="1">
+        <v>13</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K192" s="8">
+        <v>44714</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M192" s="1">
+        <v>9</v>
+      </c>
+      <c r="N192" s="1">
+        <v>10</v>
+      </c>
+      <c r="O192" s="1">
+        <v>11</v>
+      </c>
+      <c r="P192" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R192" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
@@ -12304,6 +12423,42 @@
         <v>9</v>
       </c>
       <c r="G194" s="6"/>
+      <c r="H194" s="8">
+        <v>44714</v>
+      </c>
+      <c r="I194" s="1">
+        <v>15</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K194" s="8">
+        <v>44714</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M194" s="1">
+        <v>9</v>
+      </c>
+      <c r="N194" s="1">
+        <v>10</v>
+      </c>
+      <c r="O194" s="1">
+        <v>11</v>
+      </c>
+      <c r="P194" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R194" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S194" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
@@ -12386,6 +12541,42 @@
         <v>41</v>
       </c>
       <c r="G196" s="6"/>
+      <c r="H196" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I196" s="1">
+        <v>17</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K196" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M196" s="1">
+        <v>9</v>
+      </c>
+      <c r="N196" s="1">
+        <v>10</v>
+      </c>
+      <c r="O196" s="1">
+        <v>11</v>
+      </c>
+      <c r="P196" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R196" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="str">
@@ -12408,6 +12599,42 @@
         <v>42</v>
       </c>
       <c r="G197" s="6"/>
+      <c r="H197" s="8">
+        <v>44713</v>
+      </c>
+      <c r="I197" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K197" s="8">
+        <v>44713</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M197" s="1">
+        <v>9</v>
+      </c>
+      <c r="N197" s="1">
+        <v>10</v>
+      </c>
+      <c r="O197" s="1">
+        <v>11</v>
+      </c>
+      <c r="P197" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R197" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="str">
@@ -12427,9 +12654,47 @@
         <v>93</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G198" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S198" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="str">
@@ -12452,6 +12717,42 @@
         <v>42</v>
       </c>
       <c r="G199" s="6"/>
+      <c r="H199" s="8">
+        <v>44706</v>
+      </c>
+      <c r="I199" s="1">
+        <v>19</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K199" s="8">
+        <v>44706</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M199" s="1">
+        <v>9</v>
+      </c>
+      <c r="N199" s="1">
+        <v>10</v>
+      </c>
+      <c r="O199" s="1">
+        <v>11</v>
+      </c>
+      <c r="P199" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R199" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="str">
@@ -12654,6 +12955,42 @@
         <v>41</v>
       </c>
       <c r="G203" s="6"/>
+      <c r="H203" s="8">
+        <v>44705</v>
+      </c>
+      <c r="I203" s="1">
+        <v>15</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K203" s="8">
+        <v>44705</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M203" s="1">
+        <v>9</v>
+      </c>
+      <c r="N203" s="1">
+        <v>10</v>
+      </c>
+      <c r="O203" s="1">
+        <v>11</v>
+      </c>
+      <c r="P203" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R203" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S203" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="str">
@@ -12676,6 +13013,42 @@
         <v>42</v>
       </c>
       <c r="G204" s="6"/>
+      <c r="H204" s="8">
+        <v>44714</v>
+      </c>
+      <c r="I204" s="1">
+        <v>13</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K204" s="8">
+        <v>44714</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M204" s="1">
+        <v>9</v>
+      </c>
+      <c r="N204" s="1">
+        <v>10</v>
+      </c>
+      <c r="O204" s="1">
+        <v>11</v>
+      </c>
+      <c r="P204" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q204" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R204" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S204" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="str">
@@ -12818,6 +13191,42 @@
         <v>9</v>
       </c>
       <c r="G207" s="6"/>
+      <c r="H207" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I207" s="1">
+        <v>18</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K207" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M207" s="1">
+        <v>9</v>
+      </c>
+      <c r="N207" s="1">
+        <v>10</v>
+      </c>
+      <c r="O207" s="1">
+        <v>11</v>
+      </c>
+      <c r="P207" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R207" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S207" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="str">
@@ -12840,6 +13249,42 @@
         <v>41</v>
       </c>
       <c r="G208" s="6"/>
+      <c r="H208" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I208" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K208" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M208" s="1">
+        <v>9</v>
+      </c>
+      <c r="N208" s="1">
+        <v>10</v>
+      </c>
+      <c r="O208" s="1">
+        <v>11</v>
+      </c>
+      <c r="P208" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R208" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S208" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="str">
@@ -12862,6 +13307,42 @@
         <v>42</v>
       </c>
       <c r="G209" s="6"/>
+      <c r="H209" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I209" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K209" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M209" s="1">
+        <v>9</v>
+      </c>
+      <c r="N209" s="1">
+        <v>10</v>
+      </c>
+      <c r="O209" s="1">
+        <v>11</v>
+      </c>
+      <c r="P209" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R209" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="str">
@@ -12944,6 +13425,42 @@
         <v>9</v>
       </c>
       <c r="G211" s="6"/>
+      <c r="H211" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I211" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K211" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M211" s="1">
+        <v>9</v>
+      </c>
+      <c r="N211" s="1">
+        <v>10</v>
+      </c>
+      <c r="O211" s="1">
+        <v>11</v>
+      </c>
+      <c r="P211" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R211" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S211" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="str">
@@ -12966,6 +13483,42 @@
         <v>41</v>
       </c>
       <c r="G212" s="6"/>
+      <c r="H212" s="8">
+        <v>44714</v>
+      </c>
+      <c r="I212" s="1">
+        <v>10</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K212" s="8">
+        <v>44714</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M212" s="1">
+        <v>9</v>
+      </c>
+      <c r="N212" s="1">
+        <v>10</v>
+      </c>
+      <c r="O212" s="1">
+        <v>11</v>
+      </c>
+      <c r="P212" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q212" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R212" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S212" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="str">
@@ -12988,6 +13541,42 @@
         <v>42</v>
       </c>
       <c r="G213" s="6"/>
+      <c r="H213" s="8">
+        <v>44718</v>
+      </c>
+      <c r="I213" s="1">
+        <v>13</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K213" s="8">
+        <v>44718</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M213" s="1">
+        <v>9</v>
+      </c>
+      <c r="N213" s="1">
+        <v>10</v>
+      </c>
+      <c r="O213" s="1">
+        <v>11</v>
+      </c>
+      <c r="P213" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R213" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S213" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="str">
@@ -13010,6 +13599,42 @@
         <v>41</v>
       </c>
       <c r="G214" s="6"/>
+      <c r="H214" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I214" s="1">
+        <v>15</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K214" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M214" s="1">
+        <v>9</v>
+      </c>
+      <c r="N214" s="1">
+        <v>10</v>
+      </c>
+      <c r="O214" s="1">
+        <v>11</v>
+      </c>
+      <c r="P214" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R214" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="str">
@@ -13032,6 +13657,42 @@
         <v>42</v>
       </c>
       <c r="G215" s="6"/>
+      <c r="H215" s="8">
+        <v>44714</v>
+      </c>
+      <c r="I215" s="1">
+        <v>15</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K215" s="8">
+        <v>44714</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M215" s="1">
+        <v>9</v>
+      </c>
+      <c r="N215" s="1">
+        <v>10</v>
+      </c>
+      <c r="O215" s="1">
+        <v>11</v>
+      </c>
+      <c r="P215" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R215" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="str">
@@ -13054,6 +13715,42 @@
         <v>9</v>
       </c>
       <c r="G216" s="6"/>
+      <c r="H216" s="8">
+        <v>44718</v>
+      </c>
+      <c r="I216" s="1">
+        <v>12</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K216" s="8">
+        <v>44718</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M216" s="1">
+        <v>9</v>
+      </c>
+      <c r="N216" s="1">
+        <v>10</v>
+      </c>
+      <c r="O216" s="1">
+        <v>11</v>
+      </c>
+      <c r="P216" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R216" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S216" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="str">
@@ -13076,6 +13773,42 @@
         <v>41</v>
       </c>
       <c r="G217" s="6"/>
+      <c r="H217" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I217" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K217" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M217" s="1">
+        <v>9</v>
+      </c>
+      <c r="N217" s="1">
+        <v>10</v>
+      </c>
+      <c r="O217" s="1">
+        <v>11</v>
+      </c>
+      <c r="P217" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R217" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S217" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="str">
@@ -13098,6 +13831,42 @@
         <v>42</v>
       </c>
       <c r="G218" s="6"/>
+      <c r="H218" s="8">
+        <v>44706</v>
+      </c>
+      <c r="I218" s="1">
+        <v>12</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K218" s="8">
+        <v>44706</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M218" s="1">
+        <v>9</v>
+      </c>
+      <c r="N218" s="1">
+        <v>10</v>
+      </c>
+      <c r="O218" s="1">
+        <v>11</v>
+      </c>
+      <c r="P218" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R218" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S218" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="str">
@@ -13120,6 +13889,42 @@
         <v>9</v>
       </c>
       <c r="G219" s="6"/>
+      <c r="H219" s="8">
+        <v>44714</v>
+      </c>
+      <c r="I219" s="1">
+        <v>14</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K219" s="8">
+        <v>44714</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M219" s="1">
+        <v>9</v>
+      </c>
+      <c r="N219" s="1">
+        <v>10</v>
+      </c>
+      <c r="O219" s="1">
+        <v>11</v>
+      </c>
+      <c r="P219" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R219" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S219" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="str">
@@ -13142,6 +13947,42 @@
         <v>41</v>
       </c>
       <c r="G220" s="6"/>
+      <c r="H220" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I220" s="1">
+        <v>15</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K220" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M220" s="1">
+        <v>9</v>
+      </c>
+      <c r="N220" s="1">
+        <v>10</v>
+      </c>
+      <c r="O220" s="1">
+        <v>11</v>
+      </c>
+      <c r="P220" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R220" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S220" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="str">
@@ -13164,6 +14005,42 @@
         <v>42</v>
       </c>
       <c r="G221" s="6"/>
+      <c r="H221" s="8">
+        <v>44706</v>
+      </c>
+      <c r="I221" s="1">
+        <v>20</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K221" s="8">
+        <v>44706</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M221" s="1">
+        <v>9</v>
+      </c>
+      <c r="N221" s="1">
+        <v>10</v>
+      </c>
+      <c r="O221" s="1">
+        <v>11</v>
+      </c>
+      <c r="P221" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R221" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S221" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="str">
@@ -13186,6 +14063,42 @@
         <v>40</v>
       </c>
       <c r="G222" s="6"/>
+      <c r="H222" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I222" s="1">
+        <v>18</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K222" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M222" s="1">
+        <v>9</v>
+      </c>
+      <c r="N222" s="1">
+        <v>10</v>
+      </c>
+      <c r="O222" s="1">
+        <v>11</v>
+      </c>
+      <c r="P222" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R222" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S222" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="str">
@@ -13268,6 +14181,42 @@
         <v>9</v>
       </c>
       <c r="G224" s="6"/>
+      <c r="H224" s="8">
+        <v>44706</v>
+      </c>
+      <c r="I224" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K224" s="8">
+        <v>44706</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M224" s="1">
+        <v>9</v>
+      </c>
+      <c r="N224" s="1">
+        <v>10</v>
+      </c>
+      <c r="O224" s="1">
+        <v>11</v>
+      </c>
+      <c r="P224" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R224" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S224" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="str">
@@ -13350,6 +14299,42 @@
         <v>9</v>
       </c>
       <c r="G226" s="6"/>
+      <c r="H226" s="8">
+        <v>44718</v>
+      </c>
+      <c r="I226" s="1">
+        <v>15</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K226" s="8">
+        <v>44718</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M226" s="1">
+        <v>9</v>
+      </c>
+      <c r="N226" s="1">
+        <v>10</v>
+      </c>
+      <c r="O226" s="1">
+        <v>11</v>
+      </c>
+      <c r="P226" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R226" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S226" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="str">
@@ -13372,6 +14357,42 @@
         <v>9</v>
       </c>
       <c r="G227" s="6"/>
+      <c r="H227" s="8">
+        <v>44706</v>
+      </c>
+      <c r="I227" s="1">
+        <v>14</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K227" s="8">
+        <v>44706</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M227" s="1">
+        <v>9</v>
+      </c>
+      <c r="N227" s="1">
+        <v>10</v>
+      </c>
+      <c r="O227" s="1">
+        <v>11</v>
+      </c>
+      <c r="P227" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R227" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S227" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="str">
@@ -13394,6 +14415,42 @@
         <v>9</v>
       </c>
       <c r="G228" s="6"/>
+      <c r="H228" s="8">
+        <v>44714</v>
+      </c>
+      <c r="I228" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K228" s="8">
+        <v>44714</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M228" s="1">
+        <v>9</v>
+      </c>
+      <c r="N228" s="1">
+        <v>10</v>
+      </c>
+      <c r="O228" s="1">
+        <v>11</v>
+      </c>
+      <c r="P228" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R228" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S228" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="str">
@@ -13416,6 +14473,42 @@
         <v>9</v>
       </c>
       <c r="G229" s="6"/>
+      <c r="H229" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I229" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K229" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M229" s="1">
+        <v>9</v>
+      </c>
+      <c r="N229" s="1">
+        <v>10</v>
+      </c>
+      <c r="O229" s="1">
+        <v>11</v>
+      </c>
+      <c r="P229" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R229" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S229" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="str">
@@ -13438,6 +14531,42 @@
         <v>9</v>
       </c>
       <c r="G230" s="6"/>
+      <c r="H230" s="8">
+        <v>44718</v>
+      </c>
+      <c r="I230" s="1">
+        <v>12</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K230" s="8">
+        <v>44718</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M230" s="1">
+        <v>9</v>
+      </c>
+      <c r="N230" s="1">
+        <v>10</v>
+      </c>
+      <c r="O230" s="1">
+        <v>11</v>
+      </c>
+      <c r="P230" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R230" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S230" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="str">
@@ -13460,6 +14589,42 @@
         <v>9</v>
       </c>
       <c r="G231" s="6"/>
+      <c r="H231" s="8">
+        <v>44713</v>
+      </c>
+      <c r="I231" s="1">
+        <v>18</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K231" s="8">
+        <v>44713</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M231" s="1">
+        <v>9</v>
+      </c>
+      <c r="N231" s="1">
+        <v>10</v>
+      </c>
+      <c r="O231" s="1">
+        <v>11</v>
+      </c>
+      <c r="P231" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R231" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S231" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="str">
@@ -13481,7 +14646,45 @@
       <c r="F232" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G232" s="6"/>
+      <c r="G232" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H232" s="8">
+        <v>44698</v>
+      </c>
+      <c r="I232" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K232" s="8">
+        <v>44698</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M232" s="1">
+        <v>9</v>
+      </c>
+      <c r="N232" s="1">
+        <v>10</v>
+      </c>
+      <c r="O232" s="1">
+        <v>11</v>
+      </c>
+      <c r="P232" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R232" s="8">
+        <v>44706</v>
+      </c>
+      <c r="S232" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="str">
@@ -13504,6 +14707,42 @@
         <v>42</v>
       </c>
       <c r="G233" s="6"/>
+      <c r="H233" s="8">
+        <v>44714</v>
+      </c>
+      <c r="I233" s="1">
+        <v>11</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K233" s="8">
+        <v>44714</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M233" s="1">
+        <v>9</v>
+      </c>
+      <c r="N233" s="1">
+        <v>10</v>
+      </c>
+      <c r="O233" s="1">
+        <v>11</v>
+      </c>
+      <c r="P233" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R233" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S233" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="str">
@@ -13586,6 +14825,42 @@
         <v>41</v>
       </c>
       <c r="G235" s="6"/>
+      <c r="H235" s="8">
+        <v>44706</v>
+      </c>
+      <c r="I235" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K235" s="8">
+        <v>44706</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M235" s="1">
+        <v>9</v>
+      </c>
+      <c r="N235" s="1">
+        <v>10</v>
+      </c>
+      <c r="O235" s="1">
+        <v>11</v>
+      </c>
+      <c r="P235" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R235" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S235" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="str">
@@ -13608,6 +14883,42 @@
         <v>42</v>
       </c>
       <c r="G236" s="6"/>
+      <c r="H236" s="8">
+        <v>44714</v>
+      </c>
+      <c r="I236" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K236" s="8">
+        <v>44714</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M236" s="1">
+        <v>9</v>
+      </c>
+      <c r="N236" s="1">
+        <v>10</v>
+      </c>
+      <c r="O236" s="1">
+        <v>11</v>
+      </c>
+      <c r="P236" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R236" s="8">
+        <v>44719</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="str">
@@ -14835,7 +16146,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="str">
-        <f t="shared" ref="A258:A321" si="4">B258&amp;"_"&amp;C258&amp;"_"&amp;E258</f>
+        <f t="shared" ref="A258:A282" si="4">B258&amp;"_"&amp;C258&amp;"_"&amp;E258</f>
         <v>OFRA_PS_2GT7</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -16114,7 +17425,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Transplants_Raw_Master.xlsx
+++ b/Transplants_Raw_Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F219B82-5328-F547-9A3C-31E8BD603869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39072D85-68A3-5043-96FF-8407585258CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="24820" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
+    <workbookView xWindow="6380" yWindow="500" windowWidth="24820" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -1076,9 +1076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED04EC-AF48-A04F-A9D1-211D7C4EE961}">
   <dimension ref="A1:S282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F189" activeCellId="1" sqref="A147:A189 F147:F189"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>B2&amp;"_"&amp;C2&amp;"_"&amp;E2</f>
+        <f t="shared" ref="A2:A33" si="0">B2&amp;"_"&amp;C2&amp;"_"&amp;E2</f>
         <v>OFAV_PP_0GT1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1221,7 +1221,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>B3&amp;"_"&amp;C3&amp;"_"&amp;E3</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_0HS3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1279,7 +1279,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>B4&amp;"_"&amp;C4&amp;"_"&amp;E4</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_0HS4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1337,7 +1337,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>B5&amp;"_"&amp;C5&amp;"_"&amp;E5</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_2HS12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>B6&amp;"_"&amp;C6&amp;"_"&amp;E6</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_2HS2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1453,7 +1453,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>B7&amp;"_"&amp;C7&amp;"_"&amp;E7</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_2HS48</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1511,7 +1511,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>B8&amp;"_"&amp;C8&amp;"_"&amp;E8</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_2HS6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1569,7 +1569,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>B9&amp;"_"&amp;C9&amp;"_"&amp;E9</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_310</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1627,7 +1627,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f>B10&amp;"_"&amp;C10&amp;"_"&amp;E10</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_313</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1685,7 +1685,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
-        <f>B11&amp;"_"&amp;C11&amp;"_"&amp;E11</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_352</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1743,7 +1743,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
-        <f>B12&amp;"_"&amp;C12&amp;"_"&amp;E12</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_356</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1801,7 +1801,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
-        <f>B13&amp;"_"&amp;C13&amp;"_"&amp;E13</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_357</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1859,7 +1859,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
-        <f>B14&amp;"_"&amp;C14&amp;"_"&amp;E14</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_358</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1917,7 +1917,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
-        <f>B15&amp;"_"&amp;C15&amp;"_"&amp;E15</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_359</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
-        <f>B16&amp;"_"&amp;C16&amp;"_"&amp;E16</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_360</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2033,7 +2033,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
-        <f>B17&amp;"_"&amp;C17&amp;"_"&amp;E17</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_362</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2091,7 +2091,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f>B18&amp;"_"&amp;C18&amp;"_"&amp;E18</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_365</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2149,7 +2149,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
-        <f>B19&amp;"_"&amp;C19&amp;"_"&amp;E19</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_366</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2207,7 +2207,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
-        <f>B20&amp;"_"&amp;C20&amp;"_"&amp;E20</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_367</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2265,7 +2265,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f>B21&amp;"_"&amp;C21&amp;"_"&amp;E21</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_368</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2323,7 +2323,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
-        <f>B22&amp;"_"&amp;C22&amp;"_"&amp;E22</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_369</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
-        <f>B23&amp;"_"&amp;C23&amp;"_"&amp;E23</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_370</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2441,7 +2441,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
-        <f>B24&amp;"_"&amp;C24&amp;"_"&amp;E24</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_371</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2499,7 +2499,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
-        <f>B25&amp;"_"&amp;C25&amp;"_"&amp;E25</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9AZ2</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2559,7 +2559,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
-        <f>B26&amp;"_"&amp;C26&amp;"_"&amp;E26</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9AZ5</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2617,7 +2617,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
-        <f>B27&amp;"_"&amp;C27&amp;"_"&amp;E27</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9AZ9</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2675,7 +2675,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
-        <f>B28&amp;"_"&amp;C28&amp;"_"&amp;E28</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9EV35</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2733,7 +2733,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
-        <f>B29&amp;"_"&amp;C29&amp;"_"&amp;E29</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9EV4</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2791,7 +2791,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
-        <f>B30&amp;"_"&amp;C30&amp;"_"&amp;E30</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9EV40</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2849,7 +2849,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
-        <f>B31&amp;"_"&amp;C31&amp;"_"&amp;E31</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9EV5</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2907,7 +2907,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
-        <f>B32&amp;"_"&amp;C32&amp;"_"&amp;E32</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9GT35</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2965,7 +2965,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f>B33&amp;"_"&amp;C33&amp;"_"&amp;E33</f>
+        <f t="shared" si="0"/>
         <v>OFAV_PP_9GT4</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3023,7 +3023,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
-        <f>B34&amp;"_"&amp;C34&amp;"_"&amp;E34</f>
+        <f t="shared" ref="A34:A65" si="1">B34&amp;"_"&amp;C34&amp;"_"&amp;E34</f>
         <v>OFAV_PP_9GT46</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3081,7 +3081,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
-        <f>B35&amp;"_"&amp;C35&amp;"_"&amp;E35</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PP_9IR44</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3139,7 +3139,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
-        <f>B36&amp;"_"&amp;C36&amp;"_"&amp;E36</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PP_9JQ4</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3197,7 +3197,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
-        <f>B37&amp;"_"&amp;C37&amp;"_"&amp;E37</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PP_9JQ42</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3255,7 +3255,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
-        <f>B38&amp;"_"&amp;C38&amp;"_"&amp;E38</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PP_9JQ43</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3313,7 +3313,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
-        <f>B39&amp;"_"&amp;C39&amp;"_"&amp;E39</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PP_9JQ431</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3373,7 +3373,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
-        <f>B40&amp;"_"&amp;C40&amp;"_"&amp;E40</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PP_9JQ53</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3431,7 +3431,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
-        <f>B41&amp;"_"&amp;C41&amp;"_"&amp;E41</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PP_AZ</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3489,7 +3489,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
-        <f>B42&amp;"_"&amp;C42&amp;"_"&amp;E42</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PP_CX</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3547,7 +3547,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
-        <f>B43&amp;"_"&amp;C43&amp;"_"&amp;E43</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PP_DW</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3605,7 +3605,7 @@
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
-        <f>B44&amp;"_"&amp;C44&amp;"_"&amp;E44</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_0HS3</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3663,7 +3663,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
-        <f>B45&amp;"_"&amp;C45&amp;"_"&amp;E45</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_0HS4</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3721,7 +3721,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f>B46&amp;"_"&amp;C46&amp;"_"&amp;E46</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_2HS12</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3779,7 +3779,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
-        <f>B47&amp;"_"&amp;C47&amp;"_"&amp;E47</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_2HS2</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3839,7 +3839,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
-        <f>B48&amp;"_"&amp;C48&amp;"_"&amp;E48</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_2HS48</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3897,7 +3897,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
-        <f>B49&amp;"_"&amp;C49&amp;"_"&amp;E49</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_2HS6</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3955,7 +3955,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
-        <f>B50&amp;"_"&amp;C50&amp;"_"&amp;E50</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_310</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4013,7 +4013,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
-        <f>B51&amp;"_"&amp;C51&amp;"_"&amp;E51</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_313</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4071,7 +4071,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
-        <f>B52&amp;"_"&amp;C52&amp;"_"&amp;E52</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_352</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4129,7 +4129,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
-        <f>B53&amp;"_"&amp;C53&amp;"_"&amp;E53</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_356</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4187,7 +4187,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
-        <f>B54&amp;"_"&amp;C54&amp;"_"&amp;E54</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_357</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4245,7 +4245,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
-        <f>B55&amp;"_"&amp;C55&amp;"_"&amp;E55</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_358</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4305,7 +4305,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
-        <f>B56&amp;"_"&amp;C56&amp;"_"&amp;E56</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_359</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4363,7 +4363,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
-        <f>B57&amp;"_"&amp;C57&amp;"_"&amp;E57</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_360</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4421,7 +4421,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
-        <f>B58&amp;"_"&amp;C58&amp;"_"&amp;E58</f>
+        <f t="shared" si="1"/>
         <v>OFAV_PS_362</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4595,7 +4595,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
-        <f>B61&amp;"_"&amp;C61&amp;"_"&amp;E61</f>
+        <f t="shared" ref="A61:A90" si="2">B61&amp;"_"&amp;C61&amp;"_"&amp;E61</f>
         <v>OFAV_PS_366</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4655,7 +4655,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
-        <f>B62&amp;"_"&amp;C62&amp;"_"&amp;E62</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_367</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4713,7 +4713,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
-        <f>B63&amp;"_"&amp;C63&amp;"_"&amp;E63</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_368</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -4771,7 +4771,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
-        <f>B64&amp;"_"&amp;C64&amp;"_"&amp;E64</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_369</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4829,7 +4829,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
-        <f>B65&amp;"_"&amp;C65&amp;"_"&amp;E65</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_370</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4887,7 +4887,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f>B66&amp;"_"&amp;C66&amp;"_"&amp;E66</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_371</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4945,7 +4945,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
-        <f>B67&amp;"_"&amp;C67&amp;"_"&amp;E67</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9AZ2</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -5005,7 +5005,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
-        <f>B68&amp;"_"&amp;C68&amp;"_"&amp;E68</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9AZ5</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -5063,7 +5063,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
-        <f>B69&amp;"_"&amp;C69&amp;"_"&amp;E69</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9AZ9</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -5121,7 +5121,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
-        <f>B70&amp;"_"&amp;C70&amp;"_"&amp;E70</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9EV35</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5179,7 +5179,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
-        <f>B71&amp;"_"&amp;C71&amp;"_"&amp;E71</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9EV4</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -5239,7 +5239,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
-        <f>B72&amp;"_"&amp;C72&amp;"_"&amp;E72</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9EV40</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -5297,7 +5297,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
-        <f>B73&amp;"_"&amp;C73&amp;"_"&amp;E73</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9EV5</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -5355,7 +5355,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
-        <f>B74&amp;"_"&amp;C74&amp;"_"&amp;E74</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9GT35</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -5413,7 +5413,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
-        <f>B75&amp;"_"&amp;C75&amp;"_"&amp;E75</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9GT4</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -5471,7 +5471,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
-        <f>B76&amp;"_"&amp;C76&amp;"_"&amp;E76</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9GT46</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -5529,7 +5529,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
-        <f>B77&amp;"_"&amp;C77&amp;"_"&amp;E77</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9IR44</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -5587,7 +5587,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
-        <f>B78&amp;"_"&amp;C78&amp;"_"&amp;E78</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9JQ4</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -5645,7 +5645,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
-        <f>B79&amp;"_"&amp;C79&amp;"_"&amp;E79</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9JQ42</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -5703,7 +5703,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
-        <f>B80&amp;"_"&amp;C80&amp;"_"&amp;E80</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9JQ431</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -5761,7 +5761,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
-        <f>B81&amp;"_"&amp;C81&amp;"_"&amp;E81</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_9JQ53</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -5819,7 +5819,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
-        <f>B82&amp;"_"&amp;C82&amp;"_"&amp;E82</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_AZ</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -5877,7 +5877,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
-        <f>B83&amp;"_"&amp;C83&amp;"_"&amp;E83</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_CX</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -5935,7 +5935,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
-        <f>B84&amp;"_"&amp;C84&amp;"_"&amp;E84</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_DW</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -5993,7 +5993,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
-        <f>B85&amp;"_"&amp;C85&amp;"_"&amp;E85</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_EV</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -6051,7 +6051,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
-        <f>B86&amp;"_"&amp;C86&amp;"_"&amp;E86</f>
+        <f t="shared" si="2"/>
         <v>OFAV_PS_OHS2</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -6109,7 +6109,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
-        <f>B87&amp;"_"&amp;C87&amp;"_"&amp;E87</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_0AZ24</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -6167,7 +6167,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
-        <f>B88&amp;"_"&amp;C88&amp;"_"&amp;E88</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_0AZ4</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -6225,7 +6225,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
-        <f>B89&amp;"_"&amp;C89&amp;"_"&amp;E89</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_0DW46</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -6285,7 +6285,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
-        <f>B90&amp;"_"&amp;C90&amp;"_"&amp;E90</f>
+        <f t="shared" si="2"/>
         <v>OFAV_SP_0EV1</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -6989,7 +6989,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="str">
-        <f>B102&amp;"_"&amp;C102&amp;"_"&amp;E102</f>
+        <f t="shared" ref="A102:A111" si="3">B102&amp;"_"&amp;C102&amp;"_"&amp;E102</f>
         <v>OFAV_SP_2DW40</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -7049,7 +7049,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="str">
-        <f>B103&amp;"_"&amp;C103&amp;"_"&amp;E103</f>
+        <f t="shared" si="3"/>
         <v>OFAV_SP_2DW44</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -7109,7 +7109,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="str">
-        <f>B104&amp;"_"&amp;C104&amp;"_"&amp;E104</f>
+        <f t="shared" si="3"/>
         <v>OFAV_SP_2EV10</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -7169,7 +7169,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="str">
-        <f>B105&amp;"_"&amp;C105&amp;"_"&amp;E105</f>
+        <f t="shared" si="3"/>
         <v>OFAV_SP_2EV3</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -7229,7 +7229,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="str">
-        <f>B106&amp;"_"&amp;C106&amp;"_"&amp;E106</f>
+        <f t="shared" si="3"/>
         <v>OFAV_SP_2EV30</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -7289,7 +7289,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="str">
-        <f>B107&amp;"_"&amp;C107&amp;"_"&amp;E107</f>
+        <f t="shared" si="3"/>
         <v>OFAV_SP_2EV34</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -7349,7 +7349,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="str">
-        <f>B108&amp;"_"&amp;C108&amp;"_"&amp;E108</f>
+        <f t="shared" si="3"/>
         <v>OFAV_SP_2EV36</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -7409,7 +7409,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="str">
-        <f>B109&amp;"_"&amp;C109&amp;"_"&amp;E109</f>
+        <f t="shared" si="3"/>
         <v>OFAV_SP_2EV44</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -7469,7 +7469,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="str">
-        <f>B110&amp;"_"&amp;C110&amp;"_"&amp;E110</f>
+        <f t="shared" si="3"/>
         <v>OFAV_SP_2EV6</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -7529,7 +7529,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="str">
-        <f>B111&amp;"_"&amp;C111&amp;"_"&amp;E111</f>
+        <f t="shared" si="3"/>
         <v>OFAV_SP_2GT7</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -7941,7 +7941,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
-        <f>B118&amp;"_"&amp;C118&amp;"_"&amp;E118&amp;"_"&amp;F118</f>
+        <f t="shared" ref="A118:A126" si="4">B118&amp;"_"&amp;C118&amp;"_"&amp;E118&amp;"_"&amp;F118</f>
         <v>OFAV_SP_3EV30_P1</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -7999,7 +7999,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
-        <f>B119&amp;"_"&amp;C119&amp;"_"&amp;E119&amp;"_"&amp;F119</f>
+        <f t="shared" si="4"/>
         <v>OFAV_SP_3EV30_P2</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -8057,7 +8057,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
-        <f>B120&amp;"_"&amp;C120&amp;"_"&amp;E120&amp;"_"&amp;F120</f>
+        <f t="shared" si="4"/>
         <v>OFAV_SP_3EV30_P3</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -8115,7 +8115,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
-        <f>B121&amp;"_"&amp;C121&amp;"_"&amp;E121&amp;"_"&amp;F121</f>
+        <f t="shared" si="4"/>
         <v>OFAV_SP_3EV30_P4</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -8172,7 +8172,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
-        <f>B122&amp;"_"&amp;C122&amp;"_"&amp;E122&amp;"_"&amp;F122</f>
+        <f t="shared" si="4"/>
         <v>OFAV_SP_3EV31_P3</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -8230,7 +8230,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
-        <f>B123&amp;"_"&amp;C123&amp;"_"&amp;E123&amp;"_"&amp;F123</f>
+        <f t="shared" si="4"/>
         <v>OFAV_SP_3JQ1_P1</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -8288,7 +8288,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
-        <f>B124&amp;"_"&amp;C124&amp;"_"&amp;E124&amp;"_"&amp;F124</f>
+        <f t="shared" si="4"/>
         <v>OFAV_SP_3JQ1_P2</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -8346,7 +8346,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
-        <f>B125&amp;"_"&amp;C125&amp;"_"&amp;E125&amp;"_"&amp;F125</f>
+        <f t="shared" si="4"/>
         <v>OFAV_SP_3JQ1_P3</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -8404,7 +8404,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
-        <f>B126&amp;"_"&amp;C126&amp;"_"&amp;E126&amp;"_"&amp;F126</f>
+        <f t="shared" si="4"/>
         <v>OFAV_SP_3JQ1_P4</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -8462,7 +8462,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
-        <f>B127&amp;"_"&amp;C127&amp;"_"&amp;E127</f>
+        <f t="shared" ref="A127:A154" si="5">B127&amp;"_"&amp;C127&amp;"_"&amp;E127</f>
         <v>OFAV_SP_3JQ10</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -8520,7 +8520,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
-        <f>B128&amp;"_"&amp;C128&amp;"_"&amp;E128</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_4DW11</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -8578,7 +8578,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
-        <f>B129&amp;"_"&amp;C129&amp;"_"&amp;E129</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_4DW14</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -8638,7 +8638,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="str">
-        <f>B130&amp;"_"&amp;C130&amp;"_"&amp;E130</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_4EV1</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -8698,7 +8698,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
-        <f>B131&amp;"_"&amp;C131&amp;"_"&amp;E131</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_4EV14</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -8758,7 +8758,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="str">
-        <f>B132&amp;"_"&amp;C132&amp;"_"&amp;E132</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_4EV15</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -8816,7 +8816,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="str">
-        <f>B133&amp;"_"&amp;C133&amp;"_"&amp;E133</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_4JQ12</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -8876,7 +8876,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="str">
-        <f>B134&amp;"_"&amp;C134&amp;"_"&amp;E134</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_6JQ16</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -8934,7 +8934,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="str">
-        <f>B135&amp;"_"&amp;C135&amp;"_"&amp;E135</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_8EV24</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -8992,7 +8992,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="str">
-        <f>B136&amp;"_"&amp;C136&amp;"_"&amp;E136</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_9AZ10</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -9052,7 +9052,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="str">
-        <f>B137&amp;"_"&amp;C137&amp;"_"&amp;E137</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_9AZ7</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -9112,7 +9112,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="str">
-        <f>B138&amp;"_"&amp;C138&amp;"_"&amp;E138</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_9AZ81</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -9172,7 +9172,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="str">
-        <f>B139&amp;"_"&amp;C139&amp;"_"&amp;E139</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_9DW32</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -9232,7 +9232,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="str">
-        <f>B140&amp;"_"&amp;C140&amp;"_"&amp;E140</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_9DW37</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -9292,7 +9292,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="str">
-        <f>B141&amp;"_"&amp;C141&amp;"_"&amp;E141</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_9EV2</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -9350,7 +9350,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="str">
-        <f>B142&amp;"_"&amp;C142&amp;"_"&amp;E142</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_9EV41</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -9410,7 +9410,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="str">
-        <f>B143&amp;"_"&amp;C143&amp;"_"&amp;E143</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_9JQ5</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -9470,7 +9470,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="str">
-        <f>B144&amp;"_"&amp;C144&amp;"_"&amp;E144</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_DEV35</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -9528,7 +9528,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="str">
-        <f>B145&amp;"_"&amp;C145&amp;"_"&amp;E145</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_EV</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -9586,7 +9586,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="str">
-        <f>B146&amp;"_"&amp;C146&amp;"_"&amp;E146</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SP_JQ1</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -9646,7 +9646,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="str">
-        <f>B147&amp;"_"&amp;C147&amp;"_"&amp;E147</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SS_0AZ4</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -9704,7 +9704,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="str">
-        <f>B148&amp;"_"&amp;C148&amp;"_"&amp;E148</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SS_0DW46</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -9762,7 +9762,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="str">
-        <f>B149&amp;"_"&amp;C149&amp;"_"&amp;E149</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SS_0EV1</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -9822,7 +9822,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="str">
-        <f>B150&amp;"_"&amp;C150&amp;"_"&amp;E150</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SS_0EV3</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -9880,7 +9880,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="str">
-        <f>B151&amp;"_"&amp;C151&amp;"_"&amp;E151</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SS_1AZ5</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -9940,7 +9940,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="str">
-        <f>B152&amp;"_"&amp;C152&amp;"_"&amp;E152</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SS_2AZ2</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -9998,7 +9998,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="str">
-        <f>B153&amp;"_"&amp;C153&amp;"_"&amp;E153</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SS_2AZ21</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -10056,7 +10056,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="str">
-        <f>B154&amp;"_"&amp;C154&amp;"_"&amp;E154</f>
+        <f t="shared" si="5"/>
         <v>OFAV_SS_2AZ3</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -10232,7 +10232,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="str">
-        <f>B157&amp;"_"&amp;C157&amp;"_"&amp;E157</f>
+        <f t="shared" ref="A157:A170" si="6">B157&amp;"_"&amp;C157&amp;"_"&amp;E157</f>
         <v>OFAV_SS_2DW40</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -10290,7 +10290,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="str">
-        <f>B158&amp;"_"&amp;C158&amp;"_"&amp;E158</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2DW44</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -10348,7 +10348,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="str">
-        <f>B159&amp;"_"&amp;C159&amp;"_"&amp;E159</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2EV10</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -10406,7 +10406,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="str">
-        <f>B160&amp;"_"&amp;C160&amp;"_"&amp;E160</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2EV3</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -10464,7 +10464,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="str">
-        <f>B161&amp;"_"&amp;C161&amp;"_"&amp;E161</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2EV30</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -10522,7 +10522,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="str">
-        <f>B162&amp;"_"&amp;C162&amp;"_"&amp;E162</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2EV34</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -10580,7 +10580,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="str">
-        <f>B163&amp;"_"&amp;C163&amp;"_"&amp;E163</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2EV36</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -10638,7 +10638,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="str">
-        <f>B164&amp;"_"&amp;C164&amp;"_"&amp;E164</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2EV44</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -10696,7 +10696,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="str">
-        <f>B165&amp;"_"&amp;C165&amp;"_"&amp;E165</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2EV6</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -10754,7 +10754,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="str">
-        <f>B166&amp;"_"&amp;C166&amp;"_"&amp;E166</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2JQ31</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -10812,7 +10812,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="str">
-        <f>B167&amp;"_"&amp;C167&amp;"_"&amp;E167</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2JQ6</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -10870,7 +10870,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="str">
-        <f>B168&amp;"_"&amp;C168&amp;"_"&amp;E168</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_2JQ8</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -10928,7 +10928,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="str">
-        <f>B169&amp;"_"&amp;C169&amp;"_"&amp;E169</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_3AZ4</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -10988,7 +10988,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="str">
-        <f>B170&amp;"_"&amp;C170&amp;"_"&amp;E170</f>
+        <f t="shared" si="6"/>
         <v>OFAV_SS_3EV30</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -11166,7 +11166,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="str">
-        <f>B173&amp;"_"&amp;C173&amp;"_"&amp;E173</f>
+        <f t="shared" ref="A173:A181" si="7">B173&amp;"_"&amp;C173&amp;"_"&amp;E173</f>
         <v>OFAV_SS_4DW11</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -11224,7 +11224,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="str">
-        <f>B174&amp;"_"&amp;C174&amp;"_"&amp;E174</f>
+        <f t="shared" si="7"/>
         <v>OFAV_SS_4DW14</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -11282,7 +11282,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="str">
-        <f>B175&amp;"_"&amp;C175&amp;"_"&amp;E175</f>
+        <f t="shared" si="7"/>
         <v>OFAV_SS_4EV14</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -11340,7 +11340,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="str">
-        <f>B176&amp;"_"&amp;C176&amp;"_"&amp;E176</f>
+        <f t="shared" si="7"/>
         <v>OFAV_SS_4EV15</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -11398,7 +11398,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="str">
-        <f>B177&amp;"_"&amp;C177&amp;"_"&amp;E177</f>
+        <f t="shared" si="7"/>
         <v>OFAV_SS_4JQ12</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -11456,7 +11456,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="str">
-        <f>B178&amp;"_"&amp;C178&amp;"_"&amp;E178</f>
+        <f t="shared" si="7"/>
         <v>OFAV_SS_6JQ16</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -11516,7 +11516,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="str">
-        <f>B179&amp;"_"&amp;C179&amp;"_"&amp;E179</f>
+        <f t="shared" si="7"/>
         <v>OFAV_SS_8EV24</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -11574,7 +11574,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="str">
-        <f>B180&amp;"_"&amp;C180&amp;"_"&amp;E180</f>
+        <f t="shared" si="7"/>
         <v>OFAV_SS_9AZ10</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -11632,7 +11632,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="str">
-        <f>B181&amp;"_"&amp;C181&amp;"_"&amp;E181</f>
+        <f t="shared" si="7"/>
         <v>OFAV_SS_9AZ7</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -11988,7 +11988,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="str">
-        <f>B187&amp;"_"&amp;C187&amp;"_"&amp;E187</f>
+        <f t="shared" ref="A187:A195" si="8">B187&amp;"_"&amp;C187&amp;"_"&amp;E187</f>
         <v>OFAV_SS_9EV41</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -12046,7 +12046,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="str">
-        <f>B188&amp;"_"&amp;C188&amp;"_"&amp;E188</f>
+        <f t="shared" si="8"/>
         <v>OFAV_SS_9JQ5</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -12104,7 +12104,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="str">
-        <f>B189&amp;"_"&amp;C189&amp;"_"&amp;E189</f>
+        <f t="shared" si="8"/>
         <v>OFAV_SS_JQ1</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -12164,7 +12164,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="str">
-        <f>B190&amp;"_"&amp;C190&amp;"_"&amp;E190</f>
+        <f t="shared" si="8"/>
         <v>OFRA_PP_0CX4</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -12221,7 +12221,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="str">
-        <f>B191&amp;"_"&amp;C191&amp;"_"&amp;E191</f>
+        <f t="shared" si="8"/>
         <v>OFRA_PP_0CX5</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -12279,7 +12279,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
-        <f>B192&amp;"_"&amp;C192&amp;"_"&amp;E192</f>
+        <f t="shared" si="8"/>
         <v>OFRA_PP_0GT1</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -12337,7 +12337,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
-        <f>B193&amp;"_"&amp;C193&amp;"_"&amp;E193</f>
+        <f t="shared" si="8"/>
         <v>OFRA_PP_0GT3</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -12397,7 +12397,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="str">
-        <f>B194&amp;"_"&amp;C194&amp;"_"&amp;E194</f>
+        <f t="shared" si="8"/>
         <v>OFRA_PP_0GT5</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -12455,7 +12455,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
-        <f>B195&amp;"_"&amp;C195&amp;"_"&amp;E195</f>
+        <f t="shared" si="8"/>
         <v>OFRA_PP_1GT36</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -14037,7 +14037,7 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="str">
-        <f>B222&amp;"_"&amp;C222&amp;"_"&amp;E222</f>
+        <f t="shared" ref="A222:A231" si="9">B222&amp;"_"&amp;C222&amp;"_"&amp;E222</f>
         <v>OFRA_PP_4CX12</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -14095,7 +14095,7 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="str">
-        <f>B223&amp;"_"&amp;C223&amp;"_"&amp;E223</f>
+        <f t="shared" si="9"/>
         <v>OFRA_PP_4HS13</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -14155,7 +14155,7 @@
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="str">
-        <f>B224&amp;"_"&amp;C224&amp;"_"&amp;E224</f>
+        <f t="shared" si="9"/>
         <v>OFRA_PP_4HS15</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -14213,7 +14213,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="str">
-        <f>B225&amp;"_"&amp;C225&amp;"_"&amp;E225</f>
+        <f t="shared" si="9"/>
         <v>OFRA_PP_6CX18</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -14273,7 +14273,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="str">
-        <f>B226&amp;"_"&amp;C226&amp;"_"&amp;E226</f>
+        <f t="shared" si="9"/>
         <v>OFRA_PP_6EV18</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -14331,7 +14331,7 @@
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="str">
-        <f>B227&amp;"_"&amp;C227&amp;"_"&amp;E227</f>
+        <f t="shared" si="9"/>
         <v>OFRA_PP_6GT17</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -14389,7 +14389,7 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="str">
-        <f>B228&amp;"_"&amp;C228&amp;"_"&amp;E228</f>
+        <f t="shared" si="9"/>
         <v>OFRA_PP_8CX24</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -14447,7 +14447,7 @@
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="str">
-        <f>B229&amp;"_"&amp;C229&amp;"_"&amp;E229</f>
+        <f t="shared" si="9"/>
         <v>OFRA_PP_8HS21</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -14505,7 +14505,7 @@
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="str">
-        <f>B230&amp;"_"&amp;C230&amp;"_"&amp;E230</f>
+        <f t="shared" si="9"/>
         <v>OFRA_PP_8HS23</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -14563,7 +14563,7 @@
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="str">
-        <f>B231&amp;"_"&amp;C231&amp;"_"&amp;E231</f>
+        <f t="shared" si="9"/>
         <v>OFRA_PP_8HS24</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -15323,7 +15323,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="str">
-        <f>B244&amp;"_"&amp;C244&amp;"_"&amp;E244</f>
+        <f t="shared" ref="A244:A282" si="10">B244&amp;"_"&amp;C244&amp;"_"&amp;E244</f>
         <v>OFRA_PS_1GT36</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -15383,7 +15383,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="str">
-        <f>B245&amp;"_"&amp;C245&amp;"_"&amp;E245</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_1GT37</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -15441,7 +15441,7 @@
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="str">
-        <f>B246&amp;"_"&amp;C246&amp;"_"&amp;E246</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_1GT42</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -15499,7 +15499,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="str">
-        <f>B247&amp;"_"&amp;C247&amp;"_"&amp;E247</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_1GT43</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -15557,7 +15557,7 @@
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="str">
-        <f>B248&amp;"_"&amp;C248&amp;"_"&amp;E248</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2CX10</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -15615,7 +15615,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="str">
-        <f>B249&amp;"_"&amp;C249&amp;"_"&amp;E249</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2CX11</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -15675,7 +15675,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="str">
-        <f>B250&amp;"_"&amp;C250&amp;"_"&amp;E250</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2CX12</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -15733,7 +15733,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="str">
-        <f>B251&amp;"_"&amp;C251&amp;"_"&amp;E251</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2CX13</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -15791,7 +15791,7 @@
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="str">
-        <f>B252&amp;"_"&amp;C252&amp;"_"&amp;E252</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2CX8</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -15849,7 +15849,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="str">
-        <f>B253&amp;"_"&amp;C253&amp;"_"&amp;E253</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2GT10</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -15907,7 +15907,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="str">
-        <f>B254&amp;"_"&amp;C254&amp;"_"&amp;E254</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2GT3</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -15965,7 +15965,7 @@
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="str">
-        <f>B255&amp;"_"&amp;C255&amp;"_"&amp;E255</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2GT31</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -16023,7 +16023,7 @@
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="str">
-        <f>B256&amp;"_"&amp;C256&amp;"_"&amp;E256</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2GT38</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -16081,7 +16081,7 @@
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="str">
-        <f>B257&amp;"_"&amp;C257&amp;"_"&amp;E257</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2GT41</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -16139,7 +16139,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="str">
-        <f>B258&amp;"_"&amp;C258&amp;"_"&amp;E258</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2GT7</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -16197,7 +16197,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="str">
-        <f>B259&amp;"_"&amp;C259&amp;"_"&amp;E259</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2HS11</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -16255,7 +16255,7 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="str">
-        <f>B260&amp;"_"&amp;C260&amp;"_"&amp;E260</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2HS17</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -16313,7 +16313,7 @@
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="str">
-        <f>B261&amp;"_"&amp;C261&amp;"_"&amp;E261</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2HS27</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -16371,7 +16371,7 @@
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="str">
-        <f>B262&amp;"_"&amp;C262&amp;"_"&amp;E262</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_2HS9</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -16429,7 +16429,7 @@
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="str">
-        <f>B263&amp;"_"&amp;C263&amp;"_"&amp;E263</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_4CX12</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -16487,7 +16487,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="str">
-        <f>B264&amp;"_"&amp;C264&amp;"_"&amp;E264</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_4HS13</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -16545,7 +16545,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="str">
-        <f>B265&amp;"_"&amp;C265&amp;"_"&amp;E265</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_4HS15</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -16603,7 +16603,7 @@
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="str">
-        <f>B266&amp;"_"&amp;C266&amp;"_"&amp;E266</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_6CX18</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -16661,7 +16661,7 @@
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="str">
-        <f>B267&amp;"_"&amp;C267&amp;"_"&amp;E267</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_6EV18</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -16719,7 +16719,7 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="str">
-        <f>B268&amp;"_"&amp;C268&amp;"_"&amp;E268</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_6GT17</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -16777,7 +16777,7 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="str">
-        <f>B269&amp;"_"&amp;C269&amp;"_"&amp;E269</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_8CX24</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -16835,7 +16835,7 @@
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="str">
-        <f>B270&amp;"_"&amp;C270&amp;"_"&amp;E270</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_8HS21</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -16895,7 +16895,7 @@
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="str">
-        <f>B271&amp;"_"&amp;C271&amp;"_"&amp;E271</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_8HS23</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -16953,7 +16953,7 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="str">
-        <f>B272&amp;"_"&amp;C272&amp;"_"&amp;E272</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_8HS24</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -17011,7 +17011,7 @@
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="str">
-        <f>B273&amp;"_"&amp;C273&amp;"_"&amp;E273</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_9CX5</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -17069,7 +17069,7 @@
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="str">
-        <f>B274&amp;"_"&amp;C274&amp;"_"&amp;E274</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_9CX6</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -17127,7 +17127,7 @@
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="str">
-        <f>B275&amp;"_"&amp;C275&amp;"_"&amp;E275</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_9GT30</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -17185,7 +17185,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="str">
-        <f>B276&amp;"_"&amp;C276&amp;"_"&amp;E276</f>
+        <f t="shared" si="10"/>
         <v>OFRA_PS_9GT47</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -17243,7 +17243,7 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="str">
-        <f>B277&amp;"_"&amp;C277&amp;"_"&amp;E277</f>
+        <f t="shared" si="10"/>
         <v>PRACTICE_30OA1_</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -17273,7 +17273,7 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="str">
-        <f>B278&amp;"_"&amp;C278&amp;"_"&amp;E278</f>
+        <f t="shared" si="10"/>
         <v>PRACTICE_55SS1T_</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -17300,7 +17300,7 @@
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="str">
-        <f>B279&amp;"_"&amp;C279&amp;"_"&amp;E279</f>
+        <f t="shared" si="10"/>
         <v>PRACTICE_Branching_Pavona_</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -17319,7 +17319,7 @@
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="str">
-        <f>B280&amp;"_"&amp;C280&amp;"_"&amp;E280</f>
+        <f t="shared" si="10"/>
         <v>PRACTICE_Green_Encrusting_Pavona_</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -17346,7 +17346,7 @@
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="str">
-        <f>B281&amp;"_"&amp;C281&amp;"_"&amp;E281</f>
+        <f t="shared" si="10"/>
         <v>PRACTICE_Pagoda_Cup_</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -17367,7 +17367,7 @@
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="str">
-        <f>B282&amp;"_"&amp;C282&amp;"_"&amp;E282</f>
+        <f t="shared" si="10"/>
         <v>PRACTICE_Tangerine_Leoptoseris_</v>
       </c>
       <c r="B282" s="1" t="s">

--- a/Transplants_Raw_Master.xlsx
+++ b/Transplants_Raw_Master.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DA0E0C-96E2-6341-9BCC-89BBE0226207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D42EC31-5BEC-6043-AEF9-18E5F5DC718C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="880" windowWidth="25040" windowHeight="13740"/>
+    <workbookView xWindow="480" yWindow="880" windowWidth="23360" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transplants_Raw_Master" sheetId="1" r:id="rId1"/>
@@ -1432,7 +1432,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2267,12 +2267,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD122"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
